--- a/backend/django_subject_manager/input/esti.xlsx
+++ b/backend/django_subject_manager/input/esti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\Andrasjó\tantervi hálók 2009-2010\tantervi hálók 2016\új mintatantervek\2024 január\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CA9CD8-46E4-4931-A48B-79DEA3929112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D79BF-F78A-BA4C-8D1B-97F6FF7433C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35220" yWindow="-8860" windowWidth="24240" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esti BSc" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="208">
   <si>
     <t>IP-18eMATAG</t>
   </si>
@@ -743,6 +743,9 @@
   <si>
     <t>IP-18eMATAG, IP-18eKVPNY1EG</t>
   </si>
+  <si>
+    <t>Előfeltétel(ek)</t>
+  </si>
 </sst>
 </file>
 
@@ -757,6 +760,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -928,14 +939,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1634,248 +1637,569 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1886,149 +2210,8 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2038,201 +2221,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2571,83 +2559,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y59" sqref="Y59"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" customWidth="1"/>
+    <col min="6" max="6" width="5.3984375" customWidth="1"/>
+    <col min="7" max="7" width="5.19921875" customWidth="1"/>
+    <col min="8" max="8" width="5.3984375" customWidth="1"/>
+    <col min="9" max="9" width="3.3984375" customWidth="1"/>
+    <col min="10" max="10" width="7.19921875" customWidth="1"/>
+    <col min="11" max="11" width="4.796875" customWidth="1"/>
+    <col min="12" max="12" width="5.19921875" customWidth="1"/>
+    <col min="13" max="13" width="21.59765625" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" customWidth="1"/>
+    <col min="15" max="15" width="9.3984375" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="17" max="20" width="10" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="0.33203125" customWidth="1"/>
+    <col min="22" max="22" width="0.3984375" customWidth="1"/>
     <col min="23" max="23" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-    </row>
-    <row r="2" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+    </row>
+    <row r="2" spans="1:21" ht="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-    </row>
-    <row r="4" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+    </row>
+    <row r="4" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -2670,32 +2658,32 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:21" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:21" ht="297" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="170" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-    </row>
-    <row r="6" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+    </row>
+    <row r="6" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -2718,7 +2706,7 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2741,41 +2729,41 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="165" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-    </row>
-    <row r="9" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="166"/>
+      <c r="T8" s="166"/>
+      <c r="U8" s="167"/>
+    </row>
+    <row r="9" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="6" t="s">
         <v>61</v>
       </c>
@@ -2798,7 +2786,7 @@
         <v>62</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>59</v>
@@ -2825,1183 +2813,1183 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="56" t="s">
+    <row r="10" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57">
-        <v>0</v>
-      </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="57">
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="27">
         <v>3</v>
       </c>
-      <c r="I10" s="57">
-        <v>0</v>
-      </c>
-      <c r="J10" s="59" t="s">
+      <c r="I10" s="27">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="K10" s="59">
-        <v>2</v>
-      </c>
-      <c r="L10" s="57">
+      <c r="K10" s="29">
+        <v>2</v>
+      </c>
+      <c r="L10" s="27">
         <v>5</v>
       </c>
-      <c r="M10" s="58"/>
-      <c r="N10" s="57">
+      <c r="M10" s="28"/>
+      <c r="N10" s="27">
         <v>1</v>
       </c>
-      <c r="O10" s="59" t="s">
+      <c r="O10" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="60" t="s">
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="30" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+    <row r="11" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63">
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="32">
         <v>1</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="63">
-        <v>0</v>
-      </c>
-      <c r="I11" s="63">
+      <c r="H11" s="32">
+        <v>0</v>
+      </c>
+      <c r="I11" s="32">
         <v>1</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="34">
         <v>3</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="32">
         <v>5</v>
       </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="63">
+      <c r="M11" s="34"/>
+      <c r="N11" s="32">
         <v>1</v>
       </c>
-      <c r="O11" s="64" t="s">
+      <c r="O11" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="66" t="s">
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
+    <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63">
-        <v>2</v>
-      </c>
-      <c r="G12" s="64" t="s">
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="32">
+        <v>2</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="63">
-        <v>0</v>
-      </c>
-      <c r="I12" s="63">
-        <v>2</v>
-      </c>
-      <c r="J12" s="64" t="s">
+      <c r="H12" s="32">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32">
+        <v>2</v>
+      </c>
+      <c r="J12" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="34">
         <v>3</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="32">
         <v>7</v>
       </c>
-      <c r="M12" s="65"/>
-      <c r="N12" s="63">
+      <c r="M12" s="34"/>
+      <c r="N12" s="32">
         <v>1</v>
       </c>
-      <c r="O12" s="64" t="s">
+      <c r="O12" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="66" t="s">
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+    <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="63">
-        <v>2</v>
-      </c>
-      <c r="G13" s="64" t="s">
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="32">
+        <v>2</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="63">
-        <v>0</v>
-      </c>
-      <c r="I13" s="63">
+      <c r="H13" s="32">
+        <v>0</v>
+      </c>
+      <c r="I13" s="32">
         <v>1</v>
       </c>
-      <c r="J13" s="64" t="s">
+      <c r="J13" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="34">
         <v>3</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="32">
         <v>6</v>
       </c>
-      <c r="M13" s="65"/>
-      <c r="N13" s="63">
+      <c r="M13" s="34"/>
+      <c r="N13" s="32">
         <v>1</v>
       </c>
-      <c r="O13" s="64" t="s">
+      <c r="O13" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="66" t="s">
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="63">
-        <v>2</v>
-      </c>
-      <c r="G14" s="64" t="s">
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="32">
+        <v>2</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="63">
-        <v>0</v>
-      </c>
-      <c r="I14" s="63">
-        <v>0</v>
-      </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64">
-        <v>0</v>
-      </c>
-      <c r="L14" s="63">
-        <v>2</v>
-      </c>
-      <c r="M14" s="65" t="s">
+      <c r="H14" s="32">
+        <v>0</v>
+      </c>
+      <c r="I14" s="32">
+        <v>0</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33">
+        <v>0</v>
+      </c>
+      <c r="L14" s="32">
+        <v>2</v>
+      </c>
+      <c r="M14" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="63">
-        <v>2</v>
-      </c>
-      <c r="O14" s="65"/>
-      <c r="P14" s="64" t="s">
+      <c r="N14" s="32">
+        <v>2</v>
+      </c>
+      <c r="O14" s="34"/>
+      <c r="P14" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="70" t="s">
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
+    <row r="15" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="63">
-        <v>0</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="63">
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="32">
         <v>1</v>
       </c>
-      <c r="I15" s="63">
-        <v>0</v>
-      </c>
-      <c r="J15" s="64" t="s">
+      <c r="I15" s="32">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="K15" s="64">
-        <v>2</v>
-      </c>
-      <c r="L15" s="63">
+      <c r="K15" s="33">
+        <v>2</v>
+      </c>
+      <c r="L15" s="32">
         <v>3</v>
       </c>
-      <c r="M15" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="63">
-        <v>2</v>
-      </c>
-      <c r="O15" s="65"/>
-      <c r="P15" s="64" t="s">
+      <c r="M15" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="32">
+        <v>2</v>
+      </c>
+      <c r="O15" s="34"/>
+      <c r="P15" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="70" t="s">
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="63">
-        <v>2</v>
-      </c>
-      <c r="G16" s="64" t="s">
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="32">
+        <v>2</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="63">
-        <v>0</v>
-      </c>
-      <c r="I16" s="63">
-        <v>0</v>
-      </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64">
-        <v>0</v>
-      </c>
-      <c r="L16" s="63">
-        <v>2</v>
-      </c>
-      <c r="M16" s="65" t="s">
+      <c r="H16" s="32">
+        <v>0</v>
+      </c>
+      <c r="I16" s="32">
+        <v>0</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33">
+        <v>0</v>
+      </c>
+      <c r="L16" s="32">
+        <v>2</v>
+      </c>
+      <c r="M16" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="N16" s="63">
-        <v>2</v>
-      </c>
-      <c r="O16" s="65"/>
-      <c r="P16" s="64" t="s">
+      <c r="N16" s="32">
+        <v>2</v>
+      </c>
+      <c r="O16" s="34"/>
+      <c r="P16" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="70" t="s">
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
+    <row r="17" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="63">
-        <v>0</v>
-      </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="63">
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32">
         <v>1</v>
       </c>
-      <c r="I17" s="63">
-        <v>0</v>
-      </c>
-      <c r="J17" s="64" t="s">
+      <c r="I17" s="32">
+        <v>0</v>
+      </c>
+      <c r="J17" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="K17" s="64">
-        <v>2</v>
-      </c>
-      <c r="L17" s="63">
+      <c r="K17" s="33">
+        <v>2</v>
+      </c>
+      <c r="L17" s="32">
         <v>3</v>
       </c>
-      <c r="M17" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="63">
-        <v>2</v>
-      </c>
-      <c r="O17" s="65"/>
-      <c r="P17" s="64" t="s">
+      <c r="M17" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="32">
+        <v>2</v>
+      </c>
+      <c r="O17" s="34"/>
+      <c r="P17" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="70" t="s">
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
+    <row r="18" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="63">
-        <v>2</v>
-      </c>
-      <c r="G18" s="64" t="s">
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="32">
+        <v>2</v>
+      </c>
+      <c r="G18" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="63">
-        <v>0</v>
-      </c>
-      <c r="I18" s="63">
+      <c r="H18" s="32">
+        <v>0</v>
+      </c>
+      <c r="I18" s="32">
         <v>3</v>
       </c>
-      <c r="J18" s="64" t="s">
+      <c r="J18" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K18" s="65">
-        <v>2</v>
-      </c>
-      <c r="L18" s="63">
+      <c r="K18" s="34">
+        <v>2</v>
+      </c>
+      <c r="L18" s="32">
         <v>7</v>
       </c>
-      <c r="M18" s="65" t="s">
+      <c r="M18" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="63">
-        <v>2</v>
-      </c>
-      <c r="O18" s="65"/>
-      <c r="P18" s="64" t="s">
+      <c r="N18" s="32">
+        <v>2</v>
+      </c>
+      <c r="O18" s="34"/>
+      <c r="P18" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="66" t="s">
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
+    <row r="19" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="63">
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="32">
         <v>1</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="63">
-        <v>0</v>
-      </c>
-      <c r="I19" s="63">
+      <c r="H19" s="32">
+        <v>0</v>
+      </c>
+      <c r="I19" s="32">
         <v>1</v>
       </c>
-      <c r="J19" s="64" t="s">
+      <c r="J19" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K19" s="65">
-        <v>2</v>
-      </c>
-      <c r="L19" s="63">
+      <c r="K19" s="34">
+        <v>2</v>
+      </c>
+      <c r="L19" s="32">
         <v>4</v>
       </c>
-      <c r="M19" s="65"/>
-      <c r="N19" s="63">
-        <v>2</v>
-      </c>
-      <c r="O19" s="65"/>
-      <c r="P19" s="64" t="s">
+      <c r="M19" s="34"/>
+      <c r="N19" s="32">
+        <v>2</v>
+      </c>
+      <c r="O19" s="34"/>
+      <c r="P19" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="66" t="s">
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
+    <row r="20" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="63">
-        <v>2</v>
-      </c>
-      <c r="G20" s="64" t="s">
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="32">
+        <v>2</v>
+      </c>
+      <c r="G20" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="63">
-        <v>0</v>
-      </c>
-      <c r="I20" s="63">
-        <v>0</v>
-      </c>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64">
-        <v>0</v>
-      </c>
-      <c r="L20" s="63">
-        <v>2</v>
-      </c>
-      <c r="M20" s="65" t="s">
+      <c r="H20" s="32">
+        <v>0</v>
+      </c>
+      <c r="I20" s="32">
+        <v>0</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33">
+        <v>0</v>
+      </c>
+      <c r="L20" s="32">
+        <v>2</v>
+      </c>
+      <c r="M20" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="N20" s="63">
-        <v>2</v>
-      </c>
-      <c r="O20" s="65"/>
-      <c r="P20" s="64" t="s">
+      <c r="N20" s="32">
+        <v>2</v>
+      </c>
+      <c r="O20" s="34"/>
+      <c r="P20" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="75" t="s">
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
+    <row r="21" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="63">
-        <v>0</v>
-      </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="63">
-        <v>2</v>
-      </c>
-      <c r="I21" s="63">
-        <v>0</v>
-      </c>
-      <c r="J21" s="64" t="s">
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="32">
+        <v>0</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="32">
+        <v>2</v>
+      </c>
+      <c r="I21" s="32">
+        <v>0</v>
+      </c>
+      <c r="J21" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="K21" s="64">
-        <v>2</v>
-      </c>
-      <c r="L21" s="63">
+      <c r="K21" s="33">
+        <v>2</v>
+      </c>
+      <c r="L21" s="32">
         <v>4</v>
       </c>
-      <c r="M21" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" s="63">
-        <v>2</v>
-      </c>
-      <c r="O21" s="65"/>
-      <c r="P21" s="64" t="s">
+      <c r="M21" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="32">
+        <v>2</v>
+      </c>
+      <c r="O21" s="34"/>
+      <c r="P21" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="75" t="s">
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="63">
-        <v>2</v>
-      </c>
-      <c r="G22" s="64" t="s">
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="32">
+        <v>2</v>
+      </c>
+      <c r="G22" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="63">
-        <v>0</v>
-      </c>
-      <c r="I22" s="63">
-        <v>0</v>
-      </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65">
-        <v>2</v>
-      </c>
-      <c r="L22" s="63">
+      <c r="H22" s="32">
+        <v>0</v>
+      </c>
+      <c r="I22" s="32">
+        <v>0</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34">
+        <v>2</v>
+      </c>
+      <c r="L22" s="32">
         <v>4</v>
       </c>
-      <c r="M22" s="65"/>
-      <c r="N22" s="63">
+      <c r="M22" s="34"/>
+      <c r="N22" s="32">
         <v>3</v>
       </c>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="64" t="s">
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="70" t="s">
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="153" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="63">
-        <v>2</v>
-      </c>
-      <c r="G23" s="64" t="s">
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="32">
+        <v>2</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="63">
-        <v>0</v>
-      </c>
-      <c r="I23" s="63">
+      <c r="H23" s="32">
+        <v>0</v>
+      </c>
+      <c r="I23" s="32">
         <v>1</v>
       </c>
-      <c r="J23" s="64" t="s">
+      <c r="J23" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="K23" s="65">
-        <v>2</v>
-      </c>
-      <c r="L23" s="63">
+      <c r="K23" s="34">
+        <v>2</v>
+      </c>
+      <c r="L23" s="32">
         <v>5</v>
       </c>
-      <c r="M23" s="65"/>
-      <c r="N23" s="63">
+      <c r="M23" s="34"/>
+      <c r="N23" s="32">
         <v>3</v>
       </c>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="64" t="s">
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="66" t="s">
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="63">
-        <v>2</v>
-      </c>
-      <c r="G24" s="64" t="s">
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="32">
+        <v>2</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="H24" s="63">
-        <v>0</v>
-      </c>
-      <c r="I24" s="63">
-        <v>2</v>
-      </c>
-      <c r="J24" s="64" t="s">
+      <c r="H24" s="32">
+        <v>0</v>
+      </c>
+      <c r="I24" s="32">
+        <v>2</v>
+      </c>
+      <c r="J24" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K24" s="65">
+      <c r="K24" s="34">
         <v>4</v>
       </c>
-      <c r="L24" s="63">
+      <c r="L24" s="32">
         <v>8</v>
       </c>
-      <c r="M24" s="65" t="s">
+      <c r="M24" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="63">
+      <c r="N24" s="32">
         <v>3</v>
       </c>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="64" t="s">
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="66" t="s">
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="s">
+    <row r="25" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="63">
-        <v>2</v>
-      </c>
-      <c r="G25" s="64" t="s">
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="32">
+        <v>2</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="63">
-        <v>0</v>
-      </c>
-      <c r="I25" s="63">
-        <v>0</v>
-      </c>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64">
-        <v>0</v>
-      </c>
-      <c r="L25" s="63">
-        <v>2</v>
-      </c>
-      <c r="M25" s="64" t="s">
+      <c r="H25" s="32">
+        <v>0</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33">
+        <v>0</v>
+      </c>
+      <c r="L25" s="32">
+        <v>2</v>
+      </c>
+      <c r="M25" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="N25" s="63">
+      <c r="N25" s="32">
         <v>3</v>
       </c>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="64" t="s">
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="75" t="s">
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61" t="s">
+    <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="63">
-        <v>0</v>
-      </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="63">
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="32">
+        <v>0</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="32">
         <v>1</v>
       </c>
-      <c r="I26" s="63">
-        <v>0</v>
-      </c>
-      <c r="J26" s="64" t="s">
+      <c r="I26" s="32">
+        <v>0</v>
+      </c>
+      <c r="J26" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="64">
-        <v>2</v>
-      </c>
-      <c r="L26" s="63">
+      <c r="K26" s="33">
+        <v>2</v>
+      </c>
+      <c r="L26" s="32">
         <v>3</v>
       </c>
-      <c r="M26" s="64" t="s">
+      <c r="M26" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="63">
+      <c r="N26" s="32">
         <v>3</v>
       </c>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="64" t="s">
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="75" t="s">
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="s">
+    <row r="27" spans="1:21" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="63">
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="32">
         <v>1</v>
       </c>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="63">
-        <v>0</v>
-      </c>
-      <c r="I27" s="63">
+      <c r="H27" s="32">
+        <v>0</v>
+      </c>
+      <c r="I27" s="32">
         <v>1</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="J27" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K27" s="65">
+      <c r="K27" s="34">
         <v>1</v>
       </c>
-      <c r="L27" s="63">
+      <c r="L27" s="32">
         <v>3</v>
       </c>
-      <c r="M27" s="65" t="s">
+      <c r="M27" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="N27" s="63">
+      <c r="N27" s="32">
         <v>4</v>
       </c>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="64" t="s">
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="66" t="s">
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61" t="s">
+    <row r="28" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="63">
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="32">
         <v>1</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="63">
-        <v>0</v>
-      </c>
-      <c r="I28" s="63">
+      <c r="H28" s="32">
+        <v>0</v>
+      </c>
+      <c r="I28" s="32">
         <v>1</v>
       </c>
-      <c r="J28" s="64" t="s">
+      <c r="J28" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K28" s="65">
+      <c r="K28" s="34">
         <v>1</v>
       </c>
-      <c r="L28" s="63">
+      <c r="L28" s="32">
         <v>3</v>
       </c>
-      <c r="M28" s="65" t="s">
+      <c r="M28" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="N28" s="63">
+      <c r="N28" s="32">
         <v>4</v>
       </c>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="64" t="s">
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="66" t="s">
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61" t="s">
+    <row r="29" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="63">
-        <v>2</v>
-      </c>
-      <c r="G29" s="64" t="s">
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="32">
+        <v>2</v>
+      </c>
+      <c r="G29" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="77">
-        <v>0</v>
-      </c>
-      <c r="I29" s="77">
-        <v>0</v>
-      </c>
-      <c r="J29" s="77"/>
-      <c r="K29" s="64">
-        <v>0</v>
-      </c>
-      <c r="L29" s="63">
-        <v>2</v>
-      </c>
-      <c r="M29" s="65" t="s">
+      <c r="H29" s="39">
+        <v>0</v>
+      </c>
+      <c r="I29" s="39">
+        <v>0</v>
+      </c>
+      <c r="J29" s="39"/>
+      <c r="K29" s="33">
+        <v>0</v>
+      </c>
+      <c r="L29" s="32">
+        <v>2</v>
+      </c>
+      <c r="M29" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="N29" s="63">
+      <c r="N29" s="32">
         <v>5</v>
       </c>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="64" t="s">
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="T29" s="65"/>
-      <c r="U29" s="66" t="s">
+      <c r="T29" s="34"/>
+      <c r="U29" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
+    <row r="30" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="63">
-        <v>0</v>
-      </c>
-      <c r="G30" s="64"/>
-      <c r="H30" s="63">
-        <v>0</v>
-      </c>
-      <c r="I30" s="63">
-        <v>2</v>
-      </c>
-      <c r="J30" s="64" t="s">
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="32">
+        <v>0</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="32">
+        <v>0</v>
+      </c>
+      <c r="I30" s="32">
+        <v>2</v>
+      </c>
+      <c r="J30" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="33">
         <v>1</v>
       </c>
-      <c r="L30" s="63">
+      <c r="L30" s="32">
         <v>3</v>
       </c>
-      <c r="M30" s="64" t="s">
+      <c r="M30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="63">
+      <c r="N30" s="32">
         <v>5</v>
       </c>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="64" t="s">
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="T30" s="65"/>
-      <c r="U30" s="66" t="s">
+      <c r="T30" s="34"/>
+      <c r="U30" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="78" t="s">
+    <row r="31" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82">
-        <v>2</v>
-      </c>
-      <c r="G31" s="83" t="s">
+      <c r="C31" s="187"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="41">
+        <v>2</v>
+      </c>
+      <c r="G31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="82">
-        <v>0</v>
-      </c>
-      <c r="I31" s="82">
-        <v>0</v>
-      </c>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84">
+      <c r="H31" s="41">
+        <v>0</v>
+      </c>
+      <c r="I31" s="41">
+        <v>0</v>
+      </c>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43">
         <v>1</v>
       </c>
-      <c r="L31" s="82">
+      <c r="L31" s="41">
         <v>3</v>
       </c>
-      <c r="M31" s="85" t="s">
+      <c r="M31" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="N31" s="86">
+      <c r="N31" s="45">
         <v>5</v>
       </c>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="85" t="s">
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="T31" s="87"/>
-      <c r="U31" s="75" t="s">
+      <c r="T31" s="46"/>
+      <c r="U31" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="78" t="s">
+    <row r="32" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="195" t="s">
+      <c r="B32" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="195"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="195"/>
-      <c r="F32" s="86">
-        <v>2</v>
-      </c>
-      <c r="G32" s="85" t="s">
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="45">
+        <v>2</v>
+      </c>
+      <c r="G32" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="196">
-        <v>0</v>
-      </c>
-      <c r="I32" s="196">
-        <v>0</v>
-      </c>
-      <c r="J32" s="196"/>
-      <c r="K32" s="196">
-        <v>0</v>
-      </c>
-      <c r="L32" s="86">
-        <v>2</v>
-      </c>
-      <c r="M32" s="197" t="s">
+      <c r="H32" s="126">
+        <v>0</v>
+      </c>
+      <c r="I32" s="126">
+        <v>0</v>
+      </c>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126">
+        <v>0</v>
+      </c>
+      <c r="L32" s="45">
+        <v>2</v>
+      </c>
+      <c r="M32" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="N32" s="86">
+      <c r="N32" s="45">
         <v>6</v>
       </c>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="85" t="s">
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="U32" s="66" t="s">
+      <c r="U32" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="88" t="s">
+    <row r="33" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90">
-        <v>0</v>
-      </c>
-      <c r="G33" s="91"/>
-      <c r="H33" s="90">
-        <v>0</v>
-      </c>
-      <c r="I33" s="90">
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="49">
+        <v>0</v>
+      </c>
+      <c r="G33" s="50"/>
+      <c r="H33" s="49">
+        <v>0</v>
+      </c>
+      <c r="I33" s="49">
         <v>1</v>
       </c>
-      <c r="J33" s="91" t="s">
+      <c r="J33" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="K33" s="91">
+      <c r="K33" s="50">
         <v>1</v>
       </c>
-      <c r="L33" s="90">
-        <v>2</v>
-      </c>
-      <c r="M33" s="92" t="s">
+      <c r="L33" s="49">
+        <v>2</v>
+      </c>
+      <c r="M33" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="N33" s="90">
+      <c r="N33" s="49">
         <v>6</v>
       </c>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="91" t="s">
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="U33" s="94" t="s">
+      <c r="U33" s="53" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96" t="s">
+    <row r="34" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="54"/>
+      <c r="B34" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="100">
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="56">
         <v>90</v>
       </c>
-      <c r="M34" s="101"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="100">
+      <c r="M34" s="57"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="56">
         <f>SUM(L10:L13)</f>
         <v>23</v>
       </c>
-      <c r="P34" s="100">
+      <c r="P34" s="56">
         <f>SUM(L14:L21)</f>
         <v>27</v>
       </c>
-      <c r="Q34" s="100">
+      <c r="Q34" s="56">
         <f>SUM(L22:L26)</f>
         <v>22</v>
       </c>
-      <c r="R34" s="100">
+      <c r="R34" s="56">
         <f>SUM(L27:L28)</f>
         <v>6</v>
       </c>
-      <c r="S34" s="100">
+      <c r="S34" s="56">
         <f>SUM(L29:L31)</f>
         <v>8</v>
       </c>
-      <c r="T34" s="100">
+      <c r="T34" s="56">
         <v>4</v>
       </c>
-      <c r="U34" s="103"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U34" s="59"/>
+    </row>
+    <row r="35" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="11"/>
       <c r="C35" s="8"/>
@@ -4024,7 +4012,7 @@
       <c r="T35" s="13"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="11"/>
       <c r="C36" s="8"/>
@@ -4047,7 +4035,7 @@
       <c r="T36" s="13"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="11"/>
       <c r="C37" s="8"/>
@@ -4070,7 +4058,7 @@
       <c r="T37" s="13"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="11"/>
       <c r="C38" s="8"/>
@@ -4093,7 +4081,7 @@
       <c r="T38" s="13"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="11"/>
       <c r="C39" s="8"/>
@@ -4116,7 +4104,7 @@
       <c r="T39" s="13"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="11"/>
       <c r="C40" s="8"/>
@@ -4139,7 +4127,7 @@
       <c r="T40" s="13"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="11"/>
       <c r="C41" s="8"/>
@@ -4162,7 +4150,7 @@
       <c r="T41" s="13"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="11"/>
       <c r="C42" s="8"/>
@@ -4185,7 +4173,7 @@
       <c r="T42" s="13"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="11"/>
       <c r="C43" s="8"/>
@@ -4208,7 +4196,7 @@
       <c r="T43" s="13"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="11"/>
       <c r="C44" s="8"/>
@@ -4231,41 +4219,41 @@
       <c r="T44" s="13"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+    <row r="45" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="32"/>
-    </row>
-    <row r="46" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="184"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="184"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="184"/>
+      <c r="I45" s="184"/>
+      <c r="J45" s="184"/>
+      <c r="K45" s="184"/>
+      <c r="L45" s="184"/>
+      <c r="M45" s="184"/>
+      <c r="N45" s="184"/>
+      <c r="O45" s="184"/>
+      <c r="P45" s="184"/>
+      <c r="Q45" s="184"/>
+      <c r="R45" s="184"/>
+      <c r="S45" s="184"/>
+      <c r="T45" s="184"/>
+      <c r="U45" s="185"/>
+    </row>
+    <row r="46" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="131"/>
       <c r="F46" s="6" t="s">
         <v>61</v>
       </c>
@@ -4288,7 +4276,7 @@
         <v>62</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>59</v>
@@ -4315,736 +4303,736 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="104" t="s">
+    <row r="47" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="106">
-        <v>2</v>
-      </c>
-      <c r="G47" s="107" t="s">
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="61">
+        <v>2</v>
+      </c>
+      <c r="G47" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="H47" s="108">
-        <v>0</v>
-      </c>
-      <c r="I47" s="108">
-        <v>0</v>
-      </c>
-      <c r="J47" s="108"/>
-      <c r="K47" s="107">
-        <v>0</v>
-      </c>
-      <c r="L47" s="106">
-        <v>2</v>
-      </c>
-      <c r="M47" s="107" t="s">
+      <c r="H47" s="63">
+        <v>0</v>
+      </c>
+      <c r="I47" s="63">
+        <v>0</v>
+      </c>
+      <c r="J47" s="63"/>
+      <c r="K47" s="62">
+        <v>0</v>
+      </c>
+      <c r="L47" s="61">
+        <v>2</v>
+      </c>
+      <c r="M47" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="N47" s="106">
+      <c r="N47" s="61">
         <v>3</v>
       </c>
-      <c r="O47" s="128"/>
-      <c r="P47" s="128"/>
-      <c r="Q47" s="107" t="s">
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="R47" s="128"/>
-      <c r="S47" s="128"/>
-      <c r="T47" s="128"/>
-      <c r="U47" s="109" t="s">
+      <c r="R47" s="75"/>
+      <c r="S47" s="75"/>
+      <c r="T47" s="75"/>
+      <c r="U47" s="64" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="78" t="s">
+    <row r="48" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="86">
-        <v>0</v>
-      </c>
-      <c r="G48" s="85"/>
-      <c r="H48" s="86">
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="45">
+        <v>0</v>
+      </c>
+      <c r="G48" s="44"/>
+      <c r="H48" s="45">
         <v>1</v>
       </c>
-      <c r="I48" s="86">
-        <v>0</v>
-      </c>
-      <c r="J48" s="85" t="s">
+      <c r="I48" s="45">
+        <v>0</v>
+      </c>
+      <c r="J48" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="K48" s="85">
+      <c r="K48" s="44">
         <v>1</v>
       </c>
-      <c r="L48" s="86">
-        <v>2</v>
-      </c>
-      <c r="M48" s="85" t="s">
+      <c r="L48" s="45">
+        <v>2</v>
+      </c>
+      <c r="M48" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N48" s="86">
+      <c r="N48" s="45">
         <v>3</v>
       </c>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="85" t="s">
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="R48" s="87"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="87"/>
-      <c r="U48" s="70" t="s">
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="78" t="s">
+    <row r="49" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="86">
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="45">
         <v>1</v>
       </c>
-      <c r="G49" s="85" t="s">
+      <c r="G49" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="H49" s="86">
-        <v>0</v>
-      </c>
-      <c r="I49" s="86">
-        <v>2</v>
-      </c>
-      <c r="J49" s="64" t="s">
+      <c r="H49" s="45">
+        <v>0</v>
+      </c>
+      <c r="I49" s="45">
+        <v>2</v>
+      </c>
+      <c r="J49" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K49" s="87">
+      <c r="K49" s="46">
         <v>1</v>
       </c>
-      <c r="L49" s="86">
+      <c r="L49" s="45">
         <v>4</v>
       </c>
-      <c r="M49" s="87" t="s">
+      <c r="M49" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N49" s="86">
+      <c r="N49" s="45">
         <v>3</v>
       </c>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="85" t="s">
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="R49" s="87"/>
-      <c r="S49" s="87"/>
-      <c r="T49" s="87"/>
-      <c r="U49" s="70" t="s">
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="78" t="s">
+    <row r="50" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="110" t="s">
+      <c r="B50" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="86">
-        <v>2</v>
-      </c>
-      <c r="G50" s="85" t="s">
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="45">
+        <v>2</v>
+      </c>
+      <c r="G50" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H50" s="116">
-        <v>0</v>
-      </c>
-      <c r="I50" s="116">
-        <v>0</v>
-      </c>
-      <c r="J50" s="116"/>
-      <c r="K50" s="85">
-        <v>0</v>
-      </c>
-      <c r="L50" s="86">
-        <v>2</v>
-      </c>
-      <c r="M50" s="87" t="s">
+      <c r="H50" s="67">
+        <v>0</v>
+      </c>
+      <c r="I50" s="67">
+        <v>0</v>
+      </c>
+      <c r="J50" s="67"/>
+      <c r="K50" s="44">
+        <v>0</v>
+      </c>
+      <c r="L50" s="45">
+        <v>2</v>
+      </c>
+      <c r="M50" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="N50" s="86">
+      <c r="N50" s="45">
         <v>4</v>
       </c>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="85" t="s">
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="S50" s="87"/>
-      <c r="T50" s="87"/>
-      <c r="U50" s="70" t="s">
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="78" t="s">
+    <row r="51" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="86">
-        <v>0</v>
-      </c>
-      <c r="G51" s="85"/>
-      <c r="H51" s="86">
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="45">
+        <v>0</v>
+      </c>
+      <c r="G51" s="44"/>
+      <c r="H51" s="45">
         <v>1</v>
       </c>
-      <c r="I51" s="86">
-        <v>0</v>
-      </c>
-      <c r="J51" s="85" t="s">
+      <c r="I51" s="45">
+        <v>0</v>
+      </c>
+      <c r="J51" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="K51" s="85">
-        <v>2</v>
-      </c>
-      <c r="L51" s="86">
+      <c r="K51" s="44">
+        <v>2</v>
+      </c>
+      <c r="L51" s="45">
         <v>3</v>
       </c>
-      <c r="M51" s="85" t="s">
+      <c r="M51" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="N51" s="86">
+      <c r="N51" s="45">
         <v>4</v>
       </c>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="85" t="s">
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="S51" s="87"/>
-      <c r="T51" s="87"/>
-      <c r="U51" s="70" t="s">
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="78" t="s">
+    <row r="52" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="113" t="s">
+      <c r="B52" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="117"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="86">
-        <v>2</v>
-      </c>
-      <c r="G52" s="85" t="s">
+      <c r="C52" s="159"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="45">
+        <v>2</v>
+      </c>
+      <c r="G52" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="H52" s="86">
-        <v>0</v>
-      </c>
-      <c r="I52" s="86">
-        <v>2</v>
-      </c>
-      <c r="J52" s="64" t="s">
+      <c r="H52" s="45">
+        <v>0</v>
+      </c>
+      <c r="I52" s="45">
+        <v>2</v>
+      </c>
+      <c r="J52" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K52" s="87">
+      <c r="K52" s="46">
         <v>1</v>
       </c>
-      <c r="L52" s="86">
+      <c r="L52" s="45">
         <v>5</v>
       </c>
-      <c r="M52" s="87" t="s">
+      <c r="M52" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="N52" s="86">
+      <c r="N52" s="45">
         <v>4</v>
       </c>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="85" t="s">
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="S52" s="87"/>
-      <c r="T52" s="87"/>
-      <c r="U52" s="70" t="s">
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="78" t="s">
+    <row r="53" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="86">
-        <v>2</v>
-      </c>
-      <c r="G53" s="85" t="s">
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="45">
+        <v>2</v>
+      </c>
+      <c r="G53" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H53" s="86">
-        <v>0</v>
-      </c>
-      <c r="I53" s="86">
-        <v>0</v>
-      </c>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85">
-        <v>0</v>
-      </c>
-      <c r="L53" s="86">
-        <v>2</v>
-      </c>
-      <c r="M53" s="85" t="s">
+      <c r="H53" s="45">
+        <v>0</v>
+      </c>
+      <c r="I53" s="45">
+        <v>0</v>
+      </c>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44">
+        <v>0</v>
+      </c>
+      <c r="L53" s="45">
+        <v>2</v>
+      </c>
+      <c r="M53" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="N53" s="86">
+      <c r="N53" s="45">
         <v>4</v>
       </c>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="85" t="s">
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="S53" s="87"/>
-      <c r="T53" s="87"/>
-      <c r="U53" s="75" t="s">
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="78" t="s">
+    <row r="54" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="110" t="s">
+      <c r="B54" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="110"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="86">
-        <v>0</v>
-      </c>
-      <c r="G54" s="85"/>
-      <c r="H54" s="86">
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="45">
+        <v>0</v>
+      </c>
+      <c r="G54" s="44"/>
+      <c r="H54" s="45">
         <v>1</v>
       </c>
-      <c r="I54" s="86">
-        <v>0</v>
-      </c>
-      <c r="J54" s="85" t="s">
+      <c r="I54" s="45">
+        <v>0</v>
+      </c>
+      <c r="J54" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="K54" s="85">
+      <c r="K54" s="44">
         <v>1</v>
       </c>
-      <c r="L54" s="86">
-        <v>2</v>
-      </c>
-      <c r="M54" s="85" t="s">
+      <c r="L54" s="45">
+        <v>2</v>
+      </c>
+      <c r="M54" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="86">
+      <c r="N54" s="45">
         <v>4</v>
       </c>
-      <c r="O54" s="87"/>
-      <c r="P54" s="87"/>
-      <c r="Q54" s="87"/>
-      <c r="R54" s="85" t="s">
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="S54" s="87"/>
-      <c r="T54" s="87"/>
-      <c r="U54" s="75" t="s">
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="119" t="s">
+    <row r="55" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="113" t="s">
+      <c r="B55" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="86">
-        <v>0</v>
-      </c>
-      <c r="G55" s="111"/>
-      <c r="H55" s="86">
-        <v>0</v>
-      </c>
-      <c r="I55" s="86">
-        <v>2</v>
-      </c>
-      <c r="J55" s="85" t="s">
+      <c r="C55" s="142"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="45">
+        <v>0</v>
+      </c>
+      <c r="G55" s="66"/>
+      <c r="H55" s="45">
+        <v>0</v>
+      </c>
+      <c r="I55" s="45">
+        <v>2</v>
+      </c>
+      <c r="J55" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="K55" s="85">
+      <c r="K55" s="44">
         <v>1</v>
       </c>
-      <c r="L55" s="86">
+      <c r="L55" s="45">
         <v>3</v>
       </c>
-      <c r="M55" s="85" t="s">
+      <c r="M55" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="86">
+      <c r="N55" s="45">
         <v>3</v>
       </c>
-      <c r="O55" s="87"/>
-      <c r="P55" s="87"/>
-      <c r="Q55" s="85" t="s">
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="R55" s="87"/>
-      <c r="S55" s="129"/>
-      <c r="T55" s="84"/>
-      <c r="U55" s="70" t="s">
+      <c r="R55" s="46"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="113" t="s">
+    <row r="56" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="86">
-        <v>0</v>
-      </c>
-      <c r="G56" s="111"/>
-      <c r="H56" s="86">
-        <v>0</v>
-      </c>
-      <c r="I56" s="86">
-        <v>2</v>
-      </c>
-      <c r="J56" s="85" t="s">
+      <c r="C56" s="142"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="45">
+        <v>0</v>
+      </c>
+      <c r="G56" s="66"/>
+      <c r="H56" s="45">
+        <v>0</v>
+      </c>
+      <c r="I56" s="45">
+        <v>2</v>
+      </c>
+      <c r="J56" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="K56" s="85">
+      <c r="K56" s="44">
         <v>1</v>
       </c>
-      <c r="L56" s="86">
+      <c r="L56" s="45">
         <v>3</v>
       </c>
-      <c r="M56" s="85" t="s">
+      <c r="M56" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="N56" s="86">
+      <c r="N56" s="45">
         <v>5</v>
       </c>
-      <c r="O56" s="87"/>
-      <c r="P56" s="87"/>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="87"/>
-      <c r="S56" s="85" t="s">
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="T56" s="84"/>
-      <c r="U56" s="70" t="s">
+      <c r="T56" s="43"/>
+      <c r="U56" s="36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="78" t="s">
+    <row r="57" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="110" t="s">
+      <c r="B57" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="110"/>
-      <c r="F57" s="86">
-        <v>2</v>
-      </c>
-      <c r="G57" s="85" t="s">
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="45">
+        <v>2</v>
+      </c>
+      <c r="G57" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H57" s="86">
-        <v>0</v>
-      </c>
-      <c r="I57" s="86">
-        <v>0</v>
-      </c>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85">
-        <v>0</v>
-      </c>
-      <c r="L57" s="86">
-        <v>2</v>
-      </c>
-      <c r="M57" s="85" t="s">
+      <c r="H57" s="45">
+        <v>0</v>
+      </c>
+      <c r="I57" s="45">
+        <v>0</v>
+      </c>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44">
+        <v>0</v>
+      </c>
+      <c r="L57" s="45">
+        <v>2</v>
+      </c>
+      <c r="M57" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="N57" s="86">
+      <c r="N57" s="45">
         <v>5</v>
       </c>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
-      <c r="Q57" s="87"/>
-      <c r="R57" s="87"/>
-      <c r="S57" s="85" t="s">
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="T57" s="87"/>
-      <c r="U57" s="75" t="s">
+      <c r="T57" s="46"/>
+      <c r="U57" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="78" t="s">
+    <row r="58" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="110" t="s">
+      <c r="B58" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="86">
-        <v>0</v>
-      </c>
-      <c r="G58" s="85"/>
-      <c r="H58" s="86">
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="45">
+        <v>0</v>
+      </c>
+      <c r="G58" s="44"/>
+      <c r="H58" s="45">
         <v>1</v>
       </c>
-      <c r="I58" s="86">
-        <v>0</v>
-      </c>
-      <c r="J58" s="85" t="s">
+      <c r="I58" s="45">
+        <v>0</v>
+      </c>
+      <c r="J58" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="K58" s="85">
+      <c r="K58" s="44">
         <v>1</v>
       </c>
-      <c r="L58" s="86">
-        <v>2</v>
-      </c>
-      <c r="M58" s="85" t="s">
+      <c r="L58" s="45">
+        <v>2</v>
+      </c>
+      <c r="M58" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="N58" s="86">
+      <c r="N58" s="45">
         <v>5</v>
       </c>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="87"/>
-      <c r="S58" s="85" t="s">
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="T58" s="87"/>
-      <c r="U58" s="75" t="s">
+      <c r="T58" s="46"/>
+      <c r="U58" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="78" t="s">
+    <row r="59" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="B59" s="113" t="s">
+      <c r="B59" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="117"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="86">
-        <v>2</v>
-      </c>
-      <c r="G59" s="85" t="s">
+      <c r="C59" s="159"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="160"/>
+      <c r="F59" s="45">
+        <v>2</v>
+      </c>
+      <c r="G59" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="116">
-        <v>0</v>
-      </c>
-      <c r="I59" s="116">
-        <v>0</v>
-      </c>
-      <c r="J59" s="116" t="s">
+      <c r="H59" s="67">
+        <v>0</v>
+      </c>
+      <c r="I59" s="67">
+        <v>0</v>
+      </c>
+      <c r="J59" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="K59" s="85">
-        <v>0</v>
-      </c>
-      <c r="L59" s="86">
+      <c r="K59" s="44">
+        <v>0</v>
+      </c>
+      <c r="L59" s="45">
         <v>4</v>
       </c>
-      <c r="M59" s="87" t="s">
+      <c r="M59" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N59" s="86">
+      <c r="N59" s="45">
         <v>5</v>
       </c>
-      <c r="O59" s="87"/>
-      <c r="P59" s="87"/>
-      <c r="Q59" s="87"/>
-      <c r="R59" s="87"/>
-      <c r="S59" s="85" t="s">
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="T59" s="87"/>
-      <c r="U59" s="66" t="s">
+      <c r="T59" s="46"/>
+      <c r="U59" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="88" t="s">
+    <row r="60" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="90">
-        <v>2</v>
-      </c>
-      <c r="G60" s="91" t="s">
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="49">
+        <v>2</v>
+      </c>
+      <c r="G60" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="H60" s="90">
-        <v>0</v>
-      </c>
-      <c r="I60" s="90">
-        <v>0</v>
-      </c>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92">
-        <v>2</v>
-      </c>
-      <c r="L60" s="90">
+      <c r="H60" s="49">
+        <v>0</v>
+      </c>
+      <c r="I60" s="49">
+        <v>0</v>
+      </c>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51">
+        <v>2</v>
+      </c>
+      <c r="L60" s="49">
         <v>4</v>
       </c>
-      <c r="M60" s="91" t="s">
+      <c r="M60" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="N60" s="90">
+      <c r="N60" s="49">
         <v>6</v>
       </c>
-      <c r="O60" s="92"/>
-      <c r="P60" s="92"/>
-      <c r="Q60" s="92"/>
-      <c r="R60" s="92"/>
-      <c r="S60" s="92"/>
-      <c r="T60" s="91" t="s">
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="U60" s="94" t="s">
+      <c r="U60" s="53" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="95"/>
-      <c r="B61" s="122" t="s">
+    <row r="61" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="54"/>
+      <c r="B61" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="123"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="123"/>
-      <c r="J61" s="124"/>
-      <c r="K61" s="124"/>
-      <c r="L61" s="125">
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="72">
         <f>SUM(L47:L60)</f>
         <v>40</v>
       </c>
-      <c r="M61" s="126"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="127">
-        <v>0</v>
-      </c>
-      <c r="P61" s="127">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="100">
+      <c r="M61" s="73"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="74">
+        <v>0</v>
+      </c>
+      <c r="P61" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="56">
         <v>11</v>
       </c>
-      <c r="R61" s="100">
+      <c r="R61" s="56">
         <f>SUM(L50:L54)</f>
         <v>14</v>
       </c>
-      <c r="S61" s="100">
+      <c r="S61" s="56">
         <v>11</v>
       </c>
-      <c r="T61" s="100">
+      <c r="T61" s="56">
         <f>SUM(L60)</f>
         <v>4</v>
       </c>
-      <c r="U61" s="103"/>
-    </row>
-    <row r="62" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="46"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U61" s="59"/>
+    </row>
+    <row r="62" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="1:21" ht="14" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -5067,7 +5055,7 @@
       <c r="T63" s="13"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -5090,41 +5078,41 @@
       <c r="T64" s="13"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
+    <row r="65" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="35"/>
-    </row>
-    <row r="66" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="151"/>
+      <c r="C65" s="151"/>
+      <c r="D65" s="151"/>
+      <c r="E65" s="151"/>
+      <c r="F65" s="151"/>
+      <c r="G65" s="151"/>
+      <c r="H65" s="151"/>
+      <c r="I65" s="151"/>
+      <c r="J65" s="151"/>
+      <c r="K65" s="151"/>
+      <c r="L65" s="151"/>
+      <c r="M65" s="151"/>
+      <c r="N65" s="151"/>
+      <c r="O65" s="151"/>
+      <c r="P65" s="151"/>
+      <c r="Q65" s="151"/>
+      <c r="R65" s="151"/>
+      <c r="S65" s="151"/>
+      <c r="T65" s="151"/>
+      <c r="U65" s="152"/>
+    </row>
+    <row r="66" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="25"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="131"/>
       <c r="F66" s="6" t="s">
         <v>61</v>
       </c>
@@ -5174,954 +5162,954 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="104" t="s">
+    <row r="67" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="130" t="s">
+      <c r="B67" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="131"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="132"/>
-      <c r="F67" s="106">
+      <c r="C67" s="191"/>
+      <c r="D67" s="191"/>
+      <c r="E67" s="192"/>
+      <c r="F67" s="61">
         <v>1</v>
       </c>
-      <c r="G67" s="107" t="s">
+      <c r="G67" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="H67" s="106">
-        <v>0</v>
-      </c>
-      <c r="I67" s="106">
-        <v>2</v>
-      </c>
-      <c r="J67" s="133" t="s">
+      <c r="H67" s="61">
+        <v>0</v>
+      </c>
+      <c r="I67" s="61">
+        <v>2</v>
+      </c>
+      <c r="J67" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="K67" s="128">
+      <c r="K67" s="75">
         <v>1</v>
       </c>
-      <c r="L67" s="106">
+      <c r="L67" s="61">
         <v>4</v>
       </c>
-      <c r="M67" s="128" t="s">
+      <c r="M67" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="N67" s="106">
+      <c r="N67" s="61">
         <v>4</v>
       </c>
-      <c r="O67" s="128"/>
-      <c r="P67" s="128"/>
-      <c r="Q67" s="128"/>
-      <c r="R67" s="107" t="s">
+      <c r="O67" s="75"/>
+      <c r="P67" s="75"/>
+      <c r="Q67" s="75"/>
+      <c r="R67" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="S67" s="128"/>
-      <c r="T67" s="128"/>
-      <c r="U67" s="134" t="s">
+      <c r="S67" s="75"/>
+      <c r="T67" s="75"/>
+      <c r="U67" s="78" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="78" t="s">
+    <row r="68" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="110" t="s">
+      <c r="B68" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="110"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="110"/>
-      <c r="F68" s="86">
-        <v>2</v>
-      </c>
-      <c r="G68" s="85" t="s">
+      <c r="C68" s="140"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="45">
+        <v>2</v>
+      </c>
+      <c r="G68" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H68" s="116">
-        <v>0</v>
-      </c>
-      <c r="I68" s="116">
-        <v>0</v>
-      </c>
-      <c r="J68" s="116"/>
-      <c r="K68" s="85">
-        <v>0</v>
-      </c>
-      <c r="L68" s="135">
-        <v>2</v>
-      </c>
-      <c r="M68" s="87" t="s">
+      <c r="H68" s="67">
+        <v>0</v>
+      </c>
+      <c r="I68" s="67">
+        <v>0</v>
+      </c>
+      <c r="J68" s="67"/>
+      <c r="K68" s="44">
+        <v>0</v>
+      </c>
+      <c r="L68" s="79">
+        <v>2</v>
+      </c>
+      <c r="M68" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="N68" s="86">
+      <c r="N68" s="45">
         <v>4</v>
       </c>
-      <c r="O68" s="111"/>
-      <c r="P68" s="111"/>
-      <c r="Q68" s="111"/>
-      <c r="R68" s="85" t="s">
+      <c r="O68" s="66"/>
+      <c r="P68" s="66"/>
+      <c r="Q68" s="66"/>
+      <c r="R68" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="S68" s="111"/>
-      <c r="T68" s="111"/>
-      <c r="U68" s="75" t="s">
+      <c r="S68" s="66"/>
+      <c r="T68" s="66"/>
+      <c r="U68" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="78" t="s">
+    <row r="69" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="110" t="s">
+      <c r="B69" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="110"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
-      <c r="F69" s="86">
-        <v>0</v>
-      </c>
-      <c r="G69" s="85"/>
-      <c r="H69" s="86">
-        <v>0</v>
-      </c>
-      <c r="I69" s="86">
-        <v>2</v>
-      </c>
-      <c r="J69" s="85" t="s">
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="45">
+        <v>0</v>
+      </c>
+      <c r="G69" s="44"/>
+      <c r="H69" s="45">
+        <v>0</v>
+      </c>
+      <c r="I69" s="45">
+        <v>2</v>
+      </c>
+      <c r="J69" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="K69" s="85">
+      <c r="K69" s="44">
         <v>1</v>
       </c>
-      <c r="L69" s="86">
+      <c r="L69" s="45">
         <v>3</v>
       </c>
-      <c r="M69" s="85" t="s">
+      <c r="M69" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="86">
+      <c r="N69" s="45">
         <v>4</v>
       </c>
-      <c r="O69" s="111"/>
-      <c r="P69" s="111"/>
-      <c r="Q69" s="111"/>
-      <c r="R69" s="85" t="s">
+      <c r="O69" s="66"/>
+      <c r="P69" s="66"/>
+      <c r="Q69" s="66"/>
+      <c r="R69" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="S69" s="111"/>
-      <c r="T69" s="111"/>
-      <c r="U69" s="75" t="s">
+      <c r="S69" s="66"/>
+      <c r="T69" s="66"/>
+      <c r="U69" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="78" t="s">
+    <row r="70" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="110" t="s">
+      <c r="B70" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="110"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="110"/>
-      <c r="F70" s="86">
-        <v>2</v>
-      </c>
-      <c r="G70" s="85" t="s">
+      <c r="C70" s="140"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="140"/>
+      <c r="F70" s="45">
+        <v>2</v>
+      </c>
+      <c r="G70" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H70" s="86">
-        <v>0</v>
-      </c>
-      <c r="I70" s="86">
-        <v>0</v>
-      </c>
-      <c r="J70" s="85"/>
-      <c r="K70" s="85">
+      <c r="H70" s="45">
+        <v>0</v>
+      </c>
+      <c r="I70" s="45">
+        <v>0</v>
+      </c>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44">
         <v>1</v>
       </c>
-      <c r="L70" s="86">
+      <c r="L70" s="45">
         <v>3</v>
       </c>
-      <c r="M70" s="87"/>
-      <c r="N70" s="86">
+      <c r="M70" s="46"/>
+      <c r="N70" s="45">
         <v>3</v>
       </c>
-      <c r="O70" s="111"/>
-      <c r="P70" s="111"/>
-      <c r="Q70" s="85" t="s">
+      <c r="O70" s="66"/>
+      <c r="P70" s="66"/>
+      <c r="Q70" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="R70" s="85"/>
-      <c r="S70" s="111"/>
-      <c r="T70" s="111"/>
-      <c r="U70" s="75" t="s">
+      <c r="R70" s="44"/>
+      <c r="S70" s="66"/>
+      <c r="T70" s="66"/>
+      <c r="U70" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="78" t="s">
+    <row r="71" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="110" t="s">
+      <c r="B71" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="C71" s="110"/>
-      <c r="D71" s="110"/>
-      <c r="E71" s="110"/>
-      <c r="F71" s="86">
+      <c r="C71" s="140"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="140"/>
+      <c r="F71" s="45">
         <v>1</v>
       </c>
-      <c r="G71" s="85" t="s">
+      <c r="G71" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="H71" s="86">
-        <v>0</v>
-      </c>
-      <c r="I71" s="86">
+      <c r="H71" s="45">
+        <v>0</v>
+      </c>
+      <c r="I71" s="45">
         <v>1</v>
       </c>
-      <c r="J71" s="64" t="s">
+      <c r="J71" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K71" s="87">
-        <v>2</v>
-      </c>
-      <c r="L71" s="86">
+      <c r="K71" s="46">
+        <v>2</v>
+      </c>
+      <c r="L71" s="45">
         <v>4</v>
       </c>
-      <c r="M71" s="87" t="s">
+      <c r="M71" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="N71" s="86">
+      <c r="N71" s="45">
         <v>5</v>
       </c>
-      <c r="O71" s="120"/>
-      <c r="P71" s="120"/>
-      <c r="Q71" s="120"/>
-      <c r="R71" s="120"/>
-      <c r="S71" s="112" t="s">
+      <c r="O71" s="69"/>
+      <c r="P71" s="69"/>
+      <c r="Q71" s="69"/>
+      <c r="R71" s="69"/>
+      <c r="S71" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="T71" s="120"/>
-      <c r="U71" s="66" t="s">
+      <c r="T71" s="69"/>
+      <c r="U71" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="78" t="s">
+    <row r="72" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="110" t="s">
+      <c r="B72" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="110"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="110"/>
-      <c r="F72" s="86">
-        <v>0</v>
-      </c>
-      <c r="G72" s="87"/>
-      <c r="H72" s="86">
-        <v>0</v>
-      </c>
-      <c r="I72" s="86">
-        <v>2</v>
-      </c>
-      <c r="J72" s="85" t="s">
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140"/>
+      <c r="F72" s="45">
+        <v>0</v>
+      </c>
+      <c r="G72" s="46"/>
+      <c r="H72" s="45">
+        <v>0</v>
+      </c>
+      <c r="I72" s="45">
+        <v>2</v>
+      </c>
+      <c r="J72" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="K72" s="85">
-        <v>2</v>
-      </c>
-      <c r="L72" s="86">
+      <c r="K72" s="44">
+        <v>2</v>
+      </c>
+      <c r="L72" s="45">
         <v>4</v>
       </c>
-      <c r="M72" s="87" t="s">
+      <c r="M72" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="N72" s="86">
+      <c r="N72" s="45">
         <v>6</v>
       </c>
-      <c r="O72" s="120"/>
-      <c r="P72" s="120"/>
-      <c r="Q72" s="120"/>
-      <c r="R72" s="120"/>
-      <c r="S72" s="120"/>
-      <c r="T72" s="112" t="s">
+      <c r="O72" s="69"/>
+      <c r="P72" s="69"/>
+      <c r="Q72" s="69"/>
+      <c r="R72" s="69"/>
+      <c r="S72" s="69"/>
+      <c r="T72" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="U72" s="66" t="s">
+      <c r="U72" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="88" t="s">
+    <row r="73" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="113" t="s">
+      <c r="B73" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="114"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="115"/>
-      <c r="F73" s="90">
-        <v>2</v>
-      </c>
-      <c r="G73" s="92" t="s">
+      <c r="C73" s="142"/>
+      <c r="D73" s="142"/>
+      <c r="E73" s="143"/>
+      <c r="F73" s="49">
+        <v>2</v>
+      </c>
+      <c r="G73" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="H73" s="90">
-        <v>0</v>
-      </c>
-      <c r="I73" s="90">
-        <v>0</v>
-      </c>
-      <c r="J73" s="91"/>
-      <c r="K73" s="91">
-        <v>0</v>
-      </c>
-      <c r="L73" s="90">
-        <v>2</v>
-      </c>
-      <c r="M73" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="N73" s="136" t="s">
+      <c r="H73" s="49">
+        <v>0</v>
+      </c>
+      <c r="I73" s="49">
+        <v>0</v>
+      </c>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50">
+        <v>0</v>
+      </c>
+      <c r="L73" s="49">
+        <v>2</v>
+      </c>
+      <c r="M73" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="O73" s="137"/>
-      <c r="P73" s="137"/>
-      <c r="Q73" s="92"/>
-      <c r="R73" s="92" t="s">
+      <c r="O73" s="81"/>
+      <c r="P73" s="81"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="S73" s="92" t="s">
+      <c r="S73" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="T73" s="92" t="s">
+      <c r="T73" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="U73" s="66" t="s">
+      <c r="U73" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="88" t="s">
+    <row r="74" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="B74" s="113" t="s">
+      <c r="B74" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="C74" s="114"/>
-      <c r="D74" s="114"/>
-      <c r="E74" s="115"/>
-      <c r="F74" s="90">
-        <v>0</v>
-      </c>
-      <c r="G74" s="92"/>
-      <c r="H74" s="90">
-        <v>0</v>
-      </c>
-      <c r="I74" s="90">
-        <v>2</v>
-      </c>
-      <c r="J74" s="91"/>
-      <c r="K74" s="91">
+      <c r="C74" s="142"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="143"/>
+      <c r="F74" s="49">
+        <v>0</v>
+      </c>
+      <c r="G74" s="51"/>
+      <c r="H74" s="49">
+        <v>0</v>
+      </c>
+      <c r="I74" s="49">
+        <v>2</v>
+      </c>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50">
         <v>1</v>
       </c>
-      <c r="L74" s="90">
+      <c r="L74" s="49">
         <v>3</v>
       </c>
-      <c r="M74" s="65" t="s">
+      <c r="M74" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="N74" s="136" t="s">
+      <c r="N74" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="O74" s="137"/>
-      <c r="P74" s="137"/>
-      <c r="Q74" s="92"/>
-      <c r="R74" s="92" t="s">
+      <c r="O74" s="81"/>
+      <c r="P74" s="81"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="S74" s="92" t="s">
+      <c r="S74" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="T74" s="92" t="s">
+      <c r="T74" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="U74" s="66" t="s">
+      <c r="U74" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="88" t="s">
+    <row r="75" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="113" t="s">
+      <c r="B75" s="141" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="114"/>
-      <c r="D75" s="114"/>
-      <c r="E75" s="115"/>
-      <c r="F75" s="90">
-        <v>2</v>
-      </c>
-      <c r="G75" s="92"/>
-      <c r="H75" s="90">
-        <v>0</v>
-      </c>
-      <c r="I75" s="90">
-        <v>2</v>
-      </c>
-      <c r="J75" s="91" t="s">
+      <c r="C75" s="142"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="143"/>
+      <c r="F75" s="49">
+        <v>2</v>
+      </c>
+      <c r="G75" s="51"/>
+      <c r="H75" s="49">
+        <v>0</v>
+      </c>
+      <c r="I75" s="49">
+        <v>2</v>
+      </c>
+      <c r="J75" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="K75" s="91">
+      <c r="K75" s="50">
         <v>1</v>
       </c>
-      <c r="L75" s="90">
+      <c r="L75" s="49">
         <v>5</v>
       </c>
-      <c r="M75" s="138" t="s">
+      <c r="M75" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="N75" s="136" t="s">
+      <c r="N75" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="O75" s="137"/>
-      <c r="P75" s="137"/>
-      <c r="Q75" s="92"/>
-      <c r="R75" s="92" t="s">
+      <c r="O75" s="81"/>
+      <c r="P75" s="81"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="S75" s="92"/>
-      <c r="T75" s="92" t="s">
+      <c r="S75" s="51"/>
+      <c r="T75" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="U75" s="66" t="s">
+      <c r="U75" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="88" t="s">
+    <row r="76" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="113" t="s">
+      <c r="B76" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="114"/>
-      <c r="D76" s="114"/>
-      <c r="E76" s="115"/>
-      <c r="F76" s="90">
-        <v>2</v>
-      </c>
-      <c r="G76" s="92" t="s">
+      <c r="C76" s="142"/>
+      <c r="D76" s="142"/>
+      <c r="E76" s="143"/>
+      <c r="F76" s="49">
+        <v>2</v>
+      </c>
+      <c r="G76" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="H76" s="90">
-        <v>0</v>
-      </c>
-      <c r="I76" s="90">
-        <v>0</v>
-      </c>
-      <c r="J76" s="91"/>
-      <c r="K76" s="91">
-        <v>0</v>
-      </c>
-      <c r="L76" s="90">
-        <v>2</v>
-      </c>
-      <c r="M76" s="138" t="s">
+      <c r="H76" s="49">
+        <v>0</v>
+      </c>
+      <c r="I76" s="49">
+        <v>0</v>
+      </c>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50">
+        <v>0</v>
+      </c>
+      <c r="L76" s="49">
+        <v>2</v>
+      </c>
+      <c r="M76" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="N76" s="136" t="s">
+      <c r="N76" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="O76" s="137"/>
-      <c r="P76" s="137"/>
-      <c r="Q76" s="92"/>
-      <c r="R76" s="92" t="s">
+      <c r="O76" s="81"/>
+      <c r="P76" s="81"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="S76" s="92"/>
-      <c r="T76" s="121"/>
-      <c r="U76" s="75" t="s">
+      <c r="S76" s="51"/>
+      <c r="T76" s="48"/>
+      <c r="U76" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="88" t="s">
+    <row r="77" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="B77" s="113" t="s">
+      <c r="B77" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="C77" s="114"/>
-      <c r="D77" s="114"/>
-      <c r="E77" s="115"/>
-      <c r="F77" s="90">
-        <v>0</v>
-      </c>
-      <c r="G77" s="92"/>
-      <c r="H77" s="90">
-        <v>2</v>
-      </c>
-      <c r="I77" s="90">
-        <v>0</v>
-      </c>
-      <c r="J77" s="91" t="s">
+      <c r="C77" s="142"/>
+      <c r="D77" s="142"/>
+      <c r="E77" s="143"/>
+      <c r="F77" s="49">
+        <v>0</v>
+      </c>
+      <c r="G77" s="51"/>
+      <c r="H77" s="49">
+        <v>2</v>
+      </c>
+      <c r="I77" s="49">
+        <v>0</v>
+      </c>
+      <c r="J77" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="K77" s="91">
+      <c r="K77" s="50">
         <v>1</v>
       </c>
-      <c r="L77" s="90">
+      <c r="L77" s="49">
         <v>3</v>
       </c>
-      <c r="M77" s="139"/>
-      <c r="N77" s="90">
+      <c r="M77" s="83"/>
+      <c r="N77" s="49">
         <v>4</v>
       </c>
-      <c r="O77" s="137"/>
-      <c r="P77" s="137"/>
-      <c r="Q77" s="137"/>
-      <c r="R77" s="92" t="s">
+      <c r="O77" s="81"/>
+      <c r="P77" s="81"/>
+      <c r="Q77" s="81"/>
+      <c r="R77" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="S77" s="137"/>
-      <c r="T77" s="121"/>
-      <c r="U77" s="75" t="s">
+      <c r="S77" s="81"/>
+      <c r="T77" s="48"/>
+      <c r="U77" s="38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="88" t="s">
+    <row r="78" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="140" t="s">
+      <c r="B78" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="141"/>
-      <c r="D78" s="141"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="90">
-        <v>2</v>
-      </c>
-      <c r="G78" s="92" t="s">
+      <c r="C78" s="137"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="138"/>
+      <c r="F78" s="49">
+        <v>2</v>
+      </c>
+      <c r="G78" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="H78" s="90">
-        <v>2</v>
-      </c>
-      <c r="I78" s="90">
-        <v>0</v>
-      </c>
-      <c r="J78" s="91"/>
-      <c r="K78" s="91">
+      <c r="H78" s="49">
+        <v>2</v>
+      </c>
+      <c r="I78" s="49">
+        <v>0</v>
+      </c>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50">
         <v>1</v>
       </c>
-      <c r="L78" s="143">
+      <c r="L78" s="84">
         <v>5</v>
       </c>
-      <c r="M78" s="65" t="s">
+      <c r="M78" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="N78" s="90" t="s">
+      <c r="N78" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="O78" s="137"/>
-      <c r="P78" s="137"/>
-      <c r="Q78" s="92" t="s">
+      <c r="O78" s="81"/>
+      <c r="P78" s="81"/>
+      <c r="Q78" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="R78" s="92" t="s">
+      <c r="R78" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="S78" s="92" t="s">
+      <c r="S78" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="T78" s="121"/>
-      <c r="U78" s="66" t="s">
+      <c r="T78" s="48"/>
+      <c r="U78" s="35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="144" t="s">
+    <row r="79" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="B79" s="145" t="s">
+      <c r="B79" s="177" t="s">
         <v>201</v>
       </c>
-      <c r="C79" s="146"/>
-      <c r="D79" s="146"/>
-      <c r="E79" s="147"/>
-      <c r="F79" s="148">
-        <v>2</v>
-      </c>
-      <c r="G79" s="149" t="s">
+      <c r="C79" s="178"/>
+      <c r="D79" s="178"/>
+      <c r="E79" s="179"/>
+      <c r="F79" s="86">
+        <v>2</v>
+      </c>
+      <c r="G79" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="H79" s="148">
-        <v>0</v>
-      </c>
-      <c r="I79" s="148">
-        <v>0</v>
-      </c>
-      <c r="J79" s="150"/>
-      <c r="K79" s="150">
-        <v>0</v>
-      </c>
-      <c r="L79" s="148">
-        <v>2</v>
-      </c>
-      <c r="M79" s="151"/>
-      <c r="N79" s="152" t="s">
+      <c r="H79" s="86">
+        <v>0</v>
+      </c>
+      <c r="I79" s="86">
+        <v>0</v>
+      </c>
+      <c r="J79" s="88"/>
+      <c r="K79" s="88">
+        <v>0</v>
+      </c>
+      <c r="L79" s="86">
+        <v>2</v>
+      </c>
+      <c r="M79" s="89"/>
+      <c r="N79" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="O79" s="153"/>
-      <c r="P79" s="153"/>
-      <c r="Q79" s="149" t="s">
+      <c r="O79" s="91"/>
+      <c r="P79" s="91"/>
+      <c r="Q79" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="R79" s="149"/>
-      <c r="S79" s="149" t="s">
+      <c r="R79" s="87"/>
+      <c r="S79" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="T79" s="154"/>
-      <c r="U79" s="155" t="s">
+      <c r="T79" s="92"/>
+      <c r="U79" s="93" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="156"/>
-      <c r="B80" s="157" t="s">
+    <row r="80" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="94"/>
+      <c r="B80" s="175" t="s">
         <v>194</v>
       </c>
-      <c r="C80" s="157"/>
-      <c r="D80" s="157"/>
-      <c r="E80" s="157"/>
-      <c r="F80" s="158"/>
-      <c r="G80" s="159"/>
-      <c r="H80" s="158"/>
-      <c r="I80" s="158"/>
-      <c r="J80" s="160"/>
-      <c r="K80" s="160"/>
-      <c r="L80" s="161">
+      <c r="C80" s="175"/>
+      <c r="D80" s="175"/>
+      <c r="E80" s="175"/>
+      <c r="F80" s="95"/>
+      <c r="G80" s="96"/>
+      <c r="H80" s="95"/>
+      <c r="I80" s="95"/>
+      <c r="J80" s="97"/>
+      <c r="K80" s="97"/>
+      <c r="L80" s="98">
         <v>13</v>
       </c>
-      <c r="M80" s="162"/>
-      <c r="N80" s="158"/>
-      <c r="O80" s="163"/>
-      <c r="P80" s="163"/>
-      <c r="Q80" s="163"/>
-      <c r="R80" s="164">
+      <c r="M80" s="99"/>
+      <c r="N80" s="95"/>
+      <c r="O80" s="100"/>
+      <c r="P80" s="100"/>
+      <c r="Q80" s="100"/>
+      <c r="R80" s="101">
         <v>9</v>
       </c>
-      <c r="S80" s="164">
+      <c r="S80" s="101">
         <v>4</v>
       </c>
-      <c r="T80" s="164"/>
-      <c r="U80" s="165"/>
-    </row>
-    <row r="81" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="78"/>
-      <c r="B81" s="166" t="s">
+      <c r="T80" s="101"/>
+      <c r="U80" s="102"/>
+    </row>
+    <row r="81" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="40"/>
+      <c r="B81" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="C81" s="166"/>
-      <c r="D81" s="166"/>
-      <c r="E81" s="166"/>
-      <c r="F81" s="86"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="86"/>
-      <c r="I81" s="86"/>
-      <c r="J81" s="85"/>
-      <c r="K81" s="85"/>
-      <c r="L81" s="167">
+      <c r="C81" s="176"/>
+      <c r="D81" s="176"/>
+      <c r="E81" s="176"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="103">
         <v>7</v>
       </c>
-      <c r="M81" s="168"/>
-      <c r="N81" s="86"/>
-      <c r="O81" s="84"/>
-      <c r="P81" s="84"/>
-      <c r="Q81" s="84"/>
-      <c r="R81" s="169"/>
-      <c r="S81" s="169">
+      <c r="M81" s="104"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="43"/>
+      <c r="Q81" s="43"/>
+      <c r="R81" s="105"/>
+      <c r="S81" s="105">
         <v>3</v>
       </c>
-      <c r="T81" s="169">
+      <c r="T81" s="105">
         <v>4</v>
       </c>
-      <c r="U81" s="170"/>
-    </row>
-    <row r="82" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="156"/>
-      <c r="B82" s="171" t="s">
+      <c r="U81" s="106"/>
+    </row>
+    <row r="82" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="94"/>
+      <c r="B82" s="173" t="s">
         <v>196</v>
       </c>
-      <c r="C82" s="171"/>
-      <c r="D82" s="171"/>
-      <c r="E82" s="171"/>
-      <c r="F82" s="172"/>
-      <c r="G82" s="172"/>
-      <c r="H82" s="172"/>
-      <c r="I82" s="172"/>
-      <c r="J82" s="172"/>
-      <c r="K82" s="172"/>
-      <c r="L82" s="173">
+      <c r="C82" s="173"/>
+      <c r="D82" s="173"/>
+      <c r="E82" s="173"/>
+      <c r="F82" s="107"/>
+      <c r="G82" s="107"/>
+      <c r="H82" s="107"/>
+      <c r="I82" s="107"/>
+      <c r="J82" s="107"/>
+      <c r="K82" s="107"/>
+      <c r="L82" s="108">
         <v>20</v>
       </c>
-      <c r="M82" s="174"/>
-      <c r="N82" s="174"/>
-      <c r="O82" s="174"/>
-      <c r="P82" s="174"/>
-      <c r="Q82" s="174">
-        <v>0</v>
-      </c>
-      <c r="R82" s="173">
+      <c r="M82" s="109"/>
+      <c r="N82" s="109"/>
+      <c r="O82" s="109"/>
+      <c r="P82" s="109"/>
+      <c r="Q82" s="109">
+        <v>0</v>
+      </c>
+      <c r="R82" s="108">
         <v>9</v>
       </c>
-      <c r="S82" s="173">
+      <c r="S82" s="108">
         <v>7</v>
       </c>
-      <c r="T82" s="173">
+      <c r="T82" s="108">
         <v>4</v>
       </c>
-      <c r="U82" s="175"/>
-    </row>
-    <row r="83" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="156"/>
-      <c r="B83" s="171" t="s">
+      <c r="U82" s="110"/>
+    </row>
+    <row r="83" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="94"/>
+      <c r="B83" s="173" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="171"/>
-      <c r="D83" s="171"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="172"/>
-      <c r="G83" s="172"/>
-      <c r="H83" s="172"/>
-      <c r="I83" s="172"/>
-      <c r="J83" s="172"/>
-      <c r="K83" s="172"/>
-      <c r="L83" s="173">
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
+      <c r="F83" s="107"/>
+      <c r="G83" s="107"/>
+      <c r="H83" s="107"/>
+      <c r="I83" s="107"/>
+      <c r="J83" s="107"/>
+      <c r="K83" s="107"/>
+      <c r="L83" s="108">
         <v>20</v>
       </c>
-      <c r="M83" s="174"/>
-      <c r="N83" s="174">
+      <c r="M83" s="109"/>
+      <c r="N83" s="109">
         <v>5</v>
       </c>
-      <c r="O83" s="174"/>
-      <c r="P83" s="174"/>
-      <c r="Q83" s="174"/>
-      <c r="R83" s="173"/>
-      <c r="S83" s="176" t="s">
+      <c r="O83" s="109"/>
+      <c r="P83" s="109"/>
+      <c r="Q83" s="109"/>
+      <c r="R83" s="108"/>
+      <c r="S83" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="T83" s="173"/>
-      <c r="U83" s="175"/>
-    </row>
-    <row r="84" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="177"/>
-      <c r="B84" s="171" t="s">
+      <c r="T83" s="108"/>
+      <c r="U83" s="110"/>
+    </row>
+    <row r="84" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="112"/>
+      <c r="B84" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="171"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="178"/>
-      <c r="G84" s="178"/>
-      <c r="H84" s="178"/>
-      <c r="I84" s="178"/>
-      <c r="J84" s="178"/>
-      <c r="K84" s="178"/>
-      <c r="L84" s="176">
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
+      <c r="F84" s="113"/>
+      <c r="G84" s="113"/>
+      <c r="H84" s="113"/>
+      <c r="I84" s="113"/>
+      <c r="J84" s="113"/>
+      <c r="K84" s="113"/>
+      <c r="L84" s="111">
         <v>10</v>
       </c>
-      <c r="M84" s="178"/>
-      <c r="N84" s="176" t="s">
+      <c r="M84" s="113"/>
+      <c r="N84" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="O84" s="176">
+      <c r="O84" s="111">
         <v>4</v>
       </c>
-      <c r="P84" s="179">
+      <c r="P84" s="114">
         <v>3</v>
       </c>
-      <c r="Q84" s="179"/>
-      <c r="R84" s="179"/>
-      <c r="S84" s="179">
+      <c r="Q84" s="114"/>
+      <c r="R84" s="114"/>
+      <c r="S84" s="114">
         <v>3</v>
       </c>
-      <c r="T84" s="178"/>
-      <c r="U84" s="180"/>
-    </row>
-    <row r="85" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="181" t="s">
+      <c r="T84" s="113"/>
+      <c r="U84" s="115"/>
+    </row>
+    <row r="85" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="182" t="s">
+      <c r="B85" s="174" t="s">
         <v>128</v>
       </c>
-      <c r="C85" s="182"/>
-      <c r="D85" s="182"/>
-      <c r="E85" s="182"/>
-      <c r="F85" s="183"/>
-      <c r="G85" s="183"/>
-      <c r="H85" s="183"/>
-      <c r="I85" s="183"/>
-      <c r="J85" s="183"/>
-      <c r="K85" s="183"/>
-      <c r="L85" s="184">
+      <c r="C85" s="174"/>
+      <c r="D85" s="174"/>
+      <c r="E85" s="174"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="117"/>
+      <c r="H85" s="117"/>
+      <c r="I85" s="117"/>
+      <c r="J85" s="117"/>
+      <c r="K85" s="117"/>
+      <c r="L85" s="118">
         <v>20</v>
       </c>
-      <c r="M85" s="183"/>
-      <c r="N85" s="184">
+      <c r="M85" s="117"/>
+      <c r="N85" s="118">
         <v>6</v>
       </c>
-      <c r="O85" s="183"/>
-      <c r="P85" s="183"/>
-      <c r="Q85" s="183"/>
-      <c r="R85" s="183"/>
-      <c r="S85" s="183"/>
-      <c r="T85" s="183"/>
-      <c r="U85" s="185"/>
-    </row>
-    <row r="86" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="186"/>
-      <c r="B86" s="182" t="s">
+      <c r="O85" s="117"/>
+      <c r="P85" s="117"/>
+      <c r="Q85" s="117"/>
+      <c r="R85" s="117"/>
+      <c r="S85" s="117"/>
+      <c r="T85" s="117"/>
+      <c r="U85" s="119"/>
+    </row>
+    <row r="86" spans="1:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="A86" s="120"/>
+      <c r="B86" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="C86" s="182"/>
-      <c r="D86" s="182"/>
-      <c r="E86" s="182"/>
-      <c r="F86" s="183"/>
-      <c r="G86" s="183"/>
-      <c r="H86" s="183"/>
-      <c r="I86" s="183"/>
-      <c r="J86" s="183"/>
-      <c r="K86" s="183"/>
-      <c r="L86" s="183"/>
-      <c r="M86" s="183"/>
-      <c r="N86" s="183"/>
-      <c r="O86" s="187">
+      <c r="C86" s="174"/>
+      <c r="D86" s="174"/>
+      <c r="E86" s="174"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="117"/>
+      <c r="I86" s="117"/>
+      <c r="J86" s="117"/>
+      <c r="K86" s="117"/>
+      <c r="L86" s="117"/>
+      <c r="M86" s="117"/>
+      <c r="N86" s="117"/>
+      <c r="O86" s="121">
         <f>O34+O61+O84</f>
         <v>27</v>
       </c>
-      <c r="P86" s="187">
+      <c r="P86" s="121">
         <f>P34+P61+P84</f>
         <v>30</v>
       </c>
-      <c r="Q86" s="187">
+      <c r="Q86" s="121">
         <f>Q34+Q61+Q82</f>
         <v>33</v>
       </c>
-      <c r="R86" s="187">
+      <c r="R86" s="121">
         <f>R34+R61+R82</f>
         <v>29</v>
       </c>
-      <c r="S86" s="187">
+      <c r="S86" s="121">
         <f>S34+S61+S82+S84</f>
         <v>29</v>
       </c>
-      <c r="T86" s="187">
+      <c r="T86" s="121">
         <f>T34+T61+T82+L85</f>
         <v>32</v>
       </c>
-      <c r="U86" s="185"/>
-    </row>
-    <row r="87" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="188"/>
-      <c r="B87" s="189" t="s">
+      <c r="U86" s="119"/>
+    </row>
+    <row r="87" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="122"/>
+      <c r="B87" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="190"/>
-      <c r="D87" s="190"/>
-      <c r="E87" s="191"/>
-      <c r="F87" s="192"/>
-      <c r="G87" s="192"/>
-      <c r="H87" s="192"/>
-      <c r="I87" s="192"/>
-      <c r="J87" s="192"/>
-      <c r="K87" s="192"/>
-      <c r="L87" s="193">
+      <c r="C87" s="145"/>
+      <c r="D87" s="145"/>
+      <c r="E87" s="146"/>
+      <c r="F87" s="123"/>
+      <c r="G87" s="123"/>
+      <c r="H87" s="123"/>
+      <c r="I87" s="123"/>
+      <c r="J87" s="123"/>
+      <c r="K87" s="123"/>
+      <c r="L87" s="124">
         <f>L34+L61+L82+L84+L85</f>
         <v>180</v>
       </c>
-      <c r="M87" s="192"/>
-      <c r="N87" s="192"/>
-      <c r="O87" s="192"/>
-      <c r="P87" s="192"/>
-      <c r="Q87" s="192"/>
-      <c r="R87" s="192"/>
-      <c r="S87" s="192"/>
-      <c r="T87" s="192"/>
-      <c r="U87" s="194"/>
-    </row>
-    <row r="89" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M87" s="123"/>
+      <c r="N87" s="123"/>
+      <c r="O87" s="123"/>
+      <c r="P87" s="123"/>
+      <c r="Q87" s="123"/>
+      <c r="R87" s="123"/>
+      <c r="S87" s="123"/>
+      <c r="T87" s="123"/>
+      <c r="U87" s="125"/>
+    </row>
+    <row r="89" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-    </row>
-    <row r="90" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C89" s="172"/>
+      <c r="D89" s="172"/>
+      <c r="E89" s="172"/>
+    </row>
+    <row r="90" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-    </row>
-    <row r="91" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C90" s="172"/>
+      <c r="D90" s="172"/>
+      <c r="E90" s="172"/>
+    </row>
+    <row r="91" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-    </row>
-    <row r="93" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="26" t="s">
+      <c r="C91" s="172"/>
+      <c r="D91" s="172"/>
+      <c r="E91" s="172"/>
+    </row>
+    <row r="93" spans="1:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="A93" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="26"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
-      <c r="T93" s="26"/>
-      <c r="U93" s="26"/>
-      <c r="V93" s="26"/>
-    </row>
-    <row r="94" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="B93" s="132"/>
+      <c r="C93" s="132"/>
+      <c r="D93" s="132"/>
+      <c r="E93" s="132"/>
+      <c r="F93" s="132"/>
+      <c r="G93" s="132"/>
+      <c r="H93" s="132"/>
+      <c r="I93" s="132"/>
+      <c r="J93" s="132"/>
+      <c r="K93" s="132"/>
+      <c r="L93" s="132"/>
+      <c r="M93" s="132"/>
+      <c r="N93" s="132"/>
+      <c r="O93" s="132"/>
+      <c r="P93" s="132"/>
+      <c r="Q93" s="132"/>
+      <c r="R93" s="132"/>
+      <c r="S93" s="132"/>
+      <c r="T93" s="132"/>
+      <c r="U93" s="132"/>
+      <c r="V93" s="132"/>
+    </row>
+    <row r="94" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -6145,178 +6133,185 @@
       <c r="U94" s="16"/>
       <c r="V94" s="16"/>
     </row>
-    <row r="95" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="26" t="s">
+    <row r="95" spans="1:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="A95" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="26"/>
-      <c r="L95" s="26"/>
-      <c r="M95" s="26"/>
-      <c r="N95" s="26"/>
-      <c r="O95" s="26"/>
-      <c r="P95" s="26"/>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="26"/>
-      <c r="S95" s="26"/>
-      <c r="T95" s="26"/>
-      <c r="U95" s="26"/>
+      <c r="B95" s="132"/>
+      <c r="C95" s="132"/>
+      <c r="D95" s="132"/>
+      <c r="E95" s="132"/>
+      <c r="F95" s="132"/>
+      <c r="G95" s="132"/>
+      <c r="H95" s="132"/>
+      <c r="I95" s="132"/>
+      <c r="J95" s="132"/>
+      <c r="K95" s="132"/>
+      <c r="L95" s="132"/>
+      <c r="M95" s="132"/>
+      <c r="N95" s="132"/>
+      <c r="O95" s="132"/>
+      <c r="P95" s="132"/>
+      <c r="Q95" s="132"/>
+      <c r="R95" s="132"/>
+      <c r="S95" s="132"/>
+      <c r="T95" s="132"/>
+      <c r="U95" s="132"/>
       <c r="V95" s="16"/>
     </row>
-    <row r="96" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="27" t="s">
+    <row r="96" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="27"/>
-      <c r="P97" s="27"/>
-      <c r="Q97" s="27"/>
-      <c r="R97" s="27"/>
-      <c r="S97" s="27"/>
-      <c r="T97" s="27"/>
-      <c r="U97" s="27"/>
-      <c r="V97" s="27"/>
-    </row>
-    <row r="98" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="28" t="s">
+      <c r="B97" s="133"/>
+      <c r="C97" s="133"/>
+      <c r="D97" s="133"/>
+      <c r="E97" s="133"/>
+      <c r="F97" s="133"/>
+      <c r="G97" s="133"/>
+      <c r="H97" s="133"/>
+      <c r="I97" s="133"/>
+      <c r="J97" s="133"/>
+      <c r="K97" s="133"/>
+      <c r="L97" s="133"/>
+      <c r="M97" s="133"/>
+      <c r="N97" s="133"/>
+      <c r="O97" s="133"/>
+      <c r="P97" s="133"/>
+      <c r="Q97" s="133"/>
+      <c r="R97" s="133"/>
+      <c r="S97" s="133"/>
+      <c r="T97" s="133"/>
+      <c r="U97" s="133"/>
+      <c r="V97" s="133"/>
+    </row>
+    <row r="98" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="29"/>
-      <c r="S98" s="29"/>
-      <c r="T98" s="29"/>
-      <c r="U98" s="29"/>
-      <c r="V98" s="29"/>
-    </row>
-    <row r="99" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="22" t="s">
+      <c r="B98" s="135"/>
+      <c r="C98" s="135"/>
+      <c r="D98" s="135"/>
+      <c r="E98" s="135"/>
+      <c r="F98" s="135"/>
+      <c r="G98" s="135"/>
+      <c r="H98" s="135"/>
+      <c r="I98" s="135"/>
+      <c r="J98" s="135"/>
+      <c r="K98" s="135"/>
+      <c r="L98" s="135"/>
+      <c r="M98" s="135"/>
+      <c r="N98" s="135"/>
+      <c r="O98" s="135"/>
+      <c r="P98" s="135"/>
+      <c r="Q98" s="135"/>
+      <c r="R98" s="135"/>
+      <c r="S98" s="135"/>
+      <c r="T98" s="135"/>
+      <c r="U98" s="135"/>
+      <c r="V98" s="135"/>
+    </row>
+    <row r="99" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="22"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="22"/>
-      <c r="S100" s="22"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="22"/>
-      <c r="V100" s="22"/>
-    </row>
-    <row r="101" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="28" t="s">
+      <c r="B100" s="128"/>
+      <c r="C100" s="128"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="128"/>
+      <c r="H100" s="128"/>
+      <c r="I100" s="128"/>
+      <c r="J100" s="128"/>
+      <c r="K100" s="128"/>
+      <c r="L100" s="128"/>
+      <c r="M100" s="128"/>
+      <c r="N100" s="128"/>
+      <c r="O100" s="128"/>
+      <c r="P100" s="128"/>
+      <c r="Q100" s="128"/>
+      <c r="R100" s="128"/>
+      <c r="S100" s="128"/>
+      <c r="T100" s="128"/>
+      <c r="U100" s="128"/>
+      <c r="V100" s="128"/>
+    </row>
+    <row r="101" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="29"/>
-      <c r="U101" s="29"/>
-      <c r="V101" s="29"/>
-    </row>
-    <row r="103" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="22" t="s">
+      <c r="B101" s="135"/>
+      <c r="C101" s="135"/>
+      <c r="D101" s="135"/>
+      <c r="E101" s="135"/>
+      <c r="F101" s="135"/>
+      <c r="G101" s="135"/>
+      <c r="H101" s="135"/>
+      <c r="I101" s="135"/>
+      <c r="J101" s="135"/>
+      <c r="K101" s="135"/>
+      <c r="L101" s="135"/>
+      <c r="M101" s="135"/>
+      <c r="N101" s="135"/>
+      <c r="O101" s="135"/>
+      <c r="P101" s="135"/>
+      <c r="Q101" s="135"/>
+      <c r="R101" s="135"/>
+      <c r="S101" s="135"/>
+      <c r="T101" s="135"/>
+      <c r="U101" s="135"/>
+      <c r="V101" s="135"/>
+    </row>
+    <row r="103" spans="1:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="A103" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
-      <c r="K103" s="22"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="22"/>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="22"/>
+      <c r="B103" s="128"/>
+      <c r="C103" s="128"/>
+      <c r="D103" s="128"/>
+      <c r="E103" s="128"/>
+      <c r="F103" s="128"/>
+      <c r="G103" s="128"/>
+      <c r="H103" s="128"/>
+      <c r="I103" s="128"/>
+      <c r="J103" s="128"/>
+      <c r="K103" s="128"/>
+      <c r="L103" s="128"/>
+      <c r="M103" s="128"/>
+      <c r="N103" s="128"/>
+      <c r="O103" s="128"/>
+      <c r="P103" s="128"/>
+      <c r="Q103" s="128"/>
+      <c r="R103" s="128"/>
+      <c r="S103" s="128"/>
+      <c r="T103" s="128"/>
+      <c r="U103" s="128"/>
+      <c r="V103" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B70:E70"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B30:E30"/>
     <mergeCell ref="A95:U95"/>
     <mergeCell ref="B89:E89"/>
     <mergeCell ref="B90:E90"/>
@@ -6330,6 +6325,8 @@
     <mergeCell ref="B80:E80"/>
     <mergeCell ref="B81:E81"/>
     <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B86:E86"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B17:E17"/>
@@ -6360,15 +6357,6 @@
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B70:E70"/>
     <mergeCell ref="A103:V103"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B66:E66"/>
@@ -6397,6 +6385,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="0" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="105f5595a234019decd898e650ffc1cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7af5af6639fca6992108c272a16dc73">
     <xsd:element name="properties">
@@ -6510,7 +6504,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6519,20 +6513,35 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3707D6F5-40E8-49EC-A3DB-5BB0E6B2DA60}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C7849BF-CC80-4F81-81D3-33F0F9C3ADF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B4B56D-B698-4134-B07F-9CBE0829161F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3707D6F5-40E8-49EC-A3DB-5BB0E6B2DA60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C7849BF-CC80-4F81-81D3-33F0F9C3ADF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B4B56D-B698-4134-B07F-9CBE0829161F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/backend/django_subject_manager/input/esti.xlsx
+++ b/backend/django_subject_manager/input/esti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/subject_manager/backend/django_subject_manager/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D79BF-F78A-BA4C-8D1B-97F6FF7433C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21EAD66-D790-DE42-8E57-47F58BF3A3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35220" yWindow="-8860" windowWidth="24240" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="1120" windowWidth="24240" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esti BSc" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="207">
   <si>
     <t>IP-18eMATAG</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Kredit</t>
   </si>
   <si>
-    <t>Előfeltétel</t>
-  </si>
-  <si>
     <t>1. félév</t>
   </si>
   <si>
@@ -423,12 +420,6 @@
   </si>
   <si>
     <t>Törzsanyag</t>
-  </si>
-  <si>
-    <t>Specializáció tárgyai</t>
-  </si>
-  <si>
-    <t>Kötelezően választható tárgyak</t>
   </si>
   <si>
     <t>IP-18eNM1E</t>
@@ -745,6 +736,12 @@
   </si>
   <si>
     <t>Előfeltétel(ek)</t>
+  </si>
+  <si>
+    <t>Specializáció kötelező tárgyai</t>
+  </si>
+  <si>
+    <t>Specializáció kötelezően választható tárgyai</t>
   </si>
 </sst>
 </file>
@@ -2027,21 +2024,171 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2063,18 +2210,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2083,144 +2218,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2559,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2586,7 +2583,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="161" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="162"/>
       <c r="C1" s="162"/>
@@ -2612,7 +2609,7 @@
     <row r="2" spans="1:21" ht="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="164"/>
       <c r="C3" s="164"/>
@@ -2659,29 +2656,29 @@
       <c r="U4" s="18"/>
     </row>
     <row r="5" spans="1:21" ht="297" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="170" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
+      <c r="A5" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="174"/>
     </row>
     <row r="6" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
@@ -2731,7 +2728,7 @@
     </row>
     <row r="8" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="166"/>
       <c r="C8" s="166"/>
@@ -2756,14 +2753,14 @@
     </row>
     <row r="9" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="131"/>
+        <v>69</v>
+      </c>
+      <c r="B9" s="168" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="170"/>
       <c r="F9" s="6" t="s">
         <v>61</v>
       </c>
@@ -2774,10 +2771,10 @@
         <v>58</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>56</v>
@@ -2786,28 +2783,28 @@
         <v>62</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>59</v>
       </c>
       <c r="O9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>60</v>
@@ -2817,12 +2814,12 @@
       <c r="A10" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="168" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
+      <c r="B10" s="171" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
       <c r="F10" s="27">
         <v>0</v>
       </c>
@@ -2834,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K10" s="29">
         <v>2</v>
@@ -2847,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
@@ -2855,24 +2852,24 @@
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="169" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
+      <c r="B11" s="172" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
       <c r="F11" s="32">
         <v>1</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="32">
         <v>0</v>
@@ -2881,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K11" s="34">
         <v>3</v>
@@ -2894,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
@@ -2902,24 +2899,24 @@
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="169" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
+      <c r="B12" s="172" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
       <c r="F12" s="32">
         <v>2</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="32">
         <v>0</v>
@@ -2928,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K12" s="34">
         <v>3</v>
@@ -2941,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
@@ -2949,24 +2946,24 @@
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="147" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="149"/>
+      <c r="B13" s="175" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="177"/>
       <c r="F13" s="32">
         <v>2</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="32">
         <v>0</v>
@@ -2975,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K13" s="34">
         <v>3</v>
@@ -2988,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
@@ -2996,24 +2993,24 @@
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="149"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="177"/>
       <c r="F14" s="32">
         <v>2</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="32">
         <v>0</v>
@@ -3029,33 +3026,33 @@
         <v>2</v>
       </c>
       <c r="M14" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N14" s="32">
         <v>2</v>
       </c>
       <c r="O14" s="34"/>
       <c r="P14" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
       <c r="U14" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="147" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="149"/>
+      <c r="B15" s="175" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="177"/>
       <c r="F15" s="32">
         <v>0</v>
       </c>
@@ -3067,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K15" s="33">
         <v>2</v>
@@ -3083,31 +3080,31 @@
       </c>
       <c r="O15" s="34"/>
       <c r="P15" s="33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q15" s="34"/>
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
       <c r="U15" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="155"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
       <c r="F16" s="32">
         <v>2</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="32">
         <v>0</v>
@@ -3123,33 +3120,33 @@
         <v>2</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N16" s="32">
         <v>2</v>
       </c>
       <c r="O16" s="34"/>
       <c r="P16" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="34"/>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
       <c r="U16" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
       <c r="F17" s="32">
         <v>0</v>
       </c>
@@ -3161,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K17" s="33">
         <v>2</v>
@@ -3177,31 +3174,31 @@
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
       <c r="U17" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="153" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="155"/>
+      <c r="B18" s="132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
       <c r="F18" s="32">
         <v>2</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="32">
         <v>0</v>
@@ -3210,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K18" s="34">
         <v>2</v>
@@ -3226,31 +3223,31 @@
       </c>
       <c r="O18" s="34"/>
       <c r="P18" s="33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q18" s="34"/>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="147" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="149"/>
+      <c r="B19" s="175" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="177"/>
       <c r="F19" s="32">
         <v>1</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="32">
         <v>0</v>
@@ -3259,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K19" s="34">
         <v>2</v>
@@ -3273,31 +3270,31 @@
       </c>
       <c r="O19" s="34"/>
       <c r="P19" s="33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="34"/>
       <c r="R19" s="34"/>
       <c r="S19" s="34"/>
       <c r="T19" s="34"/>
       <c r="U19" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="32">
         <v>2</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="32">
         <v>0</v>
@@ -3313,33 +3310,33 @@
         <v>2</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N20" s="32">
         <v>2</v>
       </c>
       <c r="O20" s="34"/>
       <c r="P20" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="S20" s="34"/>
       <c r="T20" s="34"/>
       <c r="U20" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="153" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="155"/>
+      <c r="B21" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
       <c r="F21" s="32">
         <v>0</v>
       </c>
@@ -3351,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K21" s="33">
         <v>2</v>
@@ -3367,31 +3364,31 @@
       </c>
       <c r="O21" s="34"/>
       <c r="P21" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="34"/>
       <c r="R21" s="34"/>
       <c r="S21" s="34"/>
       <c r="T21" s="34"/>
       <c r="U21" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="158" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
+      <c r="B22" s="160" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
       <c r="F22" s="32">
         <v>2</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="32">
         <v>0</v>
@@ -3413,30 +3410,30 @@
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="34"/>
       <c r="T22" s="34"/>
       <c r="U22" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="153" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="155"/>
+      <c r="B23" s="132" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="32">
         <v>2</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" s="32">
         <v>0</v>
@@ -3445,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K23" s="34">
         <v>2</v>
@@ -3460,30 +3457,30 @@
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
       <c r="Q23" s="33" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
       <c r="T23" s="34"/>
       <c r="U23" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="147" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="149"/>
+        <v>137</v>
+      </c>
+      <c r="B24" s="175" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="176"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="177"/>
       <c r="F24" s="32">
         <v>2</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H24" s="32">
         <v>0</v>
@@ -3492,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K24" s="34">
         <v>4</v>
@@ -3509,30 +3506,30 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="34"/>
       <c r="T24" s="34"/>
       <c r="U24" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="155"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="134"/>
       <c r="F25" s="32">
         <v>2</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="32">
         <v>0</v>
@@ -3548,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N25" s="32">
         <v>3</v>
@@ -3556,25 +3553,25 @@
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
       <c r="Q25" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R25" s="34"/>
       <c r="S25" s="34"/>
       <c r="T25" s="34"/>
       <c r="U25" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="153" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="155"/>
+      <c r="B26" s="132" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
       <c r="F26" s="32">
         <v>0</v>
       </c>
@@ -3586,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K26" s="33">
         <v>2</v>
@@ -3603,30 +3600,30 @@
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
       <c r="U26" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="153" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="155"/>
+      <c r="B27" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
       <c r="F27" s="32">
         <v>1</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H27" s="32">
         <v>0</v>
@@ -3635,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K27" s="34">
         <v>1</v>
@@ -3644,7 +3641,7 @@
         <v>3</v>
       </c>
       <c r="M27" s="34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N27" s="32">
         <v>4</v>
@@ -3653,29 +3650,29 @@
       <c r="P27" s="34"/>
       <c r="Q27" s="34"/>
       <c r="R27" s="33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
       <c r="U27" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="153" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="155"/>
+      <c r="B28" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="134"/>
       <c r="F28" s="32">
         <v>1</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H28" s="32">
         <v>0</v>
@@ -3684,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K28" s="34">
         <v>1</v>
@@ -3702,29 +3699,29 @@
       <c r="P28" s="34"/>
       <c r="Q28" s="34"/>
       <c r="R28" s="33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
       <c r="U28" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="155"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="32">
         <v>2</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="39">
         <v>0</v>
@@ -3740,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="M29" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -3750,23 +3747,23 @@
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
       <c r="S29" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T29" s="34"/>
       <c r="U29" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="155"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="134"/>
       <c r="F30" s="32">
         <v>0</v>
       </c>
@@ -3778,7 +3775,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K30" s="33">
         <v>1</v>
@@ -3797,28 +3794,28 @@
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
       <c r="S30" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T30" s="34"/>
       <c r="U30" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="186" t="s">
+      <c r="B31" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="187"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="188"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="144"/>
       <c r="F31" s="41">
         <v>2</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H31" s="41">
         <v>0</v>
@@ -3834,7 +3831,7 @@
         <v>3</v>
       </c>
       <c r="M31" s="44" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N31" s="45">
         <v>5</v>
@@ -3844,28 +3841,28 @@
       <c r="Q31" s="46"/>
       <c r="R31" s="46"/>
       <c r="S31" s="44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="T31" s="46"/>
       <c r="U31" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="189" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="189"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
+        <v>80</v>
+      </c>
+      <c r="B32" s="145" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
       <c r="F32" s="45">
         <v>2</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="126">
         <v>0</v>
@@ -3881,7 +3878,7 @@
         <v>2</v>
       </c>
       <c r="M32" s="127" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N32" s="45">
         <v>6</v>
@@ -3892,22 +3889,22 @@
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
       <c r="T32" s="44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U32" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="157" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
+        <v>79</v>
+      </c>
+      <c r="B33" s="131" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
       <c r="F33" s="49">
         <v>0</v>
       </c>
@@ -3919,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K33" s="50">
         <v>1</v>
@@ -3928,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="M33" s="51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N33" s="49">
         <v>6</v>
@@ -3939,20 +3936,20 @@
       <c r="R33" s="52"/>
       <c r="S33" s="52"/>
       <c r="T33" s="50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="U33" s="53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54"/>
-      <c r="B34" s="180" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="182"/>
+      <c r="B34" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="130"/>
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
       <c r="H34" s="55"/>
@@ -4220,40 +4217,40 @@
       <c r="U44" s="1"/>
     </row>
     <row r="45" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="183" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="184"/>
-      <c r="E45" s="184"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="184"/>
-      <c r="H45" s="184"/>
-      <c r="I45" s="184"/>
-      <c r="J45" s="184"/>
-      <c r="K45" s="184"/>
-      <c r="L45" s="184"/>
-      <c r="M45" s="184"/>
-      <c r="N45" s="184"/>
-      <c r="O45" s="184"/>
-      <c r="P45" s="184"/>
-      <c r="Q45" s="184"/>
-      <c r="R45" s="184"/>
-      <c r="S45" s="184"/>
-      <c r="T45" s="184"/>
-      <c r="U45" s="185"/>
+      <c r="A45" s="138" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="139"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="139"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="139"/>
+      <c r="M45" s="139"/>
+      <c r="N45" s="139"/>
+      <c r="O45" s="139"/>
+      <c r="P45" s="139"/>
+      <c r="Q45" s="139"/>
+      <c r="R45" s="139"/>
+      <c r="S45" s="139"/>
+      <c r="T45" s="139"/>
+      <c r="U45" s="140"/>
     </row>
     <row r="46" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="131"/>
+        <v>69</v>
+      </c>
+      <c r="B46" s="168" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="169"/>
+      <c r="D46" s="169"/>
+      <c r="E46" s="170"/>
       <c r="F46" s="6" t="s">
         <v>61</v>
       </c>
@@ -4264,10 +4261,10 @@
         <v>58</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>56</v>
@@ -4276,28 +4273,28 @@
         <v>62</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>59</v>
       </c>
       <c r="O46" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="P46" s="6" t="s">
+      <c r="Q46" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Q46" s="6" t="s">
+      <c r="R46" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="R46" s="6" t="s">
+      <c r="S46" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="S46" s="6" t="s">
+      <c r="T46" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="T46" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="U46" s="7" t="s">
         <v>60</v>
@@ -4307,17 +4304,17 @@
       <c r="A47" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="139" t="s">
+      <c r="B47" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="189"/>
+      <c r="E47" s="189"/>
       <c r="F47" s="61">
         <v>2</v>
       </c>
       <c r="G47" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H47" s="63">
         <v>0</v>
@@ -4333,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N47" s="61">
         <v>3</v>
@@ -4341,25 +4338,25 @@
       <c r="O47" s="75"/>
       <c r="P47" s="75"/>
       <c r="Q47" s="62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R47" s="75"/>
       <c r="S47" s="75"/>
       <c r="T47" s="75"/>
       <c r="U47" s="64" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="140" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="140"/>
+      <c r="B48" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
       <c r="F48" s="45">
         <v>0</v>
       </c>
@@ -4371,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K48" s="44">
         <v>1</v>
@@ -4388,30 +4385,30 @@
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
       <c r="Q48" s="44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R48" s="46"/>
       <c r="S48" s="46"/>
       <c r="T48" s="46"/>
       <c r="U48" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="141" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="143"/>
+      <c r="B49" s="135" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="137"/>
       <c r="F49" s="45">
         <v>1</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" s="45">
         <v>0</v>
@@ -4420,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K49" s="46">
         <v>1</v>
@@ -4437,30 +4434,30 @@
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
       <c r="Q49" s="44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="R49" s="46"/>
       <c r="S49" s="46"/>
       <c r="T49" s="46"/>
       <c r="U49" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="140" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
       <c r="F50" s="45">
         <v>2</v>
       </c>
       <c r="G50" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H50" s="67">
         <v>0</v>
@@ -4476,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="M50" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N50" s="45">
         <v>4</v>
@@ -4485,24 +4482,24 @@
       <c r="P50" s="46"/>
       <c r="Q50" s="46"/>
       <c r="R50" s="44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S50" s="46"/>
       <c r="T50" s="46"/>
       <c r="U50" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="140" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="141"/>
       <c r="F51" s="45">
         <v>0</v>
       </c>
@@ -4514,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K51" s="44">
         <v>2</v>
@@ -4532,29 +4529,29 @@
       <c r="P51" s="46"/>
       <c r="Q51" s="46"/>
       <c r="R51" s="44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S51" s="46"/>
       <c r="T51" s="46"/>
       <c r="U51" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="141" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="159"/>
-      <c r="D52" s="159"/>
-      <c r="E52" s="160"/>
+      <c r="B52" s="135" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="147"/>
       <c r="F52" s="45">
         <v>2</v>
       </c>
       <c r="G52" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H52" s="45">
         <v>0</v>
@@ -4563,7 +4560,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K52" s="46">
         <v>1</v>
@@ -4581,29 +4578,29 @@
       <c r="P52" s="46"/>
       <c r="Q52" s="46"/>
       <c r="R52" s="44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S52" s="46"/>
       <c r="T52" s="46"/>
       <c r="U52" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="140" t="s">
+      <c r="B53" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="140"/>
+      <c r="C53" s="141"/>
+      <c r="D53" s="141"/>
+      <c r="E53" s="141"/>
       <c r="F53" s="45">
         <v>2</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H53" s="45">
         <v>0</v>
@@ -4628,24 +4625,24 @@
       <c r="P53" s="46"/>
       <c r="Q53" s="46"/>
       <c r="R53" s="44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S53" s="46"/>
       <c r="T53" s="46"/>
       <c r="U53" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="140" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
+      <c r="B54" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="141"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="141"/>
       <c r="F54" s="45">
         <v>0</v>
       </c>
@@ -4657,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K54" s="44">
         <v>1</v>
@@ -4675,24 +4672,24 @@
       <c r="P54" s="46"/>
       <c r="Q54" s="46"/>
       <c r="R54" s="44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S54" s="46"/>
       <c r="T54" s="46"/>
       <c r="U54" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="141" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="142"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="143"/>
+      <c r="B55" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="137"/>
       <c r="F55" s="45">
         <v>0</v>
       </c>
@@ -4704,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K55" s="44">
         <v>1</v>
@@ -4721,25 +4718,25 @@
       <c r="O55" s="46"/>
       <c r="P55" s="46"/>
       <c r="Q55" s="44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R55" s="46"/>
       <c r="S55" s="76"/>
       <c r="T55" s="43"/>
       <c r="U55" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="143"/>
+      <c r="B56" s="135" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="137"/>
       <c r="F56" s="45">
         <v>0</v>
       </c>
@@ -4751,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K56" s="44">
         <v>1</v>
@@ -4770,28 +4767,28 @@
       <c r="Q56" s="46"/>
       <c r="R56" s="46"/>
       <c r="S56" s="44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T56" s="43"/>
       <c r="U56" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="140" t="s">
+      <c r="B57" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
       <c r="F57" s="45">
         <v>2</v>
       </c>
       <c r="G57" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H57" s="45">
         <v>0</v>
@@ -4817,23 +4814,23 @@
       <c r="Q57" s="46"/>
       <c r="R57" s="46"/>
       <c r="S57" s="44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T57" s="46"/>
       <c r="U57" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="140" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="141"/>
       <c r="F58" s="45">
         <v>0</v>
       </c>
@@ -4845,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K58" s="44">
         <v>1</v>
@@ -4864,28 +4861,28 @@
       <c r="Q58" s="46"/>
       <c r="R58" s="46"/>
       <c r="S58" s="44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="T58" s="46"/>
       <c r="U58" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="159"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="160"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="147"/>
       <c r="F59" s="45">
         <v>2</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H59" s="67">
         <v>0</v>
@@ -4894,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="67" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K59" s="44">
         <v>0</v>
@@ -4913,28 +4910,28 @@
       <c r="Q59" s="46"/>
       <c r="R59" s="46"/>
       <c r="S59" s="44" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="T59" s="46"/>
       <c r="U59" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="157" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="157"/>
+      <c r="B60" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="131"/>
       <c r="F60" s="49">
         <v>2</v>
       </c>
       <c r="G60" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H60" s="49">
         <v>0</v>
@@ -4961,20 +4958,20 @@
       <c r="R60" s="51"/>
       <c r="S60" s="51"/>
       <c r="T60" s="50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U60" s="53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54"/>
-      <c r="B61" s="156" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
+      <c r="B61" s="181" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
+      <c r="E61" s="181"/>
       <c r="F61" s="70"/>
       <c r="G61" s="70"/>
       <c r="H61" s="70"/>
@@ -5079,40 +5076,40 @@
       <c r="U64" s="1"/>
     </row>
     <row r="65" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="150" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="151"/>
-      <c r="C65" s="151"/>
-      <c r="D65" s="151"/>
-      <c r="E65" s="151"/>
-      <c r="F65" s="151"/>
-      <c r="G65" s="151"/>
-      <c r="H65" s="151"/>
-      <c r="I65" s="151"/>
-      <c r="J65" s="151"/>
-      <c r="K65" s="151"/>
-      <c r="L65" s="151"/>
-      <c r="M65" s="151"/>
-      <c r="N65" s="151"/>
-      <c r="O65" s="151"/>
-      <c r="P65" s="151"/>
-      <c r="Q65" s="151"/>
-      <c r="R65" s="151"/>
-      <c r="S65" s="151"/>
-      <c r="T65" s="151"/>
-      <c r="U65" s="152"/>
+      <c r="A65" s="178" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="179"/>
+      <c r="C65" s="179"/>
+      <c r="D65" s="179"/>
+      <c r="E65" s="179"/>
+      <c r="F65" s="179"/>
+      <c r="G65" s="179"/>
+      <c r="H65" s="179"/>
+      <c r="I65" s="179"/>
+      <c r="J65" s="179"/>
+      <c r="K65" s="179"/>
+      <c r="L65" s="179"/>
+      <c r="M65" s="179"/>
+      <c r="N65" s="179"/>
+      <c r="O65" s="179"/>
+      <c r="P65" s="179"/>
+      <c r="Q65" s="179"/>
+      <c r="R65" s="179"/>
+      <c r="S65" s="179"/>
+      <c r="T65" s="179"/>
+      <c r="U65" s="180"/>
     </row>
     <row r="66" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="131"/>
+        <v>69</v>
+      </c>
+      <c r="B66" s="168" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="169"/>
+      <c r="D66" s="169"/>
+      <c r="E66" s="170"/>
       <c r="F66" s="6" t="s">
         <v>61</v>
       </c>
@@ -5123,10 +5120,10 @@
         <v>58</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>56</v>
@@ -5135,28 +5132,28 @@
         <v>62</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="N66" s="6" t="s">
         <v>59</v>
       </c>
       <c r="O66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="P66" s="6" t="s">
+      <c r="Q66" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Q66" s="6" t="s">
+      <c r="R66" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="R66" s="6" t="s">
+      <c r="S66" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="S66" s="6" t="s">
+      <c r="T66" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="T66" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="U66" s="7" t="s">
         <v>60</v>
@@ -5166,17 +5163,17 @@
       <c r="A67" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="190" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="191"/>
-      <c r="D67" s="191"/>
-      <c r="E67" s="192"/>
+      <c r="B67" s="148" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="149"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="150"/>
       <c r="F67" s="61">
         <v>1</v>
       </c>
       <c r="G67" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H67" s="61">
         <v>0</v>
@@ -5185,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="77" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K67" s="75">
         <v>1</v>
@@ -5203,29 +5200,29 @@
       <c r="P67" s="75"/>
       <c r="Q67" s="75"/>
       <c r="R67" s="62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S67" s="75"/>
       <c r="T67" s="75"/>
       <c r="U67" s="78" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="140" t="s">
+      <c r="B68" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="140"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="140"/>
+      <c r="C68" s="141"/>
+      <c r="D68" s="141"/>
+      <c r="E68" s="141"/>
       <c r="F68" s="45">
         <v>2</v>
       </c>
       <c r="G68" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H68" s="67">
         <v>0</v>
@@ -5241,7 +5238,7 @@
         <v>2</v>
       </c>
       <c r="M68" s="46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N68" s="45">
         <v>4</v>
@@ -5250,24 +5247,24 @@
       <c r="P68" s="66"/>
       <c r="Q68" s="66"/>
       <c r="R68" s="44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S68" s="66"/>
       <c r="T68" s="66"/>
       <c r="U68" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="140" t="s">
+      <c r="B69" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="140"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="140"/>
+      <c r="C69" s="141"/>
+      <c r="D69" s="141"/>
+      <c r="E69" s="141"/>
       <c r="F69" s="45">
         <v>0</v>
       </c>
@@ -5279,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K69" s="44">
         <v>1</v>
@@ -5297,29 +5294,29 @@
       <c r="P69" s="66"/>
       <c r="Q69" s="66"/>
       <c r="R69" s="44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S69" s="66"/>
       <c r="T69" s="66"/>
       <c r="U69" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" s="140" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="140"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="140"/>
+      <c r="C70" s="141"/>
+      <c r="D70" s="141"/>
+      <c r="E70" s="141"/>
       <c r="F70" s="45">
         <v>2</v>
       </c>
       <c r="G70" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H70" s="45">
         <v>0</v>
@@ -5341,30 +5338,30 @@
       <c r="O70" s="66"/>
       <c r="P70" s="66"/>
       <c r="Q70" s="44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R70" s="44"/>
       <c r="S70" s="66"/>
       <c r="T70" s="66"/>
       <c r="U70" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="140" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="140"/>
-      <c r="D71" s="140"/>
-      <c r="E71" s="140"/>
+      <c r="B71" s="141" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="141"/>
+      <c r="D71" s="141"/>
+      <c r="E71" s="141"/>
       <c r="F71" s="45">
         <v>1</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H71" s="45">
         <v>0</v>
@@ -5373,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K71" s="46">
         <v>2</v>
@@ -5392,23 +5389,23 @@
       <c r="Q71" s="69"/>
       <c r="R71" s="69"/>
       <c r="S71" s="65" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="T71" s="69"/>
       <c r="U71" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="140" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="140"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="140"/>
+      <c r="B72" s="141" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="141"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="141"/>
       <c r="F72" s="45">
         <v>0</v>
       </c>
@@ -5420,7 +5417,7 @@
         <v>2</v>
       </c>
       <c r="J72" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K72" s="44">
         <v>2</v>
@@ -5429,7 +5426,7 @@
         <v>4</v>
       </c>
       <c r="M72" s="46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N72" s="45">
         <v>6</v>
@@ -5440,27 +5437,27 @@
       <c r="R72" s="69"/>
       <c r="S72" s="69"/>
       <c r="T72" s="65" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U72" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B73" s="141" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="142"/>
-      <c r="D73" s="142"/>
-      <c r="E73" s="143"/>
+        <v>166</v>
+      </c>
+      <c r="B73" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="136"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="137"/>
       <c r="F73" s="49">
         <v>2</v>
       </c>
       <c r="G73" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H73" s="49">
         <v>0</v>
@@ -5479,34 +5476,34 @@
         <v>0</v>
       </c>
       <c r="N73" s="80" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O73" s="81"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="51"/>
       <c r="R73" s="51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S73" s="51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T73" s="51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U73" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B74" s="141" t="s">
-        <v>170</v>
-      </c>
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
-      <c r="E74" s="143"/>
+        <v>169</v>
+      </c>
+      <c r="B74" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="136"/>
+      <c r="D74" s="136"/>
+      <c r="E74" s="137"/>
       <c r="F74" s="49">
         <v>0</v>
       </c>
@@ -5525,37 +5522,37 @@
         <v>3</v>
       </c>
       <c r="M74" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N74" s="80" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O74" s="81"/>
       <c r="P74" s="81"/>
       <c r="Q74" s="51"/>
       <c r="R74" s="51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S74" s="51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T74" s="51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U74" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B75" s="141" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" s="142"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="143"/>
+        <v>172</v>
+      </c>
+      <c r="B75" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="136"/>
+      <c r="D75" s="136"/>
+      <c r="E75" s="137"/>
       <c r="F75" s="49">
         <v>2</v>
       </c>
@@ -5567,7 +5564,7 @@
         <v>2</v>
       </c>
       <c r="J75" s="50" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K75" s="50">
         <v>1</v>
@@ -5576,40 +5573,40 @@
         <v>5</v>
       </c>
       <c r="M75" s="82" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N75" s="80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O75" s="81"/>
       <c r="P75" s="81"/>
       <c r="Q75" s="51"/>
       <c r="R75" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S75" s="51"/>
       <c r="T75" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U75" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B76" s="141" t="s">
-        <v>177</v>
-      </c>
-      <c r="C76" s="142"/>
-      <c r="D76" s="142"/>
-      <c r="E76" s="143"/>
+        <v>173</v>
+      </c>
+      <c r="B76" s="135" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="136"/>
+      <c r="D76" s="136"/>
+      <c r="E76" s="137"/>
       <c r="F76" s="49">
         <v>2</v>
       </c>
       <c r="G76" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H76" s="49">
         <v>0</v>
@@ -5625,33 +5622,33 @@
         <v>2</v>
       </c>
       <c r="M76" s="82" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N76" s="80" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O76" s="81"/>
       <c r="P76" s="81"/>
       <c r="Q76" s="51"/>
       <c r="R76" s="51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S76" s="51"/>
       <c r="T76" s="48"/>
       <c r="U76" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B77" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="C77" s="142"/>
-      <c r="D77" s="142"/>
-      <c r="E77" s="143"/>
+      <c r="B77" s="135" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="136"/>
+      <c r="D77" s="136"/>
+      <c r="E77" s="137"/>
       <c r="F77" s="49">
         <v>0</v>
       </c>
@@ -5663,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="50" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K77" s="50">
         <v>1</v>
@@ -5679,29 +5676,29 @@
       <c r="P77" s="81"/>
       <c r="Q77" s="81"/>
       <c r="R77" s="51" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S77" s="81"/>
       <c r="T77" s="48"/>
       <c r="U77" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="136" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" s="137"/>
-      <c r="D78" s="137"/>
-      <c r="E78" s="138"/>
+        <v>135</v>
+      </c>
+      <c r="B78" s="186" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="187"/>
+      <c r="D78" s="187"/>
+      <c r="E78" s="188"/>
       <c r="F78" s="49">
         <v>2</v>
       </c>
       <c r="G78" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H78" s="49">
         <v>2</v>
@@ -5720,39 +5717,39 @@
         <v>7</v>
       </c>
       <c r="N78" s="49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O78" s="81"/>
       <c r="P78" s="81"/>
       <c r="Q78" s="51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="R78" s="51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S78" s="51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T78" s="48"/>
       <c r="U78" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="B79" s="177" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" s="178"/>
-      <c r="D79" s="178"/>
-      <c r="E79" s="179"/>
+        <v>197</v>
+      </c>
+      <c r="B79" s="157" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" s="158"/>
+      <c r="D79" s="158"/>
+      <c r="E79" s="159"/>
       <c r="F79" s="86">
         <v>2</v>
       </c>
       <c r="G79" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H79" s="86">
         <v>0</v>
@@ -5769,30 +5766,30 @@
       </c>
       <c r="M79" s="89"/>
       <c r="N79" s="90" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O79" s="91"/>
       <c r="P79" s="91"/>
       <c r="Q79" s="87" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R79" s="87"/>
       <c r="S79" s="87" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T79" s="92"/>
       <c r="U79" s="93" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="94"/>
-      <c r="B80" s="175" t="s">
-        <v>194</v>
-      </c>
-      <c r="C80" s="175"/>
-      <c r="D80" s="175"/>
-      <c r="E80" s="175"/>
+      <c r="B80" s="155" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="155"/>
+      <c r="D80" s="155"/>
+      <c r="E80" s="155"/>
       <c r="F80" s="95"/>
       <c r="G80" s="96"/>
       <c r="H80" s="95"/>
@@ -5818,12 +5815,12 @@
     </row>
     <row r="81" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="40"/>
-      <c r="B81" s="176" t="s">
-        <v>195</v>
-      </c>
-      <c r="C81" s="176"/>
-      <c r="D81" s="176"/>
-      <c r="E81" s="176"/>
+      <c r="B81" s="156" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="156"/>
+      <c r="D81" s="156"/>
+      <c r="E81" s="156"/>
       <c r="F81" s="45"/>
       <c r="G81" s="46"/>
       <c r="H81" s="45"/>
@@ -5849,12 +5846,12 @@
     </row>
     <row r="82" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="94"/>
-      <c r="B82" s="173" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" s="173"/>
-      <c r="D82" s="173"/>
-      <c r="E82" s="173"/>
+      <c r="B82" s="153" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="153"/>
+      <c r="D82" s="153"/>
+      <c r="E82" s="153"/>
       <c r="F82" s="107"/>
       <c r="G82" s="107"/>
       <c r="H82" s="107"/>
@@ -5884,12 +5881,12 @@
     </row>
     <row r="83" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="94"/>
-      <c r="B83" s="173" t="s">
-        <v>202</v>
-      </c>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="173"/>
+      <c r="B83" s="153" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="153"/>
+      <c r="D83" s="153"/>
+      <c r="E83" s="153"/>
       <c r="F83" s="107"/>
       <c r="G83" s="107"/>
       <c r="H83" s="107"/>
@@ -5908,19 +5905,19 @@
       <c r="Q83" s="109"/>
       <c r="R83" s="108"/>
       <c r="S83" s="111" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T83" s="108"/>
       <c r="U83" s="110"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="112"/>
-      <c r="B84" s="173" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
+      <c r="B84" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="153"/>
+      <c r="D84" s="153"/>
+      <c r="E84" s="153"/>
       <c r="F84" s="113"/>
       <c r="G84" s="113"/>
       <c r="H84" s="113"/>
@@ -5932,7 +5929,7 @@
       </c>
       <c r="M84" s="113"/>
       <c r="N84" s="111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O84" s="111">
         <v>4</v>
@@ -5950,14 +5947,14 @@
     </row>
     <row r="85" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="116" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="174" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="174"/>
-      <c r="D85" s="174"/>
-      <c r="E85" s="174"/>
+        <v>93</v>
+      </c>
+      <c r="B85" s="154" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="154"/>
+      <c r="D85" s="154"/>
+      <c r="E85" s="154"/>
       <c r="F85" s="117"/>
       <c r="G85" s="117"/>
       <c r="H85" s="117"/>
@@ -5981,12 +5978,12 @@
     </row>
     <row r="86" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="120"/>
-      <c r="B86" s="174" t="s">
-        <v>73</v>
-      </c>
-      <c r="C86" s="174"/>
-      <c r="D86" s="174"/>
-      <c r="E86" s="174"/>
+      <c r="B86" s="154" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="154"/>
+      <c r="D86" s="154"/>
+      <c r="E86" s="154"/>
       <c r="F86" s="117"/>
       <c r="G86" s="117"/>
       <c r="H86" s="117"/>
@@ -6024,12 +6021,12 @@
     </row>
     <row r="87" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="122"/>
-      <c r="B87" s="144" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" s="145"/>
-      <c r="D87" s="145"/>
-      <c r="E87" s="146"/>
+      <c r="B87" s="190" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="191"/>
+      <c r="D87" s="191"/>
+      <c r="E87" s="192"/>
       <c r="F87" s="123"/>
       <c r="G87" s="123"/>
       <c r="H87" s="123"/>
@@ -6052,62 +6049,62 @@
     </row>
     <row r="89" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B89" s="172" t="s">
-        <v>119</v>
-      </c>
-      <c r="C89" s="172"/>
-      <c r="D89" s="172"/>
-      <c r="E89" s="172"/>
+        <v>188</v>
+      </c>
+      <c r="B89" s="152" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="152"/>
+      <c r="D89" s="152"/>
+      <c r="E89" s="152"/>
     </row>
     <row r="90" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="B90" s="172" t="s">
-        <v>120</v>
-      </c>
-      <c r="C90" s="172"/>
-      <c r="D90" s="172"/>
-      <c r="E90" s="172"/>
+        <v>189</v>
+      </c>
+      <c r="B90" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="152"/>
+      <c r="D90" s="152"/>
+      <c r="E90" s="152"/>
     </row>
     <row r="91" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B91" s="172" t="s">
-        <v>121</v>
-      </c>
-      <c r="C91" s="172"/>
-      <c r="D91" s="172"/>
-      <c r="E91" s="172"/>
+        <v>190</v>
+      </c>
+      <c r="B91" s="152" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="152"/>
+      <c r="D91" s="152"/>
+      <c r="E91" s="152"/>
     </row>
     <row r="93" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A93" s="132" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" s="132"/>
-      <c r="C93" s="132"/>
-      <c r="D93" s="132"/>
-      <c r="E93" s="132"/>
-      <c r="F93" s="132"/>
-      <c r="G93" s="132"/>
-      <c r="H93" s="132"/>
-      <c r="I93" s="132"/>
-      <c r="J93" s="132"/>
-      <c r="K93" s="132"/>
-      <c r="L93" s="132"/>
-      <c r="M93" s="132"/>
-      <c r="N93" s="132"/>
-      <c r="O93" s="132"/>
-      <c r="P93" s="132"/>
-      <c r="Q93" s="132"/>
-      <c r="R93" s="132"/>
-      <c r="S93" s="132"/>
-      <c r="T93" s="132"/>
-      <c r="U93" s="132"/>
-      <c r="V93" s="132"/>
+      <c r="A93" s="151" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="151"/>
+      <c r="C93" s="151"/>
+      <c r="D93" s="151"/>
+      <c r="E93" s="151"/>
+      <c r="F93" s="151"/>
+      <c r="G93" s="151"/>
+      <c r="H93" s="151"/>
+      <c r="I93" s="151"/>
+      <c r="J93" s="151"/>
+      <c r="K93" s="151"/>
+      <c r="L93" s="151"/>
+      <c r="M93" s="151"/>
+      <c r="N93" s="151"/>
+      <c r="O93" s="151"/>
+      <c r="P93" s="151"/>
+      <c r="Q93" s="151"/>
+      <c r="R93" s="151"/>
+      <c r="S93" s="151"/>
+      <c r="T93" s="151"/>
+      <c r="U93" s="151"/>
+      <c r="V93" s="151"/>
     </row>
     <row r="94" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A94" s="16"/>
@@ -6134,213 +6131,181 @@
       <c r="V94" s="16"/>
     </row>
     <row r="95" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A95" s="132" t="s">
-        <v>182</v>
-      </c>
-      <c r="B95" s="132"/>
-      <c r="C95" s="132"/>
-      <c r="D95" s="132"/>
-      <c r="E95" s="132"/>
-      <c r="F95" s="132"/>
-      <c r="G95" s="132"/>
-      <c r="H95" s="132"/>
-      <c r="I95" s="132"/>
-      <c r="J95" s="132"/>
-      <c r="K95" s="132"/>
-      <c r="L95" s="132"/>
-      <c r="M95" s="132"/>
-      <c r="N95" s="132"/>
-      <c r="O95" s="132"/>
-      <c r="P95" s="132"/>
-      <c r="Q95" s="132"/>
-      <c r="R95" s="132"/>
-      <c r="S95" s="132"/>
-      <c r="T95" s="132"/>
-      <c r="U95" s="132"/>
+      <c r="A95" s="151" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="151"/>
+      <c r="C95" s="151"/>
+      <c r="D95" s="151"/>
+      <c r="E95" s="151"/>
+      <c r="F95" s="151"/>
+      <c r="G95" s="151"/>
+      <c r="H95" s="151"/>
+      <c r="I95" s="151"/>
+      <c r="J95" s="151"/>
+      <c r="K95" s="151"/>
+      <c r="L95" s="151"/>
+      <c r="M95" s="151"/>
+      <c r="N95" s="151"/>
+      <c r="O95" s="151"/>
+      <c r="P95" s="151"/>
+      <c r="Q95" s="151"/>
+      <c r="R95" s="151"/>
+      <c r="S95" s="151"/>
+      <c r="T95" s="151"/>
+      <c r="U95" s="151"/>
       <c r="V95" s="16"/>
     </row>
     <row r="96" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="133" t="s">
+      <c r="A97" s="183" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="183"/>
+      <c r="C97" s="183"/>
+      <c r="D97" s="183"/>
+      <c r="E97" s="183"/>
+      <c r="F97" s="183"/>
+      <c r="G97" s="183"/>
+      <c r="H97" s="183"/>
+      <c r="I97" s="183"/>
+      <c r="J97" s="183"/>
+      <c r="K97" s="183"/>
+      <c r="L97" s="183"/>
+      <c r="M97" s="183"/>
+      <c r="N97" s="183"/>
+      <c r="O97" s="183"/>
+      <c r="P97" s="183"/>
+      <c r="Q97" s="183"/>
+      <c r="R97" s="183"/>
+      <c r="S97" s="183"/>
+      <c r="T97" s="183"/>
+      <c r="U97" s="183"/>
+      <c r="V97" s="183"/>
+    </row>
+    <row r="98" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="133"/>
-      <c r="C97" s="133"/>
-      <c r="D97" s="133"/>
-      <c r="E97" s="133"/>
-      <c r="F97" s="133"/>
-      <c r="G97" s="133"/>
-      <c r="H97" s="133"/>
-      <c r="I97" s="133"/>
-      <c r="J97" s="133"/>
-      <c r="K97" s="133"/>
-      <c r="L97" s="133"/>
-      <c r="M97" s="133"/>
-      <c r="N97" s="133"/>
-      <c r="O97" s="133"/>
-      <c r="P97" s="133"/>
-      <c r="Q97" s="133"/>
-      <c r="R97" s="133"/>
-      <c r="S97" s="133"/>
-      <c r="T97" s="133"/>
-      <c r="U97" s="133"/>
-      <c r="V97" s="133"/>
-    </row>
-    <row r="98" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="134" t="s">
-        <v>125</v>
-      </c>
-      <c r="B98" s="135"/>
-      <c r="C98" s="135"/>
-      <c r="D98" s="135"/>
-      <c r="E98" s="135"/>
-      <c r="F98" s="135"/>
-      <c r="G98" s="135"/>
-      <c r="H98" s="135"/>
-      <c r="I98" s="135"/>
-      <c r="J98" s="135"/>
-      <c r="K98" s="135"/>
-      <c r="L98" s="135"/>
-      <c r="M98" s="135"/>
-      <c r="N98" s="135"/>
-      <c r="O98" s="135"/>
-      <c r="P98" s="135"/>
-      <c r="Q98" s="135"/>
-      <c r="R98" s="135"/>
-      <c r="S98" s="135"/>
-      <c r="T98" s="135"/>
-      <c r="U98" s="135"/>
-      <c r="V98" s="135"/>
+      <c r="B98" s="185"/>
+      <c r="C98" s="185"/>
+      <c r="D98" s="185"/>
+      <c r="E98" s="185"/>
+      <c r="F98" s="185"/>
+      <c r="G98" s="185"/>
+      <c r="H98" s="185"/>
+      <c r="I98" s="185"/>
+      <c r="J98" s="185"/>
+      <c r="K98" s="185"/>
+      <c r="L98" s="185"/>
+      <c r="M98" s="185"/>
+      <c r="N98" s="185"/>
+      <c r="O98" s="185"/>
+      <c r="P98" s="185"/>
+      <c r="Q98" s="185"/>
+      <c r="R98" s="185"/>
+      <c r="S98" s="185"/>
+      <c r="T98" s="185"/>
+      <c r="U98" s="185"/>
+      <c r="V98" s="185"/>
     </row>
     <row r="99" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="128" t="s">
+      <c r="A100" s="182" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="182"/>
+      <c r="C100" s="182"/>
+      <c r="D100" s="182"/>
+      <c r="E100" s="182"/>
+      <c r="F100" s="182"/>
+      <c r="G100" s="182"/>
+      <c r="H100" s="182"/>
+      <c r="I100" s="182"/>
+      <c r="J100" s="182"/>
+      <c r="K100" s="182"/>
+      <c r="L100" s="182"/>
+      <c r="M100" s="182"/>
+      <c r="N100" s="182"/>
+      <c r="O100" s="182"/>
+      <c r="P100" s="182"/>
+      <c r="Q100" s="182"/>
+      <c r="R100" s="182"/>
+      <c r="S100" s="182"/>
+      <c r="T100" s="182"/>
+      <c r="U100" s="182"/>
+      <c r="V100" s="182"/>
+    </row>
+    <row r="101" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="128"/>
-      <c r="C100" s="128"/>
-      <c r="D100" s="128"/>
-      <c r="E100" s="128"/>
-      <c r="F100" s="128"/>
-      <c r="G100" s="128"/>
-      <c r="H100" s="128"/>
-      <c r="I100" s="128"/>
-      <c r="J100" s="128"/>
-      <c r="K100" s="128"/>
-      <c r="L100" s="128"/>
-      <c r="M100" s="128"/>
-      <c r="N100" s="128"/>
-      <c r="O100" s="128"/>
-      <c r="P100" s="128"/>
-      <c r="Q100" s="128"/>
-      <c r="R100" s="128"/>
-      <c r="S100" s="128"/>
-      <c r="T100" s="128"/>
-      <c r="U100" s="128"/>
-      <c r="V100" s="128"/>
-    </row>
-    <row r="101" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="134" t="s">
-        <v>127</v>
-      </c>
-      <c r="B101" s="135"/>
-      <c r="C101" s="135"/>
-      <c r="D101" s="135"/>
-      <c r="E101" s="135"/>
-      <c r="F101" s="135"/>
-      <c r="G101" s="135"/>
-      <c r="H101" s="135"/>
-      <c r="I101" s="135"/>
-      <c r="J101" s="135"/>
-      <c r="K101" s="135"/>
-      <c r="L101" s="135"/>
-      <c r="M101" s="135"/>
-      <c r="N101" s="135"/>
-      <c r="O101" s="135"/>
-      <c r="P101" s="135"/>
-      <c r="Q101" s="135"/>
-      <c r="R101" s="135"/>
-      <c r="S101" s="135"/>
-      <c r="T101" s="135"/>
-      <c r="U101" s="135"/>
-      <c r="V101" s="135"/>
+      <c r="B101" s="185"/>
+      <c r="C101" s="185"/>
+      <c r="D101" s="185"/>
+      <c r="E101" s="185"/>
+      <c r="F101" s="185"/>
+      <c r="G101" s="185"/>
+      <c r="H101" s="185"/>
+      <c r="I101" s="185"/>
+      <c r="J101" s="185"/>
+      <c r="K101" s="185"/>
+      <c r="L101" s="185"/>
+      <c r="M101" s="185"/>
+      <c r="N101" s="185"/>
+      <c r="O101" s="185"/>
+      <c r="P101" s="185"/>
+      <c r="Q101" s="185"/>
+      <c r="R101" s="185"/>
+      <c r="S101" s="185"/>
+      <c r="T101" s="185"/>
+      <c r="U101" s="185"/>
+      <c r="V101" s="185"/>
     </row>
     <row r="103" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A103" s="128" t="s">
-        <v>139</v>
-      </c>
-      <c r="B103" s="128"/>
-      <c r="C103" s="128"/>
-      <c r="D103" s="128"/>
-      <c r="E103" s="128"/>
-      <c r="F103" s="128"/>
-      <c r="G103" s="128"/>
-      <c r="H103" s="128"/>
-      <c r="I103" s="128"/>
-      <c r="J103" s="128"/>
-      <c r="K103" s="128"/>
-      <c r="L103" s="128"/>
-      <c r="M103" s="128"/>
-      <c r="N103" s="128"/>
-      <c r="O103" s="128"/>
-      <c r="P103" s="128"/>
-      <c r="Q103" s="128"/>
-      <c r="R103" s="128"/>
-      <c r="S103" s="128"/>
-      <c r="T103" s="128"/>
-      <c r="U103" s="128"/>
-      <c r="V103" s="128"/>
+      <c r="A103" s="182" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="182"/>
+      <c r="C103" s="182"/>
+      <c r="D103" s="182"/>
+      <c r="E103" s="182"/>
+      <c r="F103" s="182"/>
+      <c r="G103" s="182"/>
+      <c r="H103" s="182"/>
+      <c r="I103" s="182"/>
+      <c r="J103" s="182"/>
+      <c r="K103" s="182"/>
+      <c r="L103" s="182"/>
+      <c r="M103" s="182"/>
+      <c r="N103" s="182"/>
+      <c r="O103" s="182"/>
+      <c r="P103" s="182"/>
+      <c r="Q103" s="182"/>
+      <c r="R103" s="182"/>
+      <c r="S103" s="182"/>
+      <c r="T103" s="182"/>
+      <c r="U103" s="182"/>
+      <c r="V103" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A95:U95"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A5:U5"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A103:V103"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="A93:V93"/>
+    <mergeCell ref="A97:V97"/>
+    <mergeCell ref="A98:V98"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="A100:V100"/>
+    <mergeCell ref="A101:V101"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B87:E87"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="B56:E56"/>
@@ -6357,22 +6322,54 @@
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B50:E50"/>
-    <mergeCell ref="A103:V103"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A93:V93"/>
-    <mergeCell ref="A97:V97"/>
-    <mergeCell ref="A98:V98"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="A100:V100"/>
-    <mergeCell ref="A101:V101"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A5:U5"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A95:U95"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B70:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A98" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6385,9 +6382,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6505,19 +6505,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C7849BF-CC80-4F81-81D3-33F0F9C3ADF6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B4B56D-B698-4134-B07F-9CBE0829161F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6539,9 +6535,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B4B56D-B698-4134-B07F-9CBE0829161F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C7849BF-CC80-4F81-81D3-33F0F9C3ADF6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/backend/django_subject_manager/input/esti.xlsx
+++ b/backend/django_subject_manager/input/esti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/subject_manager/backend/django_subject_manager/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21EAD66-D790-DE42-8E57-47F58BF3A3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCFB090-B40F-6F4E-AE55-D99BAE0F4D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="1120" windowWidth="24240" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esti BSc" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="206">
   <si>
     <t>IP-18eMATAG</t>
   </si>
@@ -383,9 +383,6 @@
     <t>Full stack webprogramozás GY</t>
   </si>
   <si>
-    <t>Gyakorlati jegy</t>
-  </si>
-  <si>
     <t>Konkurrens programozás EA+GY</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>labor</t>
   </si>
   <si>
     <t>Labor</t>
@@ -742,6 +736,9 @@
   </si>
   <si>
     <t>Specializáció kötelezően választható tárgyai</t>
+  </si>
+  <si>
+    <t>Számonkérés</t>
   </si>
 </sst>
 </file>
@@ -2024,6 +2021,183 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2033,27 +2207,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2062,162 +2215,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2556,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W68" sqref="W68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2582,55 +2579,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
     </row>
     <row r="2" spans="1:21" ht="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
     </row>
     <row r="4" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
@@ -2657,7 +2654,7 @@
     </row>
     <row r="5" spans="1:21" ht="297" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="173" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" s="174"/>
       <c r="C5" s="174"/>
@@ -2727,40 +2724,40 @@
       <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="165" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
-      <c r="T8" s="166"/>
-      <c r="U8" s="167"/>
+      <c r="A8" s="168" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="169"/>
+      <c r="R8" s="169"/>
+      <c r="S8" s="169"/>
+      <c r="T8" s="169"/>
+      <c r="U8" s="170"/>
     </row>
     <row r="9" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="168" t="s">
+      <c r="B9" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="170"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="6" t="s">
         <v>61</v>
       </c>
@@ -2771,10 +2768,10 @@
         <v>58</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>56</v>
@@ -2783,7 +2780,7 @@
         <v>62</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>59</v>
@@ -2823,7 +2820,9 @@
       <c r="F10" s="27">
         <v>0</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="H10" s="27">
         <v>3</v>
       </c>
@@ -2831,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K10" s="29">
         <v>2</v>
@@ -2844,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
@@ -2852,7 +2851,7 @@
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2878,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K11" s="34">
         <v>3</v>
@@ -2891,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
@@ -2899,7 +2898,7 @@
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2925,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K12" s="34">
         <v>3</v>
@@ -2938,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
@@ -2946,19 +2945,19 @@
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="177"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="154"/>
       <c r="F13" s="32">
         <v>2</v>
       </c>
@@ -2972,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K13" s="34">
         <v>3</v>
@@ -2985,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
@@ -2993,19 +2992,19 @@
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="177"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="154"/>
       <c r="F14" s="32">
         <v>2</v>
       </c>
@@ -3033,30 +3032,32 @@
       </c>
       <c r="O14" s="34"/>
       <c r="P14" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
       <c r="U14" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="177"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="154"/>
       <c r="F15" s="32">
         <v>0</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="H15" s="32">
         <v>1</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K15" s="33">
         <v>2</v>
@@ -3080,26 +3081,26 @@
       </c>
       <c r="O15" s="34"/>
       <c r="P15" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q15" s="34"/>
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
       <c r="U15" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="160"/>
       <c r="F16" s="32">
         <v>2</v>
       </c>
@@ -3127,30 +3128,32 @@
       </c>
       <c r="O16" s="34"/>
       <c r="P16" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="34"/>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
       <c r="U16" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
       <c r="F17" s="32">
         <v>0</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="H17" s="32">
         <v>1</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K17" s="33">
         <v>2</v>
@@ -3174,26 +3177,26 @@
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
       <c r="U17" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="160"/>
       <c r="F18" s="32">
         <v>2</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K18" s="34">
         <v>2</v>
@@ -3223,26 +3226,26 @@
       </c>
       <c r="O18" s="34"/>
       <c r="P18" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="34"/>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="177"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="154"/>
       <c r="F19" s="32">
         <v>1</v>
       </c>
@@ -3256,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K19" s="34">
         <v>2</v>
@@ -3270,26 +3273,26 @@
       </c>
       <c r="O19" s="34"/>
       <c r="P19" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q19" s="34"/>
       <c r="R19" s="34"/>
       <c r="S19" s="34"/>
       <c r="T19" s="34"/>
       <c r="U19" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="134"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="160"/>
       <c r="F20" s="32">
         <v>2</v>
       </c>
@@ -3317,30 +3320,32 @@
       </c>
       <c r="O20" s="34"/>
       <c r="P20" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="S20" s="34"/>
       <c r="T20" s="34"/>
       <c r="U20" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="158" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="160"/>
       <c r="F21" s="32">
         <v>0</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="H21" s="32">
         <v>2</v>
       </c>
@@ -3348,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K21" s="33">
         <v>2</v>
@@ -3364,26 +3369,26 @@
       </c>
       <c r="O21" s="34"/>
       <c r="P21" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="34"/>
       <c r="R21" s="34"/>
       <c r="S21" s="34"/>
       <c r="T21" s="34"/>
       <c r="U21" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
       <c r="F22" s="32">
         <v>2</v>
       </c>
@@ -3410,25 +3415,25 @@
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="34"/>
       <c r="T22" s="34"/>
       <c r="U22" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="160"/>
       <c r="F23" s="32">
         <v>2</v>
       </c>
@@ -3442,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K23" s="34">
         <v>2</v>
@@ -3457,31 +3462,31 @@
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
       <c r="Q23" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
       <c r="T23" s="34"/>
       <c r="U23" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="175" t="s">
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="32">
+        <v>2</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="32">
-        <v>2</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>139</v>
-      </c>
       <c r="H24" s="32">
         <v>0</v>
       </c>
@@ -3489,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K24" s="34">
         <v>4</v>
@@ -3506,25 +3511,25 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="34"/>
       <c r="T24" s="34"/>
       <c r="U24" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="160"/>
       <c r="F25" s="32">
         <v>2</v>
       </c>
@@ -3553,29 +3558,31 @@
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
       <c r="Q25" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R25" s="34"/>
       <c r="S25" s="34"/>
       <c r="T25" s="34"/>
       <c r="U25" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="160"/>
       <c r="F26" s="32">
         <v>0</v>
       </c>
-      <c r="G26" s="33"/>
+      <c r="G26" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="H26" s="32">
         <v>1</v>
       </c>
@@ -3583,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K26" s="33">
         <v>2</v>
@@ -3600,25 +3607,25 @@
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
       <c r="U26" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="132" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
+      <c r="B27" s="158" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="160"/>
       <c r="F27" s="32">
         <v>1</v>
       </c>
@@ -3632,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K27" s="34">
         <v>1</v>
@@ -3641,7 +3648,7 @@
         <v>3</v>
       </c>
       <c r="M27" s="34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N27" s="32">
         <v>4</v>
@@ -3650,24 +3657,24 @@
       <c r="P27" s="34"/>
       <c r="Q27" s="34"/>
       <c r="R27" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
       <c r="U27" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="134"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="160"/>
       <c r="F28" s="32">
         <v>1</v>
       </c>
@@ -3681,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K28" s="34">
         <v>1</v>
@@ -3699,24 +3706,24 @@
       <c r="P28" s="34"/>
       <c r="Q28" s="34"/>
       <c r="R28" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
       <c r="U28" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="32">
         <v>2</v>
       </c>
@@ -3747,27 +3754,29 @@
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
       <c r="S29" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T29" s="34"/>
       <c r="U29" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="134"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="160"/>
       <c r="F30" s="32">
         <v>0</v>
       </c>
-      <c r="G30" s="33"/>
+      <c r="G30" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="H30" s="32">
         <v>0</v>
       </c>
@@ -3775,7 +3784,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K30" s="33">
         <v>1</v>
@@ -3794,23 +3803,23 @@
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
       <c r="S30" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T30" s="34"/>
       <c r="U30" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="142" t="s">
+      <c r="B31" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="144"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="185"/>
       <c r="F31" s="41">
         <v>2</v>
       </c>
@@ -3831,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="M31" s="44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N31" s="45">
         <v>5</v>
@@ -3841,23 +3850,23 @@
       <c r="Q31" s="46"/>
       <c r="R31" s="46"/>
       <c r="S31" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T31" s="46"/>
       <c r="U31" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="145" t="s">
+      <c r="B32" s="186" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
       <c r="F32" s="45">
         <v>2</v>
       </c>
@@ -3889,26 +3898,28 @@
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
       <c r="T32" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U32" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="131" t="s">
+      <c r="B33" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="162"/>
       <c r="F33" s="49">
         <v>0</v>
       </c>
-      <c r="G33" s="50"/>
+      <c r="G33" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="H33" s="49">
         <v>0</v>
       </c>
@@ -3916,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K33" s="50">
         <v>1</v>
@@ -3925,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="M33" s="51" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N33" s="49">
         <v>6</v>
@@ -3936,20 +3947,20 @@
       <c r="R33" s="52"/>
       <c r="S33" s="52"/>
       <c r="T33" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U33" s="53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54"/>
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="130"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="189"/>
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
       <c r="H34" s="55"/>
@@ -4217,40 +4228,40 @@
       <c r="U44" s="1"/>
     </row>
     <row r="45" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="138" t="s">
-        <v>205</v>
-      </c>
-      <c r="B45" s="139"/>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="139"/>
-      <c r="K45" s="139"/>
-      <c r="L45" s="139"/>
-      <c r="M45" s="139"/>
-      <c r="N45" s="139"/>
-      <c r="O45" s="139"/>
-      <c r="P45" s="139"/>
-      <c r="Q45" s="139"/>
-      <c r="R45" s="139"/>
-      <c r="S45" s="139"/>
-      <c r="T45" s="139"/>
-      <c r="U45" s="140"/>
+      <c r="A45" s="190" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="191"/>
+      <c r="C45" s="191"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
+      <c r="J45" s="191"/>
+      <c r="K45" s="191"/>
+      <c r="L45" s="191"/>
+      <c r="M45" s="191"/>
+      <c r="N45" s="191"/>
+      <c r="O45" s="191"/>
+      <c r="P45" s="191"/>
+      <c r="Q45" s="191"/>
+      <c r="R45" s="191"/>
+      <c r="S45" s="191"/>
+      <c r="T45" s="191"/>
+      <c r="U45" s="192"/>
     </row>
     <row r="46" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="168" t="s">
+      <c r="B46" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
-      <c r="E46" s="170"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="131"/>
       <c r="F46" s="6" t="s">
         <v>61</v>
       </c>
@@ -4261,10 +4272,10 @@
         <v>58</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>56</v>
@@ -4273,7 +4284,7 @@
         <v>62</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>59</v>
@@ -4304,12 +4315,12 @@
       <c r="A47" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="189" t="s">
+      <c r="B47" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="189"/>
-      <c r="D47" s="189"/>
-      <c r="E47" s="189"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
       <c r="F47" s="61">
         <v>2</v>
       </c>
@@ -4338,29 +4349,31 @@
       <c r="O47" s="75"/>
       <c r="P47" s="75"/>
       <c r="Q47" s="62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R47" s="75"/>
       <c r="S47" s="75"/>
       <c r="T47" s="75"/>
       <c r="U47" s="64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
       <c r="F48" s="45">
         <v>0</v>
       </c>
-      <c r="G48" s="44"/>
+      <c r="G48" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="H48" s="45">
         <v>1</v>
       </c>
@@ -4368,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K48" s="44">
         <v>1</v>
@@ -4385,25 +4398,25 @@
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
       <c r="Q48" s="44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R48" s="46"/>
       <c r="S48" s="46"/>
       <c r="T48" s="46"/>
       <c r="U48" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="135" t="s">
+      <c r="B49" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="137"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="143"/>
       <c r="F49" s="45">
         <v>1</v>
       </c>
@@ -4417,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K49" s="46">
         <v>1</v>
@@ -4434,25 +4447,25 @@
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
       <c r="Q49" s="44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R49" s="46"/>
       <c r="S49" s="46"/>
       <c r="T49" s="46"/>
       <c r="U49" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="141"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
       <c r="F50" s="45">
         <v>2</v>
       </c>
@@ -4482,28 +4495,30 @@
       <c r="P50" s="46"/>
       <c r="Q50" s="46"/>
       <c r="R50" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S50" s="46"/>
       <c r="T50" s="46"/>
       <c r="U50" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="141" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="141"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="141"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
       <c r="F51" s="45">
         <v>0</v>
       </c>
-      <c r="G51" s="44"/>
+      <c r="G51" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="H51" s="45">
         <v>1</v>
       </c>
@@ -4511,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K51" s="44">
         <v>2</v>
@@ -4529,24 +4544,24 @@
       <c r="P51" s="46"/>
       <c r="Q51" s="46"/>
       <c r="R51" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S51" s="46"/>
       <c r="T51" s="46"/>
       <c r="U51" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="135" t="s">
+      <c r="B52" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="146"/>
-      <c r="D52" s="146"/>
-      <c r="E52" s="147"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="148"/>
       <c r="F52" s="45">
         <v>2</v>
       </c>
@@ -4560,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K52" s="46">
         <v>1</v>
@@ -4578,24 +4593,24 @@
       <c r="P52" s="46"/>
       <c r="Q52" s="46"/>
       <c r="R52" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S52" s="46"/>
       <c r="T52" s="46"/>
       <c r="U52" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="141" t="s">
+      <c r="B53" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="141"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
       <c r="F53" s="45">
         <v>2</v>
       </c>
@@ -4625,28 +4640,30 @@
       <c r="P53" s="46"/>
       <c r="Q53" s="46"/>
       <c r="R53" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S53" s="46"/>
       <c r="T53" s="46"/>
       <c r="U53" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="141" t="s">
+      <c r="B54" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="141"/>
-      <c r="D54" s="141"/>
-      <c r="E54" s="141"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
       <c r="F54" s="45">
         <v>0</v>
       </c>
-      <c r="G54" s="44"/>
+      <c r="G54" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="H54" s="45">
         <v>1</v>
       </c>
@@ -4654,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K54" s="44">
         <v>1</v>
@@ -4672,28 +4689,30 @@
       <c r="P54" s="46"/>
       <c r="Q54" s="46"/>
       <c r="R54" s="44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S54" s="46"/>
       <c r="T54" s="46"/>
       <c r="U54" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="135" t="s">
+      <c r="B55" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="137"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="143"/>
       <c r="F55" s="45">
         <v>0</v>
       </c>
-      <c r="G55" s="66"/>
+      <c r="G55" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="H55" s="45">
         <v>0</v>
       </c>
@@ -4701,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K55" s="44">
         <v>1</v>
@@ -4718,29 +4737,31 @@
       <c r="O55" s="46"/>
       <c r="P55" s="46"/>
       <c r="Q55" s="44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R55" s="46"/>
       <c r="S55" s="76"/>
       <c r="T55" s="43"/>
       <c r="U55" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="135" t="s">
+      <c r="B56" s="141" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="137"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="143"/>
       <c r="F56" s="45">
         <v>0</v>
       </c>
-      <c r="G56" s="66"/>
+      <c r="G56" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="H56" s="45">
         <v>0</v>
       </c>
@@ -4748,7 +4769,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K56" s="44">
         <v>1</v>
@@ -4767,23 +4788,23 @@
       <c r="Q56" s="46"/>
       <c r="R56" s="46"/>
       <c r="S56" s="44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T56" s="43"/>
       <c r="U56" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="141" t="s">
+      <c r="B57" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
       <c r="F57" s="45">
         <v>2</v>
       </c>
@@ -4814,27 +4835,29 @@
       <c r="Q57" s="46"/>
       <c r="R57" s="46"/>
       <c r="S57" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T57" s="46"/>
       <c r="U57" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="141" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
       <c r="F58" s="45">
         <v>0</v>
       </c>
-      <c r="G58" s="44"/>
+      <c r="G58" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="H58" s="45">
         <v>1</v>
       </c>
@@ -4842,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K58" s="44">
         <v>1</v>
@@ -4861,23 +4884,23 @@
       <c r="Q58" s="46"/>
       <c r="R58" s="46"/>
       <c r="S58" s="44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T58" s="46"/>
       <c r="U58" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="146"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="147"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="148"/>
       <c r="F59" s="45">
         <v>2</v>
       </c>
@@ -4891,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K59" s="44">
         <v>0</v>
@@ -4910,23 +4933,23 @@
       <c r="Q59" s="46"/>
       <c r="R59" s="46"/>
       <c r="S59" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="T59" s="46"/>
       <c r="U59" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="131" t="s">
+      <c r="B60" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="162"/>
+      <c r="E60" s="162"/>
       <c r="F60" s="49">
         <v>2</v>
       </c>
@@ -4958,20 +4981,20 @@
       <c r="R60" s="51"/>
       <c r="S60" s="51"/>
       <c r="T60" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U60" s="53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54"/>
-      <c r="B61" s="181" t="s">
+      <c r="B61" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
-      <c r="E61" s="181"/>
+      <c r="C61" s="161"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="161"/>
       <c r="F61" s="70"/>
       <c r="G61" s="70"/>
       <c r="H61" s="70"/>
@@ -5076,40 +5099,40 @@
       <c r="U64" s="1"/>
     </row>
     <row r="65" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="178" t="s">
-        <v>206</v>
-      </c>
-      <c r="B65" s="179"/>
-      <c r="C65" s="179"/>
-      <c r="D65" s="179"/>
-      <c r="E65" s="179"/>
-      <c r="F65" s="179"/>
-      <c r="G65" s="179"/>
-      <c r="H65" s="179"/>
-      <c r="I65" s="179"/>
-      <c r="J65" s="179"/>
-      <c r="K65" s="179"/>
-      <c r="L65" s="179"/>
-      <c r="M65" s="179"/>
-      <c r="N65" s="179"/>
-      <c r="O65" s="179"/>
-      <c r="P65" s="179"/>
-      <c r="Q65" s="179"/>
-      <c r="R65" s="179"/>
-      <c r="S65" s="179"/>
-      <c r="T65" s="179"/>
-      <c r="U65" s="180"/>
+      <c r="A65" s="155" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" s="156"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
+      <c r="I65" s="156"/>
+      <c r="J65" s="156"/>
+      <c r="K65" s="156"/>
+      <c r="L65" s="156"/>
+      <c r="M65" s="156"/>
+      <c r="N65" s="156"/>
+      <c r="O65" s="156"/>
+      <c r="P65" s="156"/>
+      <c r="Q65" s="156"/>
+      <c r="R65" s="156"/>
+      <c r="S65" s="156"/>
+      <c r="T65" s="156"/>
+      <c r="U65" s="157"/>
     </row>
     <row r="66" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="168" t="s">
+      <c r="B66" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="169"/>
-      <c r="D66" s="169"/>
-      <c r="E66" s="170"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="131"/>
       <c r="F66" s="6" t="s">
         <v>61</v>
       </c>
@@ -5120,10 +5143,10 @@
         <v>58</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>56</v>
@@ -5132,7 +5155,7 @@
         <v>62</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N66" s="6" t="s">
         <v>59</v>
@@ -5163,12 +5186,12 @@
       <c r="A67" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="148" t="s">
+      <c r="B67" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="149"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="150"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="150"/>
+      <c r="E67" s="151"/>
       <c r="F67" s="61">
         <v>1</v>
       </c>
@@ -5182,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K67" s="75">
         <v>1</v>
@@ -5200,24 +5223,24 @@
       <c r="P67" s="75"/>
       <c r="Q67" s="75"/>
       <c r="R67" s="62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S67" s="75"/>
       <c r="T67" s="75"/>
       <c r="U67" s="78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="141" t="s">
+      <c r="B68" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="141"/>
-      <c r="D68" s="141"/>
-      <c r="E68" s="141"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="140"/>
       <c r="F68" s="45">
         <v>2</v>
       </c>
@@ -5238,7 +5261,7 @@
         <v>2</v>
       </c>
       <c r="M68" s="46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N68" s="45">
         <v>4</v>
@@ -5247,28 +5270,30 @@
       <c r="P68" s="66"/>
       <c r="Q68" s="66"/>
       <c r="R68" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S68" s="66"/>
       <c r="T68" s="66"/>
       <c r="U68" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="141" t="s">
+      <c r="B69" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="141"/>
-      <c r="D69" s="141"/>
-      <c r="E69" s="141"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="140"/>
       <c r="F69" s="45">
         <v>0</v>
       </c>
-      <c r="G69" s="44"/>
+      <c r="G69" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="H69" s="45">
         <v>0</v>
       </c>
@@ -5276,7 +5301,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K69" s="44">
         <v>1</v>
@@ -5294,24 +5319,24 @@
       <c r="P69" s="66"/>
       <c r="Q69" s="66"/>
       <c r="R69" s="44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S69" s="66"/>
       <c r="T69" s="66"/>
       <c r="U69" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="141" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="141"/>
-      <c r="D70" s="141"/>
-      <c r="E70" s="141"/>
+      <c r="C70" s="140"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="140"/>
       <c r="F70" s="45">
         <v>2</v>
       </c>
@@ -5338,25 +5363,25 @@
       <c r="O70" s="66"/>
       <c r="P70" s="66"/>
       <c r="Q70" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R70" s="44"/>
       <c r="S70" s="66"/>
       <c r="T70" s="66"/>
       <c r="U70" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="141" t="s">
+      <c r="B71" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="C71" s="141"/>
-      <c r="D71" s="141"/>
-      <c r="E71" s="141"/>
+      <c r="C71" s="140"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="140"/>
       <c r="F71" s="45">
         <v>1</v>
       </c>
@@ -5370,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K71" s="46">
         <v>2</v>
@@ -5389,27 +5414,29 @@
       <c r="Q71" s="69"/>
       <c r="R71" s="69"/>
       <c r="S71" s="65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T71" s="69"/>
       <c r="U71" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="141" t="s">
+      <c r="B72" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="141"/>
-      <c r="D72" s="141"/>
-      <c r="E72" s="141"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140"/>
       <c r="F72" s="45">
         <v>0</v>
       </c>
-      <c r="G72" s="46"/>
+      <c r="G72" s="46" t="s">
+        <v>71</v>
+      </c>
       <c r="H72" s="45">
         <v>0</v>
       </c>
@@ -5417,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="J72" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K72" s="44">
         <v>2</v>
@@ -5426,7 +5453,7 @@
         <v>4</v>
       </c>
       <c r="M72" s="46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N72" s="45">
         <v>6</v>
@@ -5437,22 +5464,22 @@
       <c r="R72" s="69"/>
       <c r="S72" s="69"/>
       <c r="T72" s="65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U72" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B73" s="135" t="s">
-        <v>167</v>
-      </c>
-      <c r="C73" s="136"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="137"/>
+        <v>164</v>
+      </c>
+      <c r="B73" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="142"/>
+      <c r="D73" s="142"/>
+      <c r="E73" s="143"/>
       <c r="F73" s="49">
         <v>2</v>
       </c>
@@ -5476,38 +5503,40 @@
         <v>0</v>
       </c>
       <c r="N73" s="80" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O73" s="81"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="51"/>
       <c r="R73" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S73" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T73" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U73" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B74" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="136"/>
-      <c r="D74" s="136"/>
-      <c r="E74" s="137"/>
+      <c r="B74" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="142"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="143"/>
       <c r="F74" s="49">
         <v>0</v>
       </c>
-      <c r="G74" s="51"/>
+      <c r="G74" s="51" t="s">
+        <v>71</v>
+      </c>
       <c r="H74" s="49">
         <v>0</v>
       </c>
@@ -5522,41 +5551,43 @@
         <v>3</v>
       </c>
       <c r="M74" s="34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N74" s="80" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O74" s="81"/>
       <c r="P74" s="81"/>
       <c r="Q74" s="51"/>
       <c r="R74" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S74" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T74" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U74" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="135" t="s">
         <v>170</v>
       </c>
-      <c r="C75" s="136"/>
-      <c r="D75" s="136"/>
-      <c r="E75" s="137"/>
+      <c r="B75" s="141" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="142"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="143"/>
       <c r="F75" s="49">
         <v>2</v>
       </c>
-      <c r="G75" s="51"/>
+      <c r="G75" s="51" t="s">
+        <v>71</v>
+      </c>
       <c r="H75" s="49">
         <v>0</v>
       </c>
@@ -5564,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="J75" s="50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K75" s="50">
         <v>1</v>
@@ -5573,35 +5604,35 @@
         <v>5</v>
       </c>
       <c r="M75" s="82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N75" s="80" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O75" s="81"/>
       <c r="P75" s="81"/>
       <c r="Q75" s="51"/>
       <c r="R75" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S75" s="51"/>
       <c r="T75" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U75" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="135" t="s">
-        <v>174</v>
-      </c>
-      <c r="C76" s="136"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="137"/>
+        <v>171</v>
+      </c>
+      <c r="B76" s="141" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="142"/>
+      <c r="D76" s="142"/>
+      <c r="E76" s="143"/>
       <c r="F76" s="49">
         <v>2</v>
       </c>
@@ -5622,37 +5653,39 @@
         <v>2</v>
       </c>
       <c r="M76" s="82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N76" s="80" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O76" s="81"/>
       <c r="P76" s="81"/>
       <c r="Q76" s="51"/>
       <c r="R76" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S76" s="51"/>
       <c r="T76" s="48"/>
       <c r="U76" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B77" s="135" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77" s="136"/>
-      <c r="D77" s="136"/>
-      <c r="E77" s="137"/>
+        <v>175</v>
+      </c>
+      <c r="B77" s="141" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="142"/>
+      <c r="D77" s="142"/>
+      <c r="E77" s="143"/>
       <c r="F77" s="49">
         <v>0</v>
       </c>
-      <c r="G77" s="51"/>
+      <c r="G77" s="51" t="s">
+        <v>71</v>
+      </c>
       <c r="H77" s="49">
         <v>2</v>
       </c>
@@ -5660,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K77" s="50">
         <v>1</v>
@@ -5676,24 +5709,24 @@
       <c r="P77" s="81"/>
       <c r="Q77" s="81"/>
       <c r="R77" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S77" s="81"/>
       <c r="T77" s="48"/>
       <c r="U77" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B78" s="186" t="s">
         <v>134</v>
       </c>
-      <c r="C78" s="187"/>
-      <c r="D78" s="187"/>
-      <c r="E78" s="188"/>
+      <c r="B78" s="136" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="137"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="138"/>
       <c r="F78" s="49">
         <v>2</v>
       </c>
@@ -5717,34 +5750,34 @@
         <v>7</v>
       </c>
       <c r="N78" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O78" s="81"/>
       <c r="P78" s="81"/>
       <c r="Q78" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="R78" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S78" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T78" s="48"/>
       <c r="U78" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="85" t="s">
-        <v>197</v>
-      </c>
-      <c r="B79" s="157" t="s">
-        <v>198</v>
-      </c>
-      <c r="C79" s="158"/>
-      <c r="D79" s="158"/>
-      <c r="E79" s="159"/>
+        <v>195</v>
+      </c>
+      <c r="B79" s="180" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="181"/>
+      <c r="D79" s="181"/>
+      <c r="E79" s="182"/>
       <c r="F79" s="86">
         <v>2</v>
       </c>
@@ -5766,30 +5799,30 @@
       </c>
       <c r="M79" s="89"/>
       <c r="N79" s="90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O79" s="91"/>
       <c r="P79" s="91"/>
       <c r="Q79" s="87" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R79" s="87"/>
       <c r="S79" s="87" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T79" s="92"/>
       <c r="U79" s="93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="94"/>
-      <c r="B80" s="155" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" s="155"/>
-      <c r="D80" s="155"/>
-      <c r="E80" s="155"/>
+      <c r="B80" s="178" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="178"/>
+      <c r="D80" s="178"/>
+      <c r="E80" s="178"/>
       <c r="F80" s="95"/>
       <c r="G80" s="96"/>
       <c r="H80" s="95"/>
@@ -5815,12 +5848,12 @@
     </row>
     <row r="81" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="40"/>
-      <c r="B81" s="156" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" s="156"/>
-      <c r="D81" s="156"/>
-      <c r="E81" s="156"/>
+      <c r="B81" s="179" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="179"/>
+      <c r="D81" s="179"/>
+      <c r="E81" s="179"/>
       <c r="F81" s="45"/>
       <c r="G81" s="46"/>
       <c r="H81" s="45"/>
@@ -5846,12 +5879,12 @@
     </row>
     <row r="82" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="94"/>
-      <c r="B82" s="153" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" s="153"/>
-      <c r="D82" s="153"/>
-      <c r="E82" s="153"/>
+      <c r="B82" s="176" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="176"/>
+      <c r="D82" s="176"/>
+      <c r="E82" s="176"/>
       <c r="F82" s="107"/>
       <c r="G82" s="107"/>
       <c r="H82" s="107"/>
@@ -5881,12 +5914,12 @@
     </row>
     <row r="83" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="94"/>
-      <c r="B83" s="153" t="s">
-        <v>199</v>
-      </c>
-      <c r="C83" s="153"/>
-      <c r="D83" s="153"/>
-      <c r="E83" s="153"/>
+      <c r="B83" s="176" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="176"/>
+      <c r="D83" s="176"/>
+      <c r="E83" s="176"/>
       <c r="F83" s="107"/>
       <c r="G83" s="107"/>
       <c r="H83" s="107"/>
@@ -5905,19 +5938,19 @@
       <c r="Q83" s="109"/>
       <c r="R83" s="108"/>
       <c r="S83" s="111" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T83" s="108"/>
       <c r="U83" s="110"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="112"/>
-      <c r="B84" s="153" t="s">
+      <c r="B84" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="153"/>
-      <c r="D84" s="153"/>
-      <c r="E84" s="153"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="176"/>
       <c r="F84" s="113"/>
       <c r="G84" s="113"/>
       <c r="H84" s="113"/>
@@ -5949,12 +5982,12 @@
       <c r="A85" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="154" t="s">
-        <v>127</v>
-      </c>
-      <c r="C85" s="154"/>
-      <c r="D85" s="154"/>
-      <c r="E85" s="154"/>
+      <c r="B85" s="177" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="177"/>
+      <c r="D85" s="177"/>
+      <c r="E85" s="177"/>
       <c r="F85" s="117"/>
       <c r="G85" s="117"/>
       <c r="H85" s="117"/>
@@ -5978,12 +6011,12 @@
     </row>
     <row r="86" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="120"/>
-      <c r="B86" s="154" t="s">
+      <c r="B86" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="154"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
+      <c r="C86" s="177"/>
+      <c r="D86" s="177"/>
+      <c r="E86" s="177"/>
       <c r="F86" s="117"/>
       <c r="G86" s="117"/>
       <c r="H86" s="117"/>
@@ -6021,12 +6054,12 @@
     </row>
     <row r="87" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="122"/>
-      <c r="B87" s="190" t="s">
+      <c r="B87" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="C87" s="191"/>
-      <c r="D87" s="191"/>
-      <c r="E87" s="192"/>
+      <c r="C87" s="145"/>
+      <c r="D87" s="145"/>
+      <c r="E87" s="146"/>
       <c r="F87" s="123"/>
       <c r="G87" s="123"/>
       <c r="H87" s="123"/>
@@ -6049,62 +6082,62 @@
     </row>
     <row r="89" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B89" s="152" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="152"/>
-      <c r="D89" s="152"/>
-      <c r="E89" s="152"/>
+        <v>186</v>
+      </c>
+      <c r="B89" s="175" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="175"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
     </row>
     <row r="90" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B90" s="152" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" s="152"/>
-      <c r="D90" s="152"/>
-      <c r="E90" s="152"/>
+        <v>187</v>
+      </c>
+      <c r="B90" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" s="175"/>
+      <c r="D90" s="175"/>
+      <c r="E90" s="175"/>
     </row>
     <row r="91" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B91" s="152" t="s">
-        <v>120</v>
-      </c>
-      <c r="C91" s="152"/>
-      <c r="D91" s="152"/>
-      <c r="E91" s="152"/>
+        <v>188</v>
+      </c>
+      <c r="B91" s="175" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" s="175"/>
+      <c r="D91" s="175"/>
+      <c r="E91" s="175"/>
     </row>
     <row r="93" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A93" s="151" t="s">
-        <v>122</v>
-      </c>
-      <c r="B93" s="151"/>
-      <c r="C93" s="151"/>
-      <c r="D93" s="151"/>
-      <c r="E93" s="151"/>
-      <c r="F93" s="151"/>
-      <c r="G93" s="151"/>
-      <c r="H93" s="151"/>
-      <c r="I93" s="151"/>
-      <c r="J93" s="151"/>
-      <c r="K93" s="151"/>
-      <c r="L93" s="151"/>
-      <c r="M93" s="151"/>
-      <c r="N93" s="151"/>
-      <c r="O93" s="151"/>
-      <c r="P93" s="151"/>
-      <c r="Q93" s="151"/>
-      <c r="R93" s="151"/>
-      <c r="S93" s="151"/>
-      <c r="T93" s="151"/>
-      <c r="U93" s="151"/>
-      <c r="V93" s="151"/>
+      <c r="A93" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="132"/>
+      <c r="C93" s="132"/>
+      <c r="D93" s="132"/>
+      <c r="E93" s="132"/>
+      <c r="F93" s="132"/>
+      <c r="G93" s="132"/>
+      <c r="H93" s="132"/>
+      <c r="I93" s="132"/>
+      <c r="J93" s="132"/>
+      <c r="K93" s="132"/>
+      <c r="L93" s="132"/>
+      <c r="M93" s="132"/>
+      <c r="N93" s="132"/>
+      <c r="O93" s="132"/>
+      <c r="P93" s="132"/>
+      <c r="Q93" s="132"/>
+      <c r="R93" s="132"/>
+      <c r="S93" s="132"/>
+      <c r="T93" s="132"/>
+      <c r="U93" s="132"/>
+      <c r="V93" s="132"/>
     </row>
     <row r="94" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A94" s="16"/>
@@ -6131,165 +6164,229 @@
       <c r="V94" s="16"/>
     </row>
     <row r="95" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A95" s="151" t="s">
-        <v>179</v>
-      </c>
-      <c r="B95" s="151"/>
-      <c r="C95" s="151"/>
-      <c r="D95" s="151"/>
-      <c r="E95" s="151"/>
-      <c r="F95" s="151"/>
-      <c r="G95" s="151"/>
-      <c r="H95" s="151"/>
-      <c r="I95" s="151"/>
-      <c r="J95" s="151"/>
-      <c r="K95" s="151"/>
-      <c r="L95" s="151"/>
-      <c r="M95" s="151"/>
-      <c r="N95" s="151"/>
-      <c r="O95" s="151"/>
-      <c r="P95" s="151"/>
-      <c r="Q95" s="151"/>
-      <c r="R95" s="151"/>
-      <c r="S95" s="151"/>
-      <c r="T95" s="151"/>
-      <c r="U95" s="151"/>
+      <c r="A95" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="B95" s="132"/>
+      <c r="C95" s="132"/>
+      <c r="D95" s="132"/>
+      <c r="E95" s="132"/>
+      <c r="F95" s="132"/>
+      <c r="G95" s="132"/>
+      <c r="H95" s="132"/>
+      <c r="I95" s="132"/>
+      <c r="J95" s="132"/>
+      <c r="K95" s="132"/>
+      <c r="L95" s="132"/>
+      <c r="M95" s="132"/>
+      <c r="N95" s="132"/>
+      <c r="O95" s="132"/>
+      <c r="P95" s="132"/>
+      <c r="Q95" s="132"/>
+      <c r="R95" s="132"/>
+      <c r="S95" s="132"/>
+      <c r="T95" s="132"/>
+      <c r="U95" s="132"/>
       <c r="V95" s="16"/>
     </row>
     <row r="96" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="183" t="s">
+      <c r="A97" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="133"/>
+      <c r="C97" s="133"/>
+      <c r="D97" s="133"/>
+      <c r="E97" s="133"/>
+      <c r="F97" s="133"/>
+      <c r="G97" s="133"/>
+      <c r="H97" s="133"/>
+      <c r="I97" s="133"/>
+      <c r="J97" s="133"/>
+      <c r="K97" s="133"/>
+      <c r="L97" s="133"/>
+      <c r="M97" s="133"/>
+      <c r="N97" s="133"/>
+      <c r="O97" s="133"/>
+      <c r="P97" s="133"/>
+      <c r="Q97" s="133"/>
+      <c r="R97" s="133"/>
+      <c r="S97" s="133"/>
+      <c r="T97" s="133"/>
+      <c r="U97" s="133"/>
+      <c r="V97" s="133"/>
+    </row>
+    <row r="98" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="B97" s="183"/>
-      <c r="C97" s="183"/>
-      <c r="D97" s="183"/>
-      <c r="E97" s="183"/>
-      <c r="F97" s="183"/>
-      <c r="G97" s="183"/>
-      <c r="H97" s="183"/>
-      <c r="I97" s="183"/>
-      <c r="J97" s="183"/>
-      <c r="K97" s="183"/>
-      <c r="L97" s="183"/>
-      <c r="M97" s="183"/>
-      <c r="N97" s="183"/>
-      <c r="O97" s="183"/>
-      <c r="P97" s="183"/>
-      <c r="Q97" s="183"/>
-      <c r="R97" s="183"/>
-      <c r="S97" s="183"/>
-      <c r="T97" s="183"/>
-      <c r="U97" s="183"/>
-      <c r="V97" s="183"/>
-    </row>
-    <row r="98" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="184" t="s">
-        <v>124</v>
-      </c>
-      <c r="B98" s="185"/>
-      <c r="C98" s="185"/>
-      <c r="D98" s="185"/>
-      <c r="E98" s="185"/>
-      <c r="F98" s="185"/>
-      <c r="G98" s="185"/>
-      <c r="H98" s="185"/>
-      <c r="I98" s="185"/>
-      <c r="J98" s="185"/>
-      <c r="K98" s="185"/>
-      <c r="L98" s="185"/>
-      <c r="M98" s="185"/>
-      <c r="N98" s="185"/>
-      <c r="O98" s="185"/>
-      <c r="P98" s="185"/>
-      <c r="Q98" s="185"/>
-      <c r="R98" s="185"/>
-      <c r="S98" s="185"/>
-      <c r="T98" s="185"/>
-      <c r="U98" s="185"/>
-      <c r="V98" s="185"/>
+      <c r="B98" s="135"/>
+      <c r="C98" s="135"/>
+      <c r="D98" s="135"/>
+      <c r="E98" s="135"/>
+      <c r="F98" s="135"/>
+      <c r="G98" s="135"/>
+      <c r="H98" s="135"/>
+      <c r="I98" s="135"/>
+      <c r="J98" s="135"/>
+      <c r="K98" s="135"/>
+      <c r="L98" s="135"/>
+      <c r="M98" s="135"/>
+      <c r="N98" s="135"/>
+      <c r="O98" s="135"/>
+      <c r="P98" s="135"/>
+      <c r="Q98" s="135"/>
+      <c r="R98" s="135"/>
+      <c r="S98" s="135"/>
+      <c r="T98" s="135"/>
+      <c r="U98" s="135"/>
+      <c r="V98" s="135"/>
     </row>
     <row r="99" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="182" t="s">
+      <c r="A100" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="128"/>
+      <c r="C100" s="128"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="128"/>
+      <c r="H100" s="128"/>
+      <c r="I100" s="128"/>
+      <c r="J100" s="128"/>
+      <c r="K100" s="128"/>
+      <c r="L100" s="128"/>
+      <c r="M100" s="128"/>
+      <c r="N100" s="128"/>
+      <c r="O100" s="128"/>
+      <c r="P100" s="128"/>
+      <c r="Q100" s="128"/>
+      <c r="R100" s="128"/>
+      <c r="S100" s="128"/>
+      <c r="T100" s="128"/>
+      <c r="U100" s="128"/>
+      <c r="V100" s="128"/>
+    </row>
+    <row r="101" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="B100" s="182"/>
-      <c r="C100" s="182"/>
-      <c r="D100" s="182"/>
-      <c r="E100" s="182"/>
-      <c r="F100" s="182"/>
-      <c r="G100" s="182"/>
-      <c r="H100" s="182"/>
-      <c r="I100" s="182"/>
-      <c r="J100" s="182"/>
-      <c r="K100" s="182"/>
-      <c r="L100" s="182"/>
-      <c r="M100" s="182"/>
-      <c r="N100" s="182"/>
-      <c r="O100" s="182"/>
-      <c r="P100" s="182"/>
-      <c r="Q100" s="182"/>
-      <c r="R100" s="182"/>
-      <c r="S100" s="182"/>
-      <c r="T100" s="182"/>
-      <c r="U100" s="182"/>
-      <c r="V100" s="182"/>
-    </row>
-    <row r="101" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="184" t="s">
-        <v>126</v>
-      </c>
-      <c r="B101" s="185"/>
-      <c r="C101" s="185"/>
-      <c r="D101" s="185"/>
-      <c r="E101" s="185"/>
-      <c r="F101" s="185"/>
-      <c r="G101" s="185"/>
-      <c r="H101" s="185"/>
-      <c r="I101" s="185"/>
-      <c r="J101" s="185"/>
-      <c r="K101" s="185"/>
-      <c r="L101" s="185"/>
-      <c r="M101" s="185"/>
-      <c r="N101" s="185"/>
-      <c r="O101" s="185"/>
-      <c r="P101" s="185"/>
-      <c r="Q101" s="185"/>
-      <c r="R101" s="185"/>
-      <c r="S101" s="185"/>
-      <c r="T101" s="185"/>
-      <c r="U101" s="185"/>
-      <c r="V101" s="185"/>
+      <c r="B101" s="135"/>
+      <c r="C101" s="135"/>
+      <c r="D101" s="135"/>
+      <c r="E101" s="135"/>
+      <c r="F101" s="135"/>
+      <c r="G101" s="135"/>
+      <c r="H101" s="135"/>
+      <c r="I101" s="135"/>
+      <c r="J101" s="135"/>
+      <c r="K101" s="135"/>
+      <c r="L101" s="135"/>
+      <c r="M101" s="135"/>
+      <c r="N101" s="135"/>
+      <c r="O101" s="135"/>
+      <c r="P101" s="135"/>
+      <c r="Q101" s="135"/>
+      <c r="R101" s="135"/>
+      <c r="S101" s="135"/>
+      <c r="T101" s="135"/>
+      <c r="U101" s="135"/>
+      <c r="V101" s="135"/>
     </row>
     <row r="103" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A103" s="182" t="s">
-        <v>136</v>
-      </c>
-      <c r="B103" s="182"/>
-      <c r="C103" s="182"/>
-      <c r="D103" s="182"/>
-      <c r="E103" s="182"/>
-      <c r="F103" s="182"/>
-      <c r="G103" s="182"/>
-      <c r="H103" s="182"/>
-      <c r="I103" s="182"/>
-      <c r="J103" s="182"/>
-      <c r="K103" s="182"/>
-      <c r="L103" s="182"/>
-      <c r="M103" s="182"/>
-      <c r="N103" s="182"/>
-      <c r="O103" s="182"/>
-      <c r="P103" s="182"/>
-      <c r="Q103" s="182"/>
-      <c r="R103" s="182"/>
-      <c r="S103" s="182"/>
-      <c r="T103" s="182"/>
-      <c r="U103" s="182"/>
-      <c r="V103" s="182"/>
+      <c r="A103" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" s="128"/>
+      <c r="C103" s="128"/>
+      <c r="D103" s="128"/>
+      <c r="E103" s="128"/>
+      <c r="F103" s="128"/>
+      <c r="G103" s="128"/>
+      <c r="H103" s="128"/>
+      <c r="I103" s="128"/>
+      <c r="J103" s="128"/>
+      <c r="K103" s="128"/>
+      <c r="L103" s="128"/>
+      <c r="M103" s="128"/>
+      <c r="N103" s="128"/>
+      <c r="O103" s="128"/>
+      <c r="P103" s="128"/>
+      <c r="Q103" s="128"/>
+      <c r="R103" s="128"/>
+      <c r="S103" s="128"/>
+      <c r="T103" s="128"/>
+      <c r="U103" s="128"/>
+      <c r="V103" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A95:U95"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A5:U5"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="A65:U65"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B70:E70"/>
     <mergeCell ref="A103:V103"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B66:E66"/>
@@ -6306,70 +6403,6 @@
     <mergeCell ref="B57:E57"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="A65:U65"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A5:U5"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="A95:U95"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B70:E70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A98" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6382,26 +6415,92 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="0" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="105f5595a234019decd898e650ffc1cd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7af5af6639fca6992108c272a16dc73">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x010100CA947E63DBB18C43B0DCD636FEFAAF82" ma:contentTypeVersion="10" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="add355b8eb8a1d07a5c296ebc5fa18c4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf3a53-275c-4001-b611-e41331286eb1" xmlns:ns3="64cee142-9623-4b63-8ea8-1d4facd6545a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="39c3d52e67d593269f3de29aa75e9200" ns2:_="" ns3:_="">
+    <xsd:import namespace="0bdf3a53-275c-4001-b611-e41331286eb1"/>
+    <xsd:import namespace="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all/>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0bdf3a53-275c-4001-b611-e41331286eb1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Képcímkék" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="34308edd-cbe0-477a-9645-3c56fd718a83" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="64cee142-9623-4b63-8ea8-1d4facd6545a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{f1ba0df1-07b1-4dfb-b07f-236e884041b3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="64cee142-9623-4b63-8ea8-1d4facd6545a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
@@ -6504,32 +6603,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bdf3a53-275c-4001-b611-e41331286eb1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B4B56D-B698-4134-B07F-9CBE0829161F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D02EB09-B576-4E2D-A818-A93F2A4A2935}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
+    <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3707D6F5-40E8-49EC-A3DB-5BB0E6B2DA60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B4B56D-B698-4134-B07F-9CBE0829161F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6539,6 +6655,8 @@
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="64cee142-9623-4b63-8ea8-1d4facd6545a"/>
+    <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/backend/django_subject_manager/input/esti.xlsx
+++ b/backend/django_subject_manager/input/esti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathearnoldattila/Arnold/egyetem/6felev/subject_manager/backend/django_subject_manager/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCFB090-B40F-6F4E-AE55-D99BAE0F4D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96E68D4-F733-D847-B583-16F06B5338D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24240" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esti BSc" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="193">
   <si>
     <t>IP-18eMATAG</t>
   </si>
@@ -107,9 +107,6 @@
     <t>IP-18eAB1E</t>
   </si>
   <si>
-    <t>P-18eAA1E</t>
-  </si>
-  <si>
     <t>IP-18eSZÁMEA1E</t>
   </si>
   <si>
@@ -119,90 +116,33 @@
     <t>IP-18eDM1G</t>
   </si>
   <si>
-    <t>Diszkrét matematika I. EA</t>
-  </si>
-  <si>
     <t>IP-18eAN1G</t>
   </si>
   <si>
-    <t>Analízis I. EA</t>
-  </si>
-  <si>
-    <t>Analízis I. GY</t>
-  </si>
-  <si>
     <t xml:space="preserve"> IP-18eAN2G</t>
   </si>
   <si>
-    <t>Analízis II. EA (szoftverfejlesztő)</t>
-  </si>
-  <si>
-    <t>Numerikus módszerek EA</t>
-  </si>
-  <si>
-    <t>Numerikus módszerek GY</t>
-  </si>
-  <si>
-    <t>Adatbázisok I. GY</t>
-  </si>
-  <si>
-    <t>Adatbázisok I. EA</t>
-  </si>
-  <si>
     <t>IP-18eAB1G</t>
   </si>
   <si>
-    <t>Szoftvertechnológia EA F</t>
-  </si>
-  <si>
     <t>IP-18eAA1G</t>
   </si>
   <si>
-    <t>Algoritmusok és adatszerkezetek I. EA</t>
-  </si>
-  <si>
     <t>IP-18eAA2G</t>
   </si>
   <si>
-    <t>Algoritmusok és adatszerkezetek II. EA</t>
-  </si>
-  <si>
     <t>IP-08eSZÁMEA1G</t>
   </si>
   <si>
-    <t>IP-08eSZÁMEA2G</t>
-  </si>
-  <si>
     <t>IP-18eSZÁMEA2E</t>
   </si>
   <si>
-    <t>A számításelmélet alapjai I. EA</t>
-  </si>
-  <si>
-    <t>A számításelmélet alapjai II. EA</t>
-  </si>
-  <si>
-    <t>A számításelmélet alapjai II. GY</t>
-  </si>
-  <si>
-    <t>Mesterséges intelligencia EA</t>
-  </si>
-  <si>
-    <t>Kriptográfia és biztonság EA</t>
-  </si>
-  <si>
-    <t>Kriptográfia és biztonság GY</t>
-  </si>
-  <si>
     <t>IP-18eKRBG</t>
   </si>
   <si>
     <t>IP-18eKRBE</t>
   </si>
   <si>
-    <t>Bevezetés a gép tanulásba EA</t>
-  </si>
-  <si>
     <t>Konzultáció</t>
   </si>
   <si>
@@ -281,21 +221,12 @@
     <t>IP-18eDM1G (Gyenge)</t>
   </si>
   <si>
-    <t>Diszkrét matematika I. Gy</t>
-  </si>
-  <si>
     <t>IP-18eAN1G (Gyenge)</t>
   </si>
   <si>
     <t>IP-18eAA1G (Gyenge)</t>
   </si>
   <si>
-    <t>Algoritmusok és adatszerkezetek I. Gy</t>
-  </si>
-  <si>
-    <t>P-18eAA2G (Gyenge)</t>
-  </si>
-  <si>
     <t>IP-18eAB1G (Gyenge)</t>
   </si>
   <si>
@@ -305,87 +236,15 @@
     <t>IP-18eAN2G (Gyenge)</t>
   </si>
   <si>
-    <t>IP-08eNM1G (Gyenge)</t>
-  </si>
-  <si>
     <t>Szabadon választható tárgyak ütemezése kreditértékkel</t>
   </si>
   <si>
-    <t>A számításelmélet alapjai I. GY</t>
-  </si>
-  <si>
     <t>IP-18ESZDPIBE</t>
   </si>
   <si>
     <t>Tanegység</t>
   </si>
   <si>
-    <t>Matematikai alapok GY</t>
-  </si>
-  <si>
-    <t>Számítógépes rendszerek EA+GY</t>
-  </si>
-  <si>
-    <t>Programozás EA+Gy</t>
-  </si>
-  <si>
-    <t>Imperatív programozás EA+GY</t>
-  </si>
-  <si>
-    <t>Objektumelvű programozás EA+GY</t>
-  </si>
-  <si>
-    <t>Web-fejlesztés EA+GY</t>
-  </si>
-  <si>
-    <t>Közgazdasági és jogi ismeretek EA</t>
-  </si>
-  <si>
-    <t>Funkcionális programozás EA+GY</t>
-  </si>
-  <si>
-    <t>Operációs rendszerek EA+GY</t>
-  </si>
-  <si>
-    <t>Telekommunikációs hálózatok EA</t>
-  </si>
-  <si>
-    <t>Algoritmusok és adatszerkezetek II. GY</t>
-  </si>
-  <si>
-    <t>Telekommunikációs hálózatok GY</t>
-  </si>
-  <si>
-    <t>Analízis II. GY (szoftverfejlesztő)</t>
-  </si>
-  <si>
-    <t>Webprogramozás EA+GY</t>
-  </si>
-  <si>
-    <t>Programozási technológia EA+GY</t>
-  </si>
-  <si>
-    <t>Adatbázisok II. EA</t>
-  </si>
-  <si>
-    <t>Valószínűségszámítás és statisztika GY</t>
-  </si>
-  <si>
-    <t>Diszkrét modellek alkalmazásai GY</t>
-  </si>
-  <si>
-    <t>Kliensoldali webprogramozás EA+GY</t>
-  </si>
-  <si>
-    <t>Szerveroldali webprogramozás EA+GY</t>
-  </si>
-  <si>
-    <t>Full stack webprogramozás GY</t>
-  </si>
-  <si>
-    <t>Konkurrens programozás EA+GY</t>
-  </si>
-  <si>
     <t>Informatika</t>
   </si>
   <si>
@@ -446,9 +305,6 @@
     <t>IP-18ePNYEG</t>
   </si>
   <si>
-    <t>Programozási nyelvek EA+GY</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -612,12 +468,6 @@
   </si>
   <si>
     <t>IP-18eAA2E (Gyenge)</t>
-  </si>
-  <si>
-    <t>IP-18ePNY1EG vagy IP-18eOEPROGEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP-18ePNY2EG </t>
   </si>
   <si>
     <t>IP-18KVIADSE</t>
@@ -739,6 +589,117 @@
   </si>
   <si>
     <t>Számonkérés</t>
+  </si>
+  <si>
+    <t>Matematikai alapok</t>
+  </si>
+  <si>
+    <t>Számítógépes rendszerek</t>
+  </si>
+  <si>
+    <t>Programozás</t>
+  </si>
+  <si>
+    <t>Imperatív programozás</t>
+  </si>
+  <si>
+    <t>Diszkrét matematika I.</t>
+  </si>
+  <si>
+    <t>Analízis I.</t>
+  </si>
+  <si>
+    <t>Objektumelvű programozás</t>
+  </si>
+  <si>
+    <t>Web-fejlesztés</t>
+  </si>
+  <si>
+    <t>Algoritmusok és adatszerkezetek I.</t>
+  </si>
+  <si>
+    <t>Közgazdasági és jogi ismeretek</t>
+  </si>
+  <si>
+    <t>Funkcionális programozás</t>
+  </si>
+  <si>
+    <t>Programozási nyelvek</t>
+  </si>
+  <si>
+    <t>Algoritmusok és adatszerkezetek II.</t>
+  </si>
+  <si>
+    <t>Konkurrens programozás</t>
+  </si>
+  <si>
+    <t>Operációs rendszerek</t>
+  </si>
+  <si>
+    <t>Adatbázisok I.</t>
+  </si>
+  <si>
+    <t>Mesterséges intelligencia</t>
+  </si>
+  <si>
+    <t>Telekommunikációs hálózatok</t>
+  </si>
+  <si>
+    <t>Analízis II. (szoftverfejlesztő)</t>
+  </si>
+  <si>
+    <t>Webprogramozás</t>
+  </si>
+  <si>
+    <t>Numerikus módszerek</t>
+  </si>
+  <si>
+    <t>Programozási technológia</t>
+  </si>
+  <si>
+    <t>A számításelmélet alapjai I.</t>
+  </si>
+  <si>
+    <t>Diszkrét modellek alkalmazásai</t>
+  </si>
+  <si>
+    <t>Valószínűségszámítás és statisztika</t>
+  </si>
+  <si>
+    <t>A számításelmélet alapjai II.</t>
+  </si>
+  <si>
+    <t>Szoftvertechnológia F</t>
+  </si>
+  <si>
+    <t>Adatbázisok II.</t>
+  </si>
+  <si>
+    <t>Kliensoldali webprogramozás</t>
+  </si>
+  <si>
+    <t>Kriptográfia és biztonság</t>
+  </si>
+  <si>
+    <t>Bevezetés a gép tanulásba</t>
+  </si>
+  <si>
+    <t>Szerveroldali webprogramozás</t>
+  </si>
+  <si>
+    <t>Full stack webprogramozás</t>
+  </si>
+  <si>
+    <t>IP-18eAA2G (Gyenge)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP-18ePNYEG </t>
+  </si>
+  <si>
+    <t>IP-18ePNYEG, IP-18eOEPROGEG</t>
+  </si>
+  <si>
+    <t>IP-18eNM1G (Gyenge)</t>
   </si>
 </sst>
 </file>
@@ -2021,21 +1982,171 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2057,18 +2168,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2077,144 +2176,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2553,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W68" sqref="W68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="116" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2579,55 +2540,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
+      <c r="A1" s="156" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
     </row>
     <row r="2" spans="1:21" ht="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="166" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
+      <c r="A3" s="158" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
     </row>
     <row r="4" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
@@ -2653,29 +2614,29 @@
       <c r="U4" s="18"/>
     </row>
     <row r="5" spans="1:21" ht="297" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="173" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
-      <c r="M5" s="174"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="174"/>
-      <c r="S5" s="174"/>
-      <c r="T5" s="174"/>
-      <c r="U5" s="174"/>
+      <c r="A5" s="168" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
     </row>
     <row r="6" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
@@ -2724,104 +2685,104 @@
       <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="168" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
-      <c r="R8" s="169"/>
-      <c r="S8" s="169"/>
-      <c r="T8" s="169"/>
-      <c r="U8" s="170"/>
+      <c r="A8" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="161"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="161"/>
+      <c r="U8" s="162"/>
     </row>
     <row r="9" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="131"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="165"/>
       <c r="F9" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
+      <c r="B10" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="27">
         <v>0</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H10" s="27">
         <v>3</v>
@@ -2830,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K10" s="29">
         <v>2</v>
@@ -2843,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
@@ -2851,24 +2812,24 @@
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="30" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="172" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
+      <c r="B11" s="167" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
       <c r="F11" s="32">
         <v>1</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H11" s="32">
         <v>0</v>
@@ -2877,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K11" s="34">
         <v>3</v>
@@ -2890,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
@@ -2898,24 +2859,24 @@
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="172" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
+      <c r="B12" s="167" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
       <c r="F12" s="32">
         <v>2</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H12" s="32">
         <v>0</v>
@@ -2924,7 +2885,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K12" s="34">
         <v>3</v>
@@ -2937,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
@@ -2945,24 +2906,24 @@
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="154"/>
+      <c r="B13" s="170" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="172"/>
       <c r="F13" s="32">
         <v>2</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H13" s="32">
         <v>0</v>
@@ -2971,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K13" s="34">
         <v>3</v>
@@ -2984,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
@@ -2992,24 +2953,24 @@
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="154"/>
+      <c r="B14" s="170" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="171"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="172"/>
       <c r="F14" s="32">
         <v>2</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H14" s="32">
         <v>0</v>
@@ -3025,38 +2986,38 @@
         <v>2</v>
       </c>
       <c r="M14" s="34" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="N14" s="32">
         <v>2</v>
       </c>
       <c r="O14" s="34"/>
       <c r="P14" s="33" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
       <c r="U14" s="36" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="152" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="154"/>
+        <v>26</v>
+      </c>
+      <c r="B15" s="170" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="172"/>
       <c r="F15" s="32">
         <v>0</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H15" s="32">
         <v>1</v>
@@ -3065,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K15" s="33">
         <v>2</v>
@@ -3081,31 +3042,31 @@
       </c>
       <c r="O15" s="34"/>
       <c r="P15" s="33" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="34"/>
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
       <c r="U15" s="36" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="160"/>
+      <c r="B16" s="132" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
       <c r="F16" s="32">
         <v>2</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H16" s="32">
         <v>0</v>
@@ -3121,38 +3082,38 @@
         <v>2</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="N16" s="32">
         <v>2</v>
       </c>
       <c r="O16" s="34"/>
       <c r="P16" s="33" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="34"/>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
       <c r="U16" s="36" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="163" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
       <c r="F17" s="32">
         <v>0</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H17" s="32">
         <v>1</v>
@@ -3161,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K17" s="33">
         <v>2</v>
@@ -3177,31 +3138,31 @@
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="33" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
       <c r="U17" s="36" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="158" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="160"/>
+      <c r="B18" s="132" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
       <c r="F18" s="32">
         <v>2</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H18" s="32">
         <v>0</v>
@@ -3210,7 +3171,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K18" s="34">
         <v>2</v>
@@ -3226,31 +3187,31 @@
       </c>
       <c r="O18" s="34"/>
       <c r="P18" s="33" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="34"/>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="152" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154"/>
+      <c r="B19" s="170" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="172"/>
       <c r="F19" s="32">
         <v>1</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H19" s="32">
         <v>0</v>
@@ -3259,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K19" s="34">
         <v>2</v>
@@ -3273,31 +3234,31 @@
       </c>
       <c r="O19" s="34"/>
       <c r="P19" s="33" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="34"/>
       <c r="R19" s="34"/>
       <c r="S19" s="34"/>
       <c r="T19" s="34"/>
       <c r="U19" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="158" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="160"/>
+      <c r="B20" s="132" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="32">
         <v>2</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H20" s="32">
         <v>0</v>
@@ -3313,38 +3274,38 @@
         <v>2</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="N20" s="32">
         <v>2</v>
       </c>
       <c r="O20" s="34"/>
       <c r="P20" s="33" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="S20" s="34"/>
       <c r="T20" s="34"/>
       <c r="U20" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="158" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="160"/>
+        <v>30</v>
+      </c>
+      <c r="B21" s="132" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
       <c r="F21" s="32">
         <v>0</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H21" s="32">
         <v>2</v>
@@ -3353,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K21" s="33">
         <v>2</v>
@@ -3369,31 +3330,31 @@
       </c>
       <c r="O21" s="34"/>
       <c r="P21" s="33" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="34"/>
       <c r="R21" s="34"/>
       <c r="S21" s="34"/>
       <c r="T21" s="34"/>
       <c r="U21" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="163" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
+      <c r="B22" s="155" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
       <c r="F22" s="32">
         <v>2</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H22" s="32">
         <v>0</v>
@@ -3415,30 +3376,30 @@
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="33" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="34"/>
       <c r="T22" s="34"/>
       <c r="U22" s="36" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="158" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="160"/>
+      <c r="B23" s="132" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="32">
         <v>2</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H23" s="32">
         <v>0</v>
@@ -3447,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K23" s="34">
         <v>2</v>
@@ -3462,30 +3423,30 @@
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
       <c r="Q23" s="33" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
       <c r="T23" s="34"/>
       <c r="U23" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="152" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
+        <v>89</v>
+      </c>
+      <c r="B24" s="170" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="172"/>
       <c r="F24" s="32">
         <v>2</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="H24" s="32">
         <v>0</v>
@@ -3494,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K24" s="34">
         <v>4</v>
@@ -3511,30 +3472,30 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="33" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="34"/>
       <c r="T24" s="34"/>
       <c r="U24" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="158" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="159"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="160"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="132" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="134"/>
       <c r="F25" s="32">
         <v>2</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H25" s="32">
         <v>0</v>
@@ -3550,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="N25" s="32">
         <v>3</v>
@@ -3558,30 +3519,30 @@
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
       <c r="Q25" s="33" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="R25" s="34"/>
       <c r="S25" s="34"/>
       <c r="T25" s="34"/>
       <c r="U25" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="158" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="160"/>
+        <v>31</v>
+      </c>
+      <c r="B26" s="132" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
       <c r="F26" s="32">
         <v>0</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H26" s="32">
         <v>1</v>
@@ -3590,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K26" s="33">
         <v>2</v>
@@ -3599,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N26" s="32">
         <v>3</v>
@@ -3607,30 +3568,30 @@
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="33" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
       <c r="U26" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="158" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="160"/>
+      <c r="B27" s="132" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
       <c r="F27" s="32">
         <v>1</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H27" s="32">
         <v>0</v>
@@ -3639,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K27" s="34">
         <v>1</v>
@@ -3648,7 +3609,7 @@
         <v>3</v>
       </c>
       <c r="M27" s="34" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N27" s="32">
         <v>4</v>
@@ -3657,29 +3618,29 @@
       <c r="P27" s="34"/>
       <c r="Q27" s="34"/>
       <c r="R27" s="33" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
       <c r="U27" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="158" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="160"/>
+      <c r="B28" s="132" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="134"/>
       <c r="F28" s="32">
         <v>1</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H28" s="32">
         <v>0</v>
@@ -3688,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K28" s="34">
         <v>1</v>
@@ -3706,29 +3667,29 @@
       <c r="P28" s="34"/>
       <c r="Q28" s="34"/>
       <c r="R28" s="33" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
       <c r="U28" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="158" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="160"/>
+      <c r="B29" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="32">
         <v>2</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H29" s="39">
         <v>0</v>
@@ -3744,7 +3705,7 @@
         <v>2</v>
       </c>
       <c r="M29" s="34" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="N29" s="32">
         <v>5</v>
@@ -3754,28 +3715,28 @@
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
       <c r="S29" s="33" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="T29" s="34"/>
       <c r="U29" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="158" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="160"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="134"/>
       <c r="F30" s="32">
         <v>0</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H30" s="32">
         <v>0</v>
@@ -3784,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K30" s="33">
         <v>1</v>
@@ -3803,28 +3764,28 @@
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
       <c r="S30" s="33" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="T30" s="34"/>
       <c r="U30" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="183" t="s">
+      <c r="B31" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="41">
+        <v>2</v>
+      </c>
+      <c r="G31" s="42" t="s">
         <v>50</v>
-      </c>
-      <c r="C31" s="184"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="41">
-        <v>2</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>70</v>
       </c>
       <c r="H31" s="41">
         <v>0</v>
@@ -3840,7 +3801,7 @@
         <v>3</v>
       </c>
       <c r="M31" s="44" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="N31" s="45">
         <v>5</v>
@@ -3850,28 +3811,28 @@
       <c r="Q31" s="46"/>
       <c r="R31" s="46"/>
       <c r="S31" s="44" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="T31" s="46"/>
       <c r="U31" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="186" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
+        <v>60</v>
+      </c>
+      <c r="B32" s="145" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
       <c r="F32" s="45">
         <v>2</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H32" s="126">
         <v>0</v>
@@ -3887,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="M32" s="127" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="N32" s="45">
         <v>6</v>
@@ -3898,27 +3859,27 @@
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
       <c r="T32" s="44" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="U32" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="162" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="162"/>
+        <v>59</v>
+      </c>
+      <c r="B33" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
       <c r="F33" s="49">
         <v>0</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H33" s="49">
         <v>0</v>
@@ -3927,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K33" s="50">
         <v>1</v>
@@ -3936,7 +3897,7 @@
         <v>2</v>
       </c>
       <c r="M33" s="51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N33" s="49">
         <v>6</v>
@@ -3947,20 +3908,20 @@
       <c r="R33" s="52"/>
       <c r="S33" s="52"/>
       <c r="T33" s="50" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="U33" s="53" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54"/>
-      <c r="B34" s="187" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="188"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="189"/>
+      <c r="B34" s="128" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="130"/>
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
       <c r="H34" s="55"/>
@@ -4228,104 +4189,104 @@
       <c r="U44" s="1"/>
     </row>
     <row r="45" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="190" t="s">
-        <v>203</v>
-      </c>
-      <c r="B45" s="191"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
-      <c r="J45" s="191"/>
-      <c r="K45" s="191"/>
-      <c r="L45" s="191"/>
-      <c r="M45" s="191"/>
-      <c r="N45" s="191"/>
-      <c r="O45" s="191"/>
-      <c r="P45" s="191"/>
-      <c r="Q45" s="191"/>
-      <c r="R45" s="191"/>
-      <c r="S45" s="191"/>
-      <c r="T45" s="191"/>
-      <c r="U45" s="192"/>
+      <c r="A45" s="138" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="139"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="139"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="139"/>
+      <c r="M45" s="139"/>
+      <c r="N45" s="139"/>
+      <c r="O45" s="139"/>
+      <c r="P45" s="139"/>
+      <c r="Q45" s="139"/>
+      <c r="R45" s="139"/>
+      <c r="S45" s="139"/>
+      <c r="T45" s="139"/>
+      <c r="U45" s="140"/>
     </row>
     <row r="46" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="131"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="165"/>
       <c r="F46" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="U46" s="7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
+      <c r="B47" s="189" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="189"/>
+      <c r="D47" s="189"/>
+      <c r="E47" s="189"/>
       <c r="F47" s="61">
         <v>2</v>
       </c>
       <c r="G47" s="62" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H47" s="63">
         <v>0</v>
@@ -4341,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="62" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="N47" s="61">
         <v>3</v>
@@ -4349,30 +4310,30 @@
       <c r="O47" s="75"/>
       <c r="P47" s="75"/>
       <c r="Q47" s="62" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="R47" s="75"/>
       <c r="S47" s="75"/>
       <c r="T47" s="75"/>
       <c r="U47" s="64" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="140" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="140"/>
+        <v>28</v>
+      </c>
+      <c r="B48" s="141" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
       <c r="F48" s="45">
         <v>0</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H48" s="45">
         <v>1</v>
@@ -4381,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K48" s="44">
         <v>1</v>
@@ -4398,30 +4359,30 @@
       <c r="O48" s="46"/>
       <c r="P48" s="46"/>
       <c r="Q48" s="44" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="R48" s="46"/>
       <c r="S48" s="46"/>
       <c r="T48" s="46"/>
       <c r="U48" s="36" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="141" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="143"/>
+      <c r="B49" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="137"/>
       <c r="F49" s="45">
         <v>1</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H49" s="45">
         <v>0</v>
@@ -4430,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K49" s="46">
         <v>1</v>
@@ -4447,30 +4408,30 @@
       <c r="O49" s="46"/>
       <c r="P49" s="46"/>
       <c r="Q49" s="44" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="R49" s="46"/>
       <c r="S49" s="46"/>
       <c r="T49" s="46"/>
       <c r="U49" s="36" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
+        <v>81</v>
+      </c>
+      <c r="B50" s="141" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
       <c r="F50" s="45">
         <v>2</v>
       </c>
       <c r="G50" s="44" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H50" s="67">
         <v>0</v>
@@ -4486,7 +4447,7 @@
         <v>2</v>
       </c>
       <c r="M50" s="46" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="N50" s="45">
         <v>4</v>
@@ -4495,29 +4456,29 @@
       <c r="P50" s="46"/>
       <c r="Q50" s="46"/>
       <c r="R50" s="44" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="S50" s="46"/>
       <c r="T50" s="46"/>
       <c r="U50" s="36" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="140" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140"/>
+        <v>82</v>
+      </c>
+      <c r="B51" s="141" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="141"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="141"/>
       <c r="F51" s="45">
         <v>0</v>
       </c>
       <c r="G51" s="44" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H51" s="45">
         <v>1</v>
@@ -4526,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="44" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K51" s="44">
         <v>2</v>
@@ -4544,29 +4505,29 @@
       <c r="P51" s="46"/>
       <c r="Q51" s="46"/>
       <c r="R51" s="44" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="S51" s="46"/>
       <c r="T51" s="46"/>
       <c r="U51" s="36" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="141" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="148"/>
+      <c r="B52" s="135" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="177"/>
+      <c r="D52" s="177"/>
+      <c r="E52" s="178"/>
       <c r="F52" s="45">
         <v>2</v>
       </c>
       <c r="G52" s="44" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H52" s="45">
         <v>0</v>
@@ -4575,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="33" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K52" s="46">
         <v>1</v>
@@ -4593,29 +4554,29 @@
       <c r="P52" s="46"/>
       <c r="Q52" s="46"/>
       <c r="R52" s="44" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="S52" s="46"/>
       <c r="T52" s="46"/>
       <c r="U52" s="36" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="140" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="140"/>
+        <v>24</v>
+      </c>
+      <c r="B53" s="141" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="141"/>
+      <c r="D53" s="141"/>
+      <c r="E53" s="141"/>
       <c r="F53" s="45">
         <v>2</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H53" s="45">
         <v>0</v>
@@ -4631,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="M53" s="44" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N53" s="45">
         <v>4</v>
@@ -4640,29 +4601,29 @@
       <c r="P53" s="46"/>
       <c r="Q53" s="46"/>
       <c r="R53" s="44" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="S53" s="46"/>
       <c r="T53" s="46"/>
       <c r="U53" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
+        <v>32</v>
+      </c>
+      <c r="B54" s="141" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="141"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="141"/>
       <c r="F54" s="45">
         <v>0</v>
       </c>
       <c r="G54" s="44" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H54" s="45">
         <v>1</v>
@@ -4671,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="44" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K54" s="44">
         <v>1</v>
@@ -4689,29 +4650,29 @@
       <c r="P54" s="46"/>
       <c r="Q54" s="46"/>
       <c r="R54" s="44" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="S54" s="46"/>
       <c r="T54" s="46"/>
       <c r="U54" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="142"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="143"/>
+      <c r="B55" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="137"/>
       <c r="F55" s="45">
         <v>0</v>
       </c>
       <c r="G55" s="66" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H55" s="45">
         <v>0</v>
@@ -4720,7 +4681,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="44" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K55" s="44">
         <v>1</v>
@@ -4737,30 +4698,30 @@
       <c r="O55" s="46"/>
       <c r="P55" s="46"/>
       <c r="Q55" s="44" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="R55" s="46"/>
       <c r="S55" s="76"/>
       <c r="T55" s="43"/>
       <c r="U55" s="36" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="141" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="143"/>
+      <c r="B56" s="135" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="137"/>
       <c r="F56" s="45">
         <v>0</v>
       </c>
       <c r="G56" s="66" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H56" s="45">
         <v>0</v>
@@ -4769,7 +4730,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="44" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K56" s="44">
         <v>1</v>
@@ -4788,28 +4749,28 @@
       <c r="Q56" s="46"/>
       <c r="R56" s="46"/>
       <c r="S56" s="44" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="T56" s="43"/>
       <c r="U56" s="36" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="140" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
+        <v>33</v>
+      </c>
+      <c r="B57" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
       <c r="F57" s="45">
         <v>2</v>
       </c>
       <c r="G57" s="44" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H57" s="45">
         <v>0</v>
@@ -4825,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="M57" s="44" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="N57" s="45">
         <v>5</v>
@@ -4835,28 +4796,28 @@
       <c r="Q57" s="46"/>
       <c r="R57" s="46"/>
       <c r="S57" s="44" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="T57" s="46"/>
       <c r="U57" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
+        <v>83</v>
+      </c>
+      <c r="B58" s="141" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="141"/>
       <c r="F58" s="45">
         <v>0</v>
       </c>
       <c r="G58" s="44" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H58" s="45">
         <v>1</v>
@@ -4865,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="44" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K58" s="44">
         <v>1</v>
@@ -4874,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="M58" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N58" s="45">
         <v>5</v>
@@ -4884,28 +4845,28 @@
       <c r="Q58" s="46"/>
       <c r="R58" s="46"/>
       <c r="S58" s="44" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="T58" s="46"/>
       <c r="U58" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="B59" s="141" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="147"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="148"/>
+        <v>131</v>
+      </c>
+      <c r="B59" s="135" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="177"/>
+      <c r="D59" s="177"/>
+      <c r="E59" s="178"/>
       <c r="F59" s="45">
         <v>2</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H59" s="67">
         <v>0</v>
@@ -4914,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="67" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K59" s="44">
         <v>0</v>
@@ -4933,28 +4894,28 @@
       <c r="Q59" s="46"/>
       <c r="R59" s="46"/>
       <c r="S59" s="44" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="T59" s="46"/>
       <c r="U59" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="162"/>
-      <c r="D60" s="162"/>
-      <c r="E60" s="162"/>
+      <c r="B60" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="131"/>
       <c r="F60" s="49">
         <v>2</v>
       </c>
       <c r="G60" s="50" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H60" s="49">
         <v>0</v>
@@ -4981,20 +4942,20 @@
       <c r="R60" s="51"/>
       <c r="S60" s="51"/>
       <c r="T60" s="50" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="U60" s="53" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54"/>
-      <c r="B61" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="161"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="161"/>
+      <c r="B61" s="176" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="176"/>
+      <c r="D61" s="176"/>
+      <c r="E61" s="176"/>
       <c r="F61" s="70"/>
       <c r="G61" s="70"/>
       <c r="H61" s="70"/>
@@ -5099,104 +5060,104 @@
       <c r="U64" s="1"/>
     </row>
     <row r="65" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="155" t="s">
-        <v>204</v>
-      </c>
-      <c r="B65" s="156"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="156"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="156"/>
-      <c r="K65" s="156"/>
-      <c r="L65" s="156"/>
-      <c r="M65" s="156"/>
-      <c r="N65" s="156"/>
-      <c r="O65" s="156"/>
-      <c r="P65" s="156"/>
-      <c r="Q65" s="156"/>
-      <c r="R65" s="156"/>
-      <c r="S65" s="156"/>
-      <c r="T65" s="156"/>
-      <c r="U65" s="157"/>
+      <c r="A65" s="173" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="174"/>
+      <c r="C65" s="174"/>
+      <c r="D65" s="174"/>
+      <c r="E65" s="174"/>
+      <c r="F65" s="174"/>
+      <c r="G65" s="174"/>
+      <c r="H65" s="174"/>
+      <c r="I65" s="174"/>
+      <c r="J65" s="174"/>
+      <c r="K65" s="174"/>
+      <c r="L65" s="174"/>
+      <c r="M65" s="174"/>
+      <c r="N65" s="174"/>
+      <c r="O65" s="174"/>
+      <c r="P65" s="174"/>
+      <c r="Q65" s="174"/>
+      <c r="R65" s="174"/>
+      <c r="S65" s="174"/>
+      <c r="T65" s="174"/>
+      <c r="U65" s="175"/>
     </row>
     <row r="66" spans="1:21" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="131"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="165"/>
       <c r="F66" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="U66" s="7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="149" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="150"/>
-      <c r="D67" s="150"/>
-      <c r="E67" s="151"/>
+      <c r="B67" s="179" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="180"/>
+      <c r="D67" s="180"/>
+      <c r="E67" s="181"/>
       <c r="F67" s="61">
         <v>1</v>
       </c>
       <c r="G67" s="62" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H67" s="61">
         <v>0</v>
@@ -5205,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="77" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K67" s="75">
         <v>1</v>
@@ -5223,29 +5184,29 @@
       <c r="P67" s="75"/>
       <c r="Q67" s="75"/>
       <c r="R67" s="62" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="S67" s="75"/>
       <c r="T67" s="75"/>
       <c r="U67" s="78" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="140" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="140"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="140"/>
+        <v>35</v>
+      </c>
+      <c r="B68" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="141"/>
+      <c r="D68" s="141"/>
+      <c r="E68" s="141"/>
       <c r="F68" s="45">
         <v>2</v>
       </c>
       <c r="G68" s="44" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H68" s="67">
         <v>0</v>
@@ -5261,7 +5222,7 @@
         <v>2</v>
       </c>
       <c r="M68" s="46" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="N68" s="45">
         <v>4</v>
@@ -5270,29 +5231,29 @@
       <c r="P68" s="66"/>
       <c r="Q68" s="66"/>
       <c r="R68" s="44" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="S68" s="66"/>
       <c r="T68" s="66"/>
       <c r="U68" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="140" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="140"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="140"/>
+        <v>34</v>
+      </c>
+      <c r="B69" s="141" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="141"/>
+      <c r="D69" s="141"/>
+      <c r="E69" s="141"/>
       <c r="F69" s="45">
         <v>0</v>
       </c>
       <c r="G69" s="44" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H69" s="45">
         <v>0</v>
@@ -5301,7 +5262,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="44" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K69" s="44">
         <v>1</v>
@@ -5319,29 +5280,29 @@
       <c r="P69" s="66"/>
       <c r="Q69" s="66"/>
       <c r="R69" s="44" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="S69" s="66"/>
       <c r="T69" s="66"/>
       <c r="U69" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="140" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" s="140"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="140"/>
+        <v>84</v>
+      </c>
+      <c r="B70" s="141" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="141"/>
+      <c r="D70" s="141"/>
+      <c r="E70" s="141"/>
       <c r="F70" s="45">
         <v>2</v>
       </c>
       <c r="G70" s="44" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H70" s="45">
         <v>0</v>
@@ -5363,30 +5324,30 @@
       <c r="O70" s="66"/>
       <c r="P70" s="66"/>
       <c r="Q70" s="44" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="R70" s="44"/>
       <c r="S70" s="66"/>
       <c r="T70" s="66"/>
       <c r="U70" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="140" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="140"/>
-      <c r="D71" s="140"/>
-      <c r="E71" s="140"/>
+      <c r="B71" s="141" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="141"/>
+      <c r="D71" s="141"/>
+      <c r="E71" s="141"/>
       <c r="F71" s="45">
         <v>1</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H71" s="45">
         <v>0</v>
@@ -5395,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="33" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K71" s="46">
         <v>2</v>
@@ -5414,28 +5375,28 @@
       <c r="Q71" s="69"/>
       <c r="R71" s="69"/>
       <c r="S71" s="65" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="T71" s="69"/>
       <c r="U71" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="140" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="140"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="140"/>
+      <c r="B72" s="141" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="141"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="141"/>
       <c r="F72" s="45">
         <v>0</v>
       </c>
       <c r="G72" s="46" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H72" s="45">
         <v>0</v>
@@ -5444,7 +5405,7 @@
         <v>2</v>
       </c>
       <c r="J72" s="44" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K72" s="44">
         <v>2</v>
@@ -5453,7 +5414,7 @@
         <v>4</v>
       </c>
       <c r="M72" s="46" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="N72" s="45">
         <v>6</v>
@@ -5464,27 +5425,27 @@
       <c r="R72" s="69"/>
       <c r="S72" s="69"/>
       <c r="T72" s="65" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="U72" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="B73" s="141" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="142"/>
-      <c r="D73" s="142"/>
-      <c r="E73" s="143"/>
+        <v>116</v>
+      </c>
+      <c r="B73" s="135" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="136"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="137"/>
       <c r="F73" s="49">
         <v>2</v>
       </c>
       <c r="G73" s="51" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H73" s="49">
         <v>0</v>
@@ -5503,39 +5464,39 @@
         <v>0</v>
       </c>
       <c r="N73" s="80" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O73" s="81"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="51"/>
       <c r="R73" s="51" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="S73" s="51" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="T73" s="51" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="U73" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="B74" s="141" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
-      <c r="E74" s="143"/>
+        <v>119</v>
+      </c>
+      <c r="B74" s="135" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="136"/>
+      <c r="D74" s="136"/>
+      <c r="E74" s="137"/>
       <c r="F74" s="49">
         <v>0</v>
       </c>
       <c r="G74" s="51" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H74" s="49">
         <v>0</v>
@@ -5551,42 +5512,42 @@
         <v>3</v>
       </c>
       <c r="M74" s="34" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="N74" s="80" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O74" s="81"/>
       <c r="P74" s="81"/>
       <c r="Q74" s="51"/>
       <c r="R74" s="51" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="S74" s="51" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="T74" s="51" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="U74" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" s="141" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="142"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="143"/>
+        <v>122</v>
+      </c>
+      <c r="B75" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="136"/>
+      <c r="D75" s="136"/>
+      <c r="E75" s="137"/>
       <c r="F75" s="49">
         <v>2</v>
       </c>
       <c r="G75" s="51" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H75" s="49">
         <v>0</v>
@@ -5595,7 +5556,7 @@
         <v>2</v>
       </c>
       <c r="J75" s="50" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K75" s="50">
         <v>1</v>
@@ -5604,40 +5565,40 @@
         <v>5</v>
       </c>
       <c r="M75" s="82" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="N75" s="80" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="O75" s="81"/>
       <c r="P75" s="81"/>
       <c r="Q75" s="51"/>
       <c r="R75" s="51" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="S75" s="51"/>
       <c r="T75" s="51" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="U75" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="B76" s="141" t="s">
-        <v>172</v>
-      </c>
-      <c r="C76" s="142"/>
-      <c r="D76" s="142"/>
-      <c r="E76" s="143"/>
+        <v>123</v>
+      </c>
+      <c r="B76" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="136"/>
+      <c r="D76" s="136"/>
+      <c r="E76" s="137"/>
       <c r="F76" s="49">
         <v>2</v>
       </c>
       <c r="G76" s="51" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H76" s="49">
         <v>0</v>
@@ -5653,38 +5614,38 @@
         <v>2</v>
       </c>
       <c r="M76" s="82" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="N76" s="80" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="O76" s="81"/>
       <c r="P76" s="81"/>
       <c r="Q76" s="51"/>
       <c r="R76" s="51" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="S76" s="51"/>
       <c r="T76" s="48"/>
       <c r="U76" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B77" s="141" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" s="142"/>
-      <c r="D77" s="142"/>
-      <c r="E77" s="143"/>
+        <v>127</v>
+      </c>
+      <c r="B77" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="136"/>
+      <c r="D77" s="136"/>
+      <c r="E77" s="137"/>
       <c r="F77" s="49">
         <v>0</v>
       </c>
       <c r="G77" s="51" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H77" s="49">
         <v>2</v>
@@ -5693,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="50" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K77" s="50">
         <v>1</v>
@@ -5709,29 +5670,29 @@
       <c r="P77" s="81"/>
       <c r="Q77" s="81"/>
       <c r="R77" s="51" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="S77" s="81"/>
       <c r="T77" s="48"/>
       <c r="U77" s="38" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B78" s="136" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" s="137"/>
-      <c r="D78" s="137"/>
-      <c r="E78" s="138"/>
+        <v>87</v>
+      </c>
+      <c r="B78" s="186" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="187"/>
+      <c r="D78" s="187"/>
+      <c r="E78" s="188"/>
       <c r="F78" s="49">
         <v>2</v>
       </c>
       <c r="G78" s="51" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H78" s="49">
         <v>2</v>
@@ -5750,39 +5711,39 @@
         <v>7</v>
       </c>
       <c r="N78" s="49" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="O78" s="81"/>
       <c r="P78" s="81"/>
       <c r="Q78" s="51" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="R78" s="51" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="S78" s="51" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="T78" s="48"/>
       <c r="U78" s="35" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="B79" s="180" t="s">
-        <v>196</v>
-      </c>
-      <c r="C79" s="181"/>
-      <c r="D79" s="181"/>
-      <c r="E79" s="182"/>
+        <v>145</v>
+      </c>
+      <c r="B79" s="152" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="153"/>
+      <c r="D79" s="153"/>
+      <c r="E79" s="154"/>
       <c r="F79" s="86">
         <v>2</v>
       </c>
       <c r="G79" s="87" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H79" s="86">
         <v>0</v>
@@ -5799,30 +5760,30 @@
       </c>
       <c r="M79" s="89"/>
       <c r="N79" s="90" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="O79" s="91"/>
       <c r="P79" s="91"/>
       <c r="Q79" s="87" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="R79" s="87"/>
       <c r="S79" s="87" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="T79" s="92"/>
       <c r="U79" s="93" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="94"/>
-      <c r="B80" s="178" t="s">
-        <v>189</v>
-      </c>
-      <c r="C80" s="178"/>
-      <c r="D80" s="178"/>
-      <c r="E80" s="178"/>
+      <c r="B80" s="150" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="150"/>
+      <c r="D80" s="150"/>
+      <c r="E80" s="150"/>
       <c r="F80" s="95"/>
       <c r="G80" s="96"/>
       <c r="H80" s="95"/>
@@ -5848,12 +5809,12 @@
     </row>
     <row r="81" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="40"/>
-      <c r="B81" s="179" t="s">
-        <v>190</v>
-      </c>
-      <c r="C81" s="179"/>
-      <c r="D81" s="179"/>
-      <c r="E81" s="179"/>
+      <c r="B81" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="151"/>
+      <c r="D81" s="151"/>
+      <c r="E81" s="151"/>
       <c r="F81" s="45"/>
       <c r="G81" s="46"/>
       <c r="H81" s="45"/>
@@ -5879,12 +5840,12 @@
     </row>
     <row r="82" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="94"/>
-      <c r="B82" s="176" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="176"/>
-      <c r="D82" s="176"/>
-      <c r="E82" s="176"/>
+      <c r="B82" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="148"/>
+      <c r="D82" s="148"/>
+      <c r="E82" s="148"/>
       <c r="F82" s="107"/>
       <c r="G82" s="107"/>
       <c r="H82" s="107"/>
@@ -5914,12 +5875,12 @@
     </row>
     <row r="83" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="94"/>
-      <c r="B83" s="176" t="s">
-        <v>197</v>
-      </c>
-      <c r="C83" s="176"/>
-      <c r="D83" s="176"/>
-      <c r="E83" s="176"/>
+      <c r="B83" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
       <c r="F83" s="107"/>
       <c r="G83" s="107"/>
       <c r="H83" s="107"/>
@@ -5938,19 +5899,19 @@
       <c r="Q83" s="109"/>
       <c r="R83" s="108"/>
       <c r="S83" s="111" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="T83" s="108"/>
       <c r="U83" s="110"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="112"/>
-      <c r="B84" s="176" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" s="176"/>
-      <c r="D84" s="176"/>
-      <c r="E84" s="176"/>
+      <c r="B84" s="148" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="148"/>
+      <c r="D84" s="148"/>
+      <c r="E84" s="148"/>
       <c r="F84" s="113"/>
       <c r="G84" s="113"/>
       <c r="H84" s="113"/>
@@ -5962,7 +5923,7 @@
       </c>
       <c r="M84" s="113"/>
       <c r="N84" s="111" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="O84" s="111">
         <v>4</v>
@@ -5980,14 +5941,14 @@
     </row>
     <row r="85" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="116" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" s="177" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" s="177"/>
-      <c r="D85" s="177"/>
-      <c r="E85" s="177"/>
+        <v>68</v>
+      </c>
+      <c r="B85" s="149" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="149"/>
+      <c r="D85" s="149"/>
+      <c r="E85" s="149"/>
       <c r="F85" s="117"/>
       <c r="G85" s="117"/>
       <c r="H85" s="117"/>
@@ -6011,12 +5972,12 @@
     </row>
     <row r="86" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="120"/>
-      <c r="B86" s="177" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" s="177"/>
-      <c r="D86" s="177"/>
-      <c r="E86" s="177"/>
+      <c r="B86" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="149"/>
+      <c r="D86" s="149"/>
+      <c r="E86" s="149"/>
       <c r="F86" s="117"/>
       <c r="G86" s="117"/>
       <c r="H86" s="117"/>
@@ -6054,12 +6015,12 @@
     </row>
     <row r="87" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="122"/>
-      <c r="B87" s="144" t="s">
-        <v>74</v>
-      </c>
-      <c r="C87" s="145"/>
-      <c r="D87" s="145"/>
-      <c r="E87" s="146"/>
+      <c r="B87" s="190" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="191"/>
+      <c r="D87" s="191"/>
+      <c r="E87" s="192"/>
       <c r="F87" s="123"/>
       <c r="G87" s="123"/>
       <c r="H87" s="123"/>
@@ -6082,62 +6043,62 @@
     </row>
     <row r="89" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B89" s="175" t="s">
-        <v>117</v>
-      </c>
-      <c r="C89" s="175"/>
-      <c r="D89" s="175"/>
-      <c r="E89" s="175"/>
+        <v>138</v>
+      </c>
+      <c r="B89" s="147" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="147"/>
+      <c r="D89" s="147"/>
+      <c r="E89" s="147"/>
     </row>
     <row r="90" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B90" s="175" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" s="175"/>
-      <c r="D90" s="175"/>
-      <c r="E90" s="175"/>
+        <v>139</v>
+      </c>
+      <c r="B90" s="147" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
+      <c r="E90" s="147"/>
     </row>
     <row r="91" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B91" s="175" t="s">
-        <v>119</v>
-      </c>
-      <c r="C91" s="175"/>
-      <c r="D91" s="175"/>
-      <c r="E91" s="175"/>
+        <v>140</v>
+      </c>
+      <c r="B91" s="147" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="147"/>
+      <c r="D91" s="147"/>
+      <c r="E91" s="147"/>
     </row>
     <row r="93" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A93" s="132" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" s="132"/>
-      <c r="C93" s="132"/>
-      <c r="D93" s="132"/>
-      <c r="E93" s="132"/>
-      <c r="F93" s="132"/>
-      <c r="G93" s="132"/>
-      <c r="H93" s="132"/>
-      <c r="I93" s="132"/>
-      <c r="J93" s="132"/>
-      <c r="K93" s="132"/>
-      <c r="L93" s="132"/>
-      <c r="M93" s="132"/>
-      <c r="N93" s="132"/>
-      <c r="O93" s="132"/>
-      <c r="P93" s="132"/>
-      <c r="Q93" s="132"/>
-      <c r="R93" s="132"/>
-      <c r="S93" s="132"/>
-      <c r="T93" s="132"/>
-      <c r="U93" s="132"/>
-      <c r="V93" s="132"/>
+      <c r="A93" s="146" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" s="146"/>
+      <c r="C93" s="146"/>
+      <c r="D93" s="146"/>
+      <c r="E93" s="146"/>
+      <c r="F93" s="146"/>
+      <c r="G93" s="146"/>
+      <c r="H93" s="146"/>
+      <c r="I93" s="146"/>
+      <c r="J93" s="146"/>
+      <c r="K93" s="146"/>
+      <c r="L93" s="146"/>
+      <c r="M93" s="146"/>
+      <c r="N93" s="146"/>
+      <c r="O93" s="146"/>
+      <c r="P93" s="146"/>
+      <c r="Q93" s="146"/>
+      <c r="R93" s="146"/>
+      <c r="S93" s="146"/>
+      <c r="T93" s="146"/>
+      <c r="U93" s="146"/>
+      <c r="V93" s="146"/>
     </row>
     <row r="94" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A94" s="16"/>
@@ -6164,208 +6125,181 @@
       <c r="V94" s="16"/>
     </row>
     <row r="95" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A95" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="B95" s="132"/>
-      <c r="C95" s="132"/>
-      <c r="D95" s="132"/>
-      <c r="E95" s="132"/>
-      <c r="F95" s="132"/>
-      <c r="G95" s="132"/>
-      <c r="H95" s="132"/>
-      <c r="I95" s="132"/>
-      <c r="J95" s="132"/>
-      <c r="K95" s="132"/>
-      <c r="L95" s="132"/>
-      <c r="M95" s="132"/>
-      <c r="N95" s="132"/>
-      <c r="O95" s="132"/>
-      <c r="P95" s="132"/>
-      <c r="Q95" s="132"/>
-      <c r="R95" s="132"/>
-      <c r="S95" s="132"/>
-      <c r="T95" s="132"/>
-      <c r="U95" s="132"/>
+      <c r="A95" s="146" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="146"/>
+      <c r="C95" s="146"/>
+      <c r="D95" s="146"/>
+      <c r="E95" s="146"/>
+      <c r="F95" s="146"/>
+      <c r="G95" s="146"/>
+      <c r="H95" s="146"/>
+      <c r="I95" s="146"/>
+      <c r="J95" s="146"/>
+      <c r="K95" s="146"/>
+      <c r="L95" s="146"/>
+      <c r="M95" s="146"/>
+      <c r="N95" s="146"/>
+      <c r="O95" s="146"/>
+      <c r="P95" s="146"/>
+      <c r="Q95" s="146"/>
+      <c r="R95" s="146"/>
+      <c r="S95" s="146"/>
+      <c r="T95" s="146"/>
+      <c r="U95" s="146"/>
       <c r="V95" s="16"/>
     </row>
     <row r="96" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="B97" s="133"/>
-      <c r="C97" s="133"/>
-      <c r="D97" s="133"/>
-      <c r="E97" s="133"/>
-      <c r="F97" s="133"/>
-      <c r="G97" s="133"/>
-      <c r="H97" s="133"/>
-      <c r="I97" s="133"/>
-      <c r="J97" s="133"/>
-      <c r="K97" s="133"/>
-      <c r="L97" s="133"/>
-      <c r="M97" s="133"/>
-      <c r="N97" s="133"/>
-      <c r="O97" s="133"/>
-      <c r="P97" s="133"/>
-      <c r="Q97" s="133"/>
-      <c r="R97" s="133"/>
-      <c r="S97" s="133"/>
-      <c r="T97" s="133"/>
-      <c r="U97" s="133"/>
-      <c r="V97" s="133"/>
+      <c r="A97" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" s="183"/>
+      <c r="C97" s="183"/>
+      <c r="D97" s="183"/>
+      <c r="E97" s="183"/>
+      <c r="F97" s="183"/>
+      <c r="G97" s="183"/>
+      <c r="H97" s="183"/>
+      <c r="I97" s="183"/>
+      <c r="J97" s="183"/>
+      <c r="K97" s="183"/>
+      <c r="L97" s="183"/>
+      <c r="M97" s="183"/>
+      <c r="N97" s="183"/>
+      <c r="O97" s="183"/>
+      <c r="P97" s="183"/>
+      <c r="Q97" s="183"/>
+      <c r="R97" s="183"/>
+      <c r="S97" s="183"/>
+      <c r="T97" s="183"/>
+      <c r="U97" s="183"/>
+      <c r="V97" s="183"/>
     </row>
     <row r="98" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="134" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" s="135"/>
-      <c r="C98" s="135"/>
-      <c r="D98" s="135"/>
-      <c r="E98" s="135"/>
-      <c r="F98" s="135"/>
-      <c r="G98" s="135"/>
-      <c r="H98" s="135"/>
-      <c r="I98" s="135"/>
-      <c r="J98" s="135"/>
-      <c r="K98" s="135"/>
-      <c r="L98" s="135"/>
-      <c r="M98" s="135"/>
-      <c r="N98" s="135"/>
-      <c r="O98" s="135"/>
-      <c r="P98" s="135"/>
-      <c r="Q98" s="135"/>
-      <c r="R98" s="135"/>
-      <c r="S98" s="135"/>
-      <c r="T98" s="135"/>
-      <c r="U98" s="135"/>
-      <c r="V98" s="135"/>
+      <c r="A98" s="184" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="185"/>
+      <c r="C98" s="185"/>
+      <c r="D98" s="185"/>
+      <c r="E98" s="185"/>
+      <c r="F98" s="185"/>
+      <c r="G98" s="185"/>
+      <c r="H98" s="185"/>
+      <c r="I98" s="185"/>
+      <c r="J98" s="185"/>
+      <c r="K98" s="185"/>
+      <c r="L98" s="185"/>
+      <c r="M98" s="185"/>
+      <c r="N98" s="185"/>
+      <c r="O98" s="185"/>
+      <c r="P98" s="185"/>
+      <c r="Q98" s="185"/>
+      <c r="R98" s="185"/>
+      <c r="S98" s="185"/>
+      <c r="T98" s="185"/>
+      <c r="U98" s="185"/>
+      <c r="V98" s="185"/>
     </row>
     <row r="99" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="128" t="s">
-        <v>124</v>
-      </c>
-      <c r="B100" s="128"/>
-      <c r="C100" s="128"/>
-      <c r="D100" s="128"/>
-      <c r="E100" s="128"/>
-      <c r="F100" s="128"/>
-      <c r="G100" s="128"/>
-      <c r="H100" s="128"/>
-      <c r="I100" s="128"/>
-      <c r="J100" s="128"/>
-      <c r="K100" s="128"/>
-      <c r="L100" s="128"/>
-      <c r="M100" s="128"/>
-      <c r="N100" s="128"/>
-      <c r="O100" s="128"/>
-      <c r="P100" s="128"/>
-      <c r="Q100" s="128"/>
-      <c r="R100" s="128"/>
-      <c r="S100" s="128"/>
-      <c r="T100" s="128"/>
-      <c r="U100" s="128"/>
-      <c r="V100" s="128"/>
+      <c r="A100" s="182" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="182"/>
+      <c r="C100" s="182"/>
+      <c r="D100" s="182"/>
+      <c r="E100" s="182"/>
+      <c r="F100" s="182"/>
+      <c r="G100" s="182"/>
+      <c r="H100" s="182"/>
+      <c r="I100" s="182"/>
+      <c r="J100" s="182"/>
+      <c r="K100" s="182"/>
+      <c r="L100" s="182"/>
+      <c r="M100" s="182"/>
+      <c r="N100" s="182"/>
+      <c r="O100" s="182"/>
+      <c r="P100" s="182"/>
+      <c r="Q100" s="182"/>
+      <c r="R100" s="182"/>
+      <c r="S100" s="182"/>
+      <c r="T100" s="182"/>
+      <c r="U100" s="182"/>
+      <c r="V100" s="182"/>
     </row>
     <row r="101" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="134" t="s">
-        <v>125</v>
-      </c>
-      <c r="B101" s="135"/>
-      <c r="C101" s="135"/>
-      <c r="D101" s="135"/>
-      <c r="E101" s="135"/>
-      <c r="F101" s="135"/>
-      <c r="G101" s="135"/>
-      <c r="H101" s="135"/>
-      <c r="I101" s="135"/>
-      <c r="J101" s="135"/>
-      <c r="K101" s="135"/>
-      <c r="L101" s="135"/>
-      <c r="M101" s="135"/>
-      <c r="N101" s="135"/>
-      <c r="O101" s="135"/>
-      <c r="P101" s="135"/>
-      <c r="Q101" s="135"/>
-      <c r="R101" s="135"/>
-      <c r="S101" s="135"/>
-      <c r="T101" s="135"/>
-      <c r="U101" s="135"/>
-      <c r="V101" s="135"/>
+      <c r="A101" s="184" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="185"/>
+      <c r="C101" s="185"/>
+      <c r="D101" s="185"/>
+      <c r="E101" s="185"/>
+      <c r="F101" s="185"/>
+      <c r="G101" s="185"/>
+      <c r="H101" s="185"/>
+      <c r="I101" s="185"/>
+      <c r="J101" s="185"/>
+      <c r="K101" s="185"/>
+      <c r="L101" s="185"/>
+      <c r="M101" s="185"/>
+      <c r="N101" s="185"/>
+      <c r="O101" s="185"/>
+      <c r="P101" s="185"/>
+      <c r="Q101" s="185"/>
+      <c r="R101" s="185"/>
+      <c r="S101" s="185"/>
+      <c r="T101" s="185"/>
+      <c r="U101" s="185"/>
+      <c r="V101" s="185"/>
     </row>
     <row r="103" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A103" s="128" t="s">
-        <v>135</v>
-      </c>
-      <c r="B103" s="128"/>
-      <c r="C103" s="128"/>
-      <c r="D103" s="128"/>
-      <c r="E103" s="128"/>
-      <c r="F103" s="128"/>
-      <c r="G103" s="128"/>
-      <c r="H103" s="128"/>
-      <c r="I103" s="128"/>
-      <c r="J103" s="128"/>
-      <c r="K103" s="128"/>
-      <c r="L103" s="128"/>
-      <c r="M103" s="128"/>
-      <c r="N103" s="128"/>
-      <c r="O103" s="128"/>
-      <c r="P103" s="128"/>
-      <c r="Q103" s="128"/>
-      <c r="R103" s="128"/>
-      <c r="S103" s="128"/>
-      <c r="T103" s="128"/>
-      <c r="U103" s="128"/>
-      <c r="V103" s="128"/>
+      <c r="A103" s="182" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="182"/>
+      <c r="C103" s="182"/>
+      <c r="D103" s="182"/>
+      <c r="E103" s="182"/>
+      <c r="F103" s="182"/>
+      <c r="G103" s="182"/>
+      <c r="H103" s="182"/>
+      <c r="I103" s="182"/>
+      <c r="J103" s="182"/>
+      <c r="K103" s="182"/>
+      <c r="L103" s="182"/>
+      <c r="M103" s="182"/>
+      <c r="N103" s="182"/>
+      <c r="O103" s="182"/>
+      <c r="P103" s="182"/>
+      <c r="Q103" s="182"/>
+      <c r="R103" s="182"/>
+      <c r="S103" s="182"/>
+      <c r="T103" s="182"/>
+      <c r="U103" s="182"/>
+      <c r="V103" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A95:U95"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A5:U5"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A103:V103"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="A93:V93"/>
+    <mergeCell ref="A97:V97"/>
+    <mergeCell ref="A98:V98"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="A100:V100"/>
+    <mergeCell ref="A101:V101"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B87:E87"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="B56:E56"/>
@@ -6382,27 +6316,54 @@
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A5:U5"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A95:U95"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
     <mergeCell ref="B59:E59"/>
     <mergeCell ref="B67:E67"/>
     <mergeCell ref="B71:E71"/>
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A103:V103"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A93:V93"/>
-    <mergeCell ref="A97:V97"/>
-    <mergeCell ref="A98:V98"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="A100:V100"/>
-    <mergeCell ref="A101:V101"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A98" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6604,15 +6565,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="64cee142-9623-4b63-8ea8-1d4facd6545a" xsi:nil="true"/>
@@ -6621,6 +6573,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6643,14 +6604,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B4B56D-B698-4134-B07F-9CBE0829161F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C7849BF-CC80-4F81-81D3-33F0F9C3ADF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6659,4 +6612,12 @@
     <ds:schemaRef ds:uri="0bdf3a53-275c-4001-b611-e41331286eb1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B4B56D-B698-4134-B07F-9CBE0829161F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>